--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="238">
   <si>
     <t>Doi</t>
   </si>
@@ -887,6 +887,93 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,   Bin%Huang%NULL%1,   Hongzhen%Xia%NULL%1,   Hua%Fan%NULL%1,   Muxin%Zhu%NULL%1,   Liping%Zhu%NULL%1,   Huan%Zhang%NULL%1,   Xiaogen%Tao%NULL%1,   Shaohui%Cheng%NULL%1,   Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,   Deliang%Huang%coreGivesNoEmail%2,   Hong%Yu%coreGivesNoEmail%2,   Jun%Chen%coreGivesNoEmail%0,   Lei%Liu%coreGivesNoEmail%0,   National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,   Pengcheng%Ou%coreGivesNoEmail%2,   Qing%He%coreGivesNoEmail%2,   Qingxian%Cai%coreGivesNoEmail%2,   Rossaint%J%coreGivesNoEmail%2,   Yang%Fu%coreGivesNoEmail%2,   Yiming%Zhang%coreGivesNoEmail%2,   Yinan%Su%coreGivesNoEmail%2,   Zhang%Xia%coreGivesNoEmail%2,   Zhenghua%Ma%coreGivesNoEmail%2,   Zhibin%Zhu%coreGivesNoEmail%2,   Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,    Tuantuan%Li%NULL%0,    Mingfeng%Han%NULL%0,    Xiuyong%Li%NULL%0,    Dong%Wu%NULL%0,    Yuanhong%Xu%NULL%0,    Yulin%Zhu%NULL%0,    Yan%Liu%NULL%0,    Xiaowu%Wang%wangxiaowu19880218@126.com%0,    Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,    Bohan%Yang%NULL%0,    Qianwen%Li%NULL%0,    Lu%Wen%NULL%0,    Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,    Luoqi%Zhou%NULL%0,    Ziwei%Hu%NULL%0,    Shuoqi%Zhang%NULL%0,    Sheng%Yang%NULL%0,    Yu%Tao%NULL%0,    Cuihong%Xie%NULL%0,    Ke%Ma%NULL%0,    Ke%Shang%NULL%0,    Wei%Wang%NULL%0,    Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,    Min%Pan%NULL%0,    Xiumei%Zhang%NULL%0,    Mingfeng%Han%fyhmf@163.com%0,    Xiaoyun%Fan%13956988552@126.com%0,    Fengde%Zhao%NULL%0,    Manli%Miao%NULL%0,    Jing%Xu%NULL%0,    Minglong%Guan%NULL%0,    Xia%Deng%NULL%0,    Xu%Chen%NULL%0,    Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,    Ting%Cai%NULL%1,    Lingyan%Fan%NULL%1,    Kehong%Lou%NULL%1,    Xin%Hua%NULL%1,    Zuoan%Huang%NULL%1,    Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,    Binghong%Zhao%NULL%1,    Yueming%Qu%NULL%1,    Yurou%Chen%NULL%1,    Jie%Xiong%NULL%0,    Yong%Feng%NULL%0,    Dong%Men%NULL%1,    Qianchuan%Huang%NULL%1,    Ying%Liu%NULL%0,    Bo%Yang%NULL%0,    Jinya%Ding%NULL%1,    Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,    Qiang%Zhang%NULL%1,    Qing%Li%NULL%1,    Ting%Wu%NULL%1,    Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,    Christian%Prebensen%christian.prebensen@gmail.com%1,    Heidi%Strand%Heidi.Strand@ahus.no%1,    Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,    Christine M.%Jonassen%chrjon@so-hf.no%1,    Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,    Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,    Signe%Søvik%signe.sovik@medisin.uio.no%1,    Helge%Røsjø%helge.rosjo@medisin.uio.no%1,    My%Svensson%m.h.s.svensson@medisin.uio.no%1,    Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,    Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,    Marina%de Castro Deus%NULL%1,    Joao Paulo%Telles%NULL%1,    Rafael%Wind%NULL%1,    Marina%Goes%NULL%1,    Roberta%Garcia Charello Ossoski%NULL%1,    Alessandra Michalski%de Padua%NULL%1,    Lucia%de Noronha%NULL%1,    Andrea%Moreno-Amaral%NULL%1,    Cristina Pellegrino%Baena%NULL%1,    Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,    Alberto%Utrero-Rico%NULL%1,    Paloma%Talayero%NULL%1,    Maria%Lasa-Lazaro%NULL%1,    Angel%Ramirez-Fernandez%NULL%1,    Laura%Naranjo%NULL%1,    Alejandro%Segura-Tudela%NULL%1,    Oscar%Cabrera-Marante%NULL%1,    Edgar%Rodriguez de Frias%NULL%1,    Rocio%Garcia-Garcia%NULL%1,    Mario%Fernández-Ruiz%NULL%0,    Jose Maria%Aguado%NULL%1,    Joaquin%Martinez-Lopez%NULL%1,    Elena Ana%Lopez%NULL%1,    Mercedes%Catalan%NULL%1,    Antonio%Serrano%NULL%1,    Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,    Wenbo%He%NULL%0,    Xiaomei%Yu%NULL%0,    Dalong%Hu%NULL%0,    Mingwei%Bao%NULL%0,    Huafen%Liu%NULL%0,    Jiali%Zhou%NULL%0,    Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,    Ruoqi%Ning%NULL%0,    Yu%Tao%NULL%0,    Chong%Yu%NULL%0,    Xiaoyan%Deng%NULL%0,    Caili%Zhao%NULL%0,    Silu%Meng%NULL%0,    Fangxu%Tang%89650793@qq.com%0,    Dong%Xu%89650793@qq.com%0,    Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,    Hui%Wang%NULL%0,    Guangming%Ye%NULL%2,    Xiaoling%Cao%NULL%1,    Xianqun%Xu%NULL%1,    Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,    Gil%Harari%NULL%1,    Michael%Gurevich%NULL%1,    Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,    Carmen M.%Cabrera%NULL%1,    Natalia%Jiménez%NULL%1,    Laura%Rincón%NULL%1,    José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,    Chong%Yu%NULL%0,    Daoyuan%Yue%NULL%1,    Xing%Zeng%NULL%1,    Zhiquan%Hu%NULL%1,    Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,    Wenwu%Sun%NULL%0,    Shengrong%Sun%NULL%0,    Zhiyu%Li%lizhiyu@whu.edu.cn%0,    Zhong%Wang%zhongwangchn@whu.edu.cn%0,    Li%Yu%yuliwhzxyy@163.com%0,    Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,    Jun%Wang%NULL%0,    Nan%Su%NULL%1,    Xiebing%Bao%NULL%1,    Yongsheng%Li%dr_ysli@126.com%1,    Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,    Jiangang%Jiang%NULL%0,    Feng%Wang%NULL%0,    Ning%Zhou%NULL%0,    Giacomo%Veronese%NULL%0,    Javid J.%Moslehi%NULL%0,    Enrico%Ammirati%NULL%0,    Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,    Chang%Shu%NULL%0,    Xiao%Ran%NULL%1,    Cui-Hong%Xie%NULL%1,    Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,    Chen%Dong%NULL%1,    Shengzhong%Li%NULL%1,    Xiaoqing%Song%NULL%1,    Wang%Wei%NULL%1,    Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,    Bin%Huang%NULL%1,    Hongzhen%Xia%NULL%1,    Hua%Fan%NULL%1,    Muxin%Zhu%NULL%1,    Liping%Zhu%NULL%1,    Huan%Zhang%NULL%1,    Xiaogen%Tao%NULL%1,    Shaohui%Cheng%NULL%1,    Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1204,6 +1291,9 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1230,6 +1320,9 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1245,16 +1338,19 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -1271,7 +1367,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1281,6 +1377,9 @@
       </c>
       <c r="H4" t="s">
         <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -1297,7 +1396,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1307,6 +1406,9 @@
       </c>
       <c r="H5" t="s">
         <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="6">
@@ -1323,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1333,6 +1435,9 @@
       </c>
       <c r="H6" t="s">
         <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="7">
@@ -1360,6 +1465,9 @@
       <c r="H7" t="s">
         <v>43</v>
       </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1386,6 +1494,9 @@
       <c r="H8" t="s">
         <v>43</v>
       </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1401,7 +1512,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1411,6 +1522,9 @@
       </c>
       <c r="H9" t="s">
         <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10">
@@ -1427,7 +1541,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1437,6 +1551,9 @@
       </c>
       <c r="H10" t="s">
         <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -1453,7 +1570,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1463,6 +1580,9 @@
       </c>
       <c r="H11" t="s">
         <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12">
@@ -1479,7 +1599,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1489,6 +1609,9 @@
       </c>
       <c r="H12" t="s">
         <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13">
@@ -1505,7 +1628,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1515,6 +1638,9 @@
       </c>
       <c r="H13" t="s">
         <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1531,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1541,6 +1667,9 @@
       </c>
       <c r="H14" t="s">
         <v>86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15">
@@ -1557,7 +1686,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1567,6 +1696,9 @@
       </c>
       <c r="H15" t="s">
         <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16">
@@ -1583,7 +1715,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -1593,6 +1725,9 @@
       </c>
       <c r="H16" t="s">
         <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17">
@@ -1609,7 +1744,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -1619,6 +1754,9 @@
       </c>
       <c r="H17" t="s">
         <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="18">
@@ -1635,7 +1773,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -1645,6 +1783,9 @@
       </c>
       <c r="H18" t="s">
         <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1661,7 +1802,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1671,6 +1812,9 @@
       </c>
       <c r="H19" t="s">
         <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="20">
@@ -1687,7 +1831,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1697,6 +1841,9 @@
       </c>
       <c r="H20" t="s">
         <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21">
@@ -1713,7 +1860,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -1723,6 +1870,9 @@
       </c>
       <c r="H21" t="s">
         <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="22">
@@ -1739,7 +1889,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1749,6 +1899,9 @@
       </c>
       <c r="H22" t="s">
         <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23">
@@ -1765,7 +1918,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1775,6 +1928,9 @@
       </c>
       <c r="H23" t="s">
         <v>128</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="24">
@@ -1791,7 +1947,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -1801,6 +1957,9 @@
       </c>
       <c r="H24" t="s">
         <v>132</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -1817,7 +1976,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -1827,6 +1986,9 @@
       </c>
       <c r="H25" t="s">
         <v>136</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="26">
@@ -1843,7 +2005,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -1853,6 +2015,9 @@
       </c>
       <c r="H26" t="s">
         <v>141</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="27">
@@ -1880,6 +2045,9 @@
       <c r="H27" t="s">
         <v>43</v>
       </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1895,7 +2063,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -1905,6 +2073,9 @@
       </c>
       <c r="H28" t="s">
         <v>146</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -1921,7 +2092,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -1931,6 +2102,9 @@
       </c>
       <c r="H29" t="s">
         <v>151</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="30">
@@ -1947,7 +2121,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -1957,6 +2131,9 @@
       </c>
       <c r="H30" t="s">
         <v>156</v>
+      </c>
+      <c r="I30" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="313">
   <si>
     <t>Doi</t>
   </si>
@@ -974,6 +974,231 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,    Bin%Huang%NULL%1,    Hongzhen%Xia%NULL%1,    Hua%Fan%NULL%1,    Muxin%Zhu%NULL%1,    Liping%Zhu%NULL%1,    Huan%Zhang%NULL%1,    Xiaogen%Tao%NULL%1,    Shaohui%Cheng%NULL%1,    Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,    Deliang%Huang%coreGivesNoEmail%2,    Hong%Yu%coreGivesNoEmail%2,    Jun%Chen%coreGivesNoEmail%0,    Lei%Liu%coreGivesNoEmail%0,    National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,    Pengcheng%Ou%coreGivesNoEmail%2,    Qing%He%coreGivesNoEmail%0,    Qingxian%Cai%coreGivesNoEmail%0,    Rossaint%J%coreGivesNoEmail%2,    Yang%Fu%coreGivesNoEmail%0,    Yiming%Zhang%coreGivesNoEmail%2,    Yinan%Su%coreGivesNoEmail%2,    Zhang%Xia%coreGivesNoEmail%2,    Zhenghua%Ma%coreGivesNoEmail%2,    Zhibin%Zhu%coreGivesNoEmail%2,    Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,     Tuantuan%Li%NULL%0,     Mingfeng%Han%NULL%0,     Xiuyong%Li%NULL%0,     Dong%Wu%NULL%0,     Yuanhong%Xu%NULL%0,     Yulin%Zhu%NULL%0,     Yan%Liu%NULL%0,     Xiaowu%Wang%wangxiaowu19880218@126.com%0,     Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%0,     Qianwen%Li%NULL%0,     Lu%Wen%NULL%0,     Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,     Luoqi%Zhou%NULL%0,     Ziwei%Hu%NULL%0,     Shuoqi%Zhang%NULL%0,     Sheng%Yang%NULL%0,     Yu%Tao%NULL%0,     Cuihong%Xie%NULL%0,     Ke%Ma%NULL%0,     Ke%Shang%NULL%0,     Wei%Wang%NULL%0,     Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,     Min%Pan%NULL%0,     Xiumei%Zhang%NULL%0,     Mingfeng%Han%fyhmf@163.com%0,     Xiaoyun%Fan%13956988552@126.com%0,     Fengde%Zhao%NULL%0,     Manli%Miao%NULL%0,     Jing%Xu%NULL%0,     Minglong%Guan%NULL%0,     Xia%Deng%NULL%0,     Xu%Chen%NULL%0,     Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,     Ting%Cai%NULL%1,     Lingyan%Fan%NULL%1,     Kehong%Lou%NULL%1,     Xin%Hua%NULL%1,     Zuoan%Huang%NULL%1,     Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,     Binghong%Zhao%NULL%1,     Yueming%Qu%NULL%1,     Yurou%Chen%NULL%1,     Jie%Xiong%NULL%0,     Yong%Feng%NULL%0,     Dong%Men%NULL%1,     Qianchuan%Huang%NULL%1,     Ying%Liu%NULL%0,     Bo%Yang%NULL%0,     Jinya%Ding%NULL%1,     Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,     Qiang%Zhang%NULL%1,     Qing%Li%NULL%1,     Ting%Wu%NULL%1,     Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,     Christian%Prebensen%christian.prebensen@gmail.com%1,     Heidi%Strand%Heidi.Strand@ahus.no%1,     Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,     Christine M.%Jonassen%chrjon@so-hf.no%1,     Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,     Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,     Signe%Søvik%signe.sovik@medisin.uio.no%1,     Helge%Røsjø%helge.rosjo@medisin.uio.no%1,     My%Svensson%m.h.s.svensson@medisin.uio.no%1,     Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,     Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,     Marina%de Castro Deus%NULL%1,     Joao Paulo%Telles%NULL%1,     Rafael%Wind%NULL%1,     Marina%Goes%NULL%1,     Roberta%Garcia Charello Ossoski%NULL%1,     Alessandra Michalski%de Padua%NULL%1,     Lucia%de Noronha%NULL%1,     Andrea%Moreno-Amaral%NULL%1,     Cristina Pellegrino%Baena%NULL%1,     Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,     Alberto%Utrero-Rico%NULL%1,     Paloma%Talayero%NULL%1,     Maria%Lasa-Lazaro%NULL%1,     Angel%Ramirez-Fernandez%NULL%1,     Laura%Naranjo%NULL%1,     Alejandro%Segura-Tudela%NULL%1,     Oscar%Cabrera-Marante%NULL%1,     Edgar%Rodriguez de Frias%NULL%1,     Rocio%Garcia-Garcia%NULL%1,     Mario%Fernández-Ruiz%NULL%0,     Jose Maria%Aguado%NULL%1,     Joaquin%Martinez-Lopez%NULL%1,     Elena Ana%Lopez%NULL%1,     Mercedes%Catalan%NULL%1,     Antonio%Serrano%NULL%1,     Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,     Wenbo%He%NULL%0,     Xiaomei%Yu%NULL%0,     Dalong%Hu%NULL%0,     Mingwei%Bao%NULL%0,     Huafen%Liu%NULL%0,     Jiali%Zhou%NULL%0,     Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,     Ruoqi%Ning%NULL%0,     Yu%Tao%NULL%0,     Chong%Yu%NULL%0,     Xiaoyan%Deng%NULL%0,     Caili%Zhao%NULL%0,     Silu%Meng%NULL%0,     Fangxu%Tang%89650793@qq.com%0,     Dong%Xu%89650793@qq.com%0,     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,     Hui%Wang%NULL%0,     Guangming%Ye%NULL%2,     Xiaoling%Cao%NULL%1,     Xianqun%Xu%NULL%1,     Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,     Gil%Harari%NULL%1,     Michael%Gurevich%NULL%1,     Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,     Carmen M.%Cabrera%NULL%1,     Natalia%Jiménez%NULL%1,     Laura%Rincón%NULL%1,     José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,     Chong%Yu%NULL%0,     Daoyuan%Yue%NULL%1,     Xing%Zeng%NULL%1,     Zhiquan%Hu%NULL%1,     Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,     Wenwu%Sun%NULL%0,     Shengrong%Sun%NULL%0,     Zhiyu%Li%lizhiyu@whu.edu.cn%0,     Zhong%Wang%zhongwangchn@whu.edu.cn%0,     Li%Yu%yuliwhzxyy@163.com%0,     Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,     Jun%Wang%NULL%1,     Nan%Su%NULL%1,     Xiebing%Bao%NULL%1,     Yongsheng%Li%dr_ysli@126.com%1,     Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,     Jiangang%Jiang%NULL%0,     Feng%Wang%NULL%0,     Ning%Zhou%NULL%0,     Giacomo%Veronese%NULL%0,     Javid J.%Moslehi%NULL%0,     Enrico%Ammirati%NULL%0,     Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,     Chang%Shu%NULL%0,     Xiao%Ran%NULL%1,     Cui-Hong%Xie%NULL%1,     Lei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,     Chen%Dong%NULL%1,     Shengzhong%Li%NULL%1,     Xiaoqing%Song%NULL%1,     Wang%Wei%NULL%1,     Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,     Bin%Huang%NULL%1,     Hongzhen%Xia%NULL%1,     Hua%Fan%NULL%1,     Muxin%Zhu%NULL%1,     Liping%Zhu%NULL%1,     Huan%Zhang%NULL%1,     Xiaogen%Tao%NULL%1,     Shaohui%Cheng%NULL%1,     Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,     Deliang%Huang%coreGivesNoEmail%2,     Hong%Yu%coreGivesNoEmail%2,     Jun%Chen%coreGivesNoEmail%0,     Lei%Liu%coreGivesNoEmail%0,     National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,     Pengcheng%Ou%coreGivesNoEmail%2,     Qing%He%coreGivesNoEmail%0,     Qingxian%Cai%coreGivesNoEmail%0,     Rossaint%J%coreGivesNoEmail%2,     Yang%Fu%coreGivesNoEmail%0,     Yiming%Zhang%coreGivesNoEmail%2,     Yinan%Su%coreGivesNoEmail%2,     Zhang%Xia%coreGivesNoEmail%2,     Zhenghua%Ma%coreGivesNoEmail%2,     Zhibin%Zhu%coreGivesNoEmail%2,     Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,      Tuantuan%Li%NULL%0,      Mingfeng%Han%NULL%0,      Xiuyong%Li%NULL%0,      Dong%Wu%NULL%0,      Yuanhong%Xu%NULL%0,      Yulin%Zhu%NULL%0,      Yan%Liu%NULL%0,      Xiaowu%Wang%wangxiaowu19880218@126.com%0,      Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%0,      Qianwen%Li%NULL%0,      Lu%Wen%NULL%0,      Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,      Luoqi%Zhou%NULL%0,      Ziwei%Hu%NULL%0,      Shuoqi%Zhang%NULL%0,      Sheng%Yang%NULL%0,      Yu%Tao%NULL%0,      Cuihong%Xie%NULL%0,      Ke%Ma%NULL%0,      Ke%Shang%NULL%0,      Wei%Wang%NULL%0,      Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,      Min%Pan%NULL%1,      Xiumei%Zhang%NULL%1,      Mingfeng%Han%fyhmf@163.com%0,      Xiaoyun%Fan%13956988552@126.com%1,      Fengde%Zhao%NULL%1,      Manli%Miao%NULL%1,      Jing%Xu%NULL%0,      Minglong%Guan%NULL%1,      Xia%Deng%NULL%1,      Xu%Chen%NULL%1,      Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,      Ting%Cai%NULL%1,      Lingyan%Fan%NULL%1,      Kehong%Lou%NULL%1,      Xin%Hua%NULL%1,      Zuoan%Huang%NULL%1,      Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,      Binghong%Zhao%NULL%1,      Yueming%Qu%NULL%1,      Yurou%Chen%NULL%1,      Jie%Xiong%NULL%0,      Yong%Feng%NULL%0,      Dong%Men%NULL%1,      Qianchuan%Huang%NULL%1,      Ying%Liu%NULL%0,      Bo%Yang%NULL%0,      Jinya%Ding%NULL%1,      Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,      Qiang%Zhang%NULL%1,      Qing%Li%NULL%1,      Ting%Wu%NULL%1,      Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,      Christian%Prebensen%christian.prebensen@gmail.com%1,      Heidi%Strand%Heidi.Strand@ahus.no%1,      Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,      Christine M.%Jonassen%chrjon@so-hf.no%1,      Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,      Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,      Signe%Søvik%signe.sovik@medisin.uio.no%1,      Helge%Røsjø%helge.rosjo@medisin.uio.no%1,      My%Svensson%m.h.s.svensson@medisin.uio.no%1,      Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,      Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,      Marina%de Castro Deus%NULL%1,      Joao Paulo%Telles%NULL%1,      Rafael%Wind%NULL%1,      Marina%Goes%NULL%1,      Roberta%Garcia Charello Ossoski%NULL%1,      Alessandra Michalski%de Padua%NULL%1,      Lucia%de Noronha%NULL%1,      Andrea%Moreno-Amaral%NULL%1,      Cristina Pellegrino%Baena%NULL%1,      Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,      Alberto%Utrero-Rico%NULL%1,      Paloma%Talayero%NULL%1,      Maria%Lasa-Lazaro%NULL%1,      Angel%Ramirez-Fernandez%NULL%1,      Laura%Naranjo%NULL%1,      Alejandro%Segura-Tudela%NULL%1,      Oscar%Cabrera-Marante%NULL%1,      Edgar%Rodriguez de Frias%NULL%1,      Rocio%Garcia-Garcia%NULL%1,      Mario%Fernández-Ruiz%NULL%0,      Jose Maria%Aguado%NULL%1,      Joaquin%Martinez-Lopez%NULL%1,      Elena Ana%Lopez%NULL%1,      Mercedes%Catalan%NULL%1,      Antonio%Serrano%NULL%1,      Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,      Wenbo%He%NULL%0,      Xiaomei%Yu%NULL%0,      Dalong%Hu%NULL%0,      Mingwei%Bao%NULL%0,      Huafen%Liu%NULL%0,      Jiali%Zhou%NULL%0,      Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,      Ruoqi%Ning%NULL%0,      Yu%Tao%NULL%0,      Chong%Yu%NULL%0,      Xiaoyan%Deng%NULL%0,      Caili%Zhao%NULL%0,      Silu%Meng%NULL%0,      Fangxu%Tang%89650793@qq.com%0,      Dong%Xu%89650793@qq.com%0,      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,      Hui%Wang%NULL%0,      Guangming%Ye%NULL%2,      Xiaoling%Cao%NULL%1,      Xianqun%Xu%NULL%1,      Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,      Gil%Harari%NULL%1,      Michael%Gurevich%NULL%1,      Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,      Carmen M.%Cabrera%NULL%1,      Natalia%Jiménez%NULL%1,      Laura%Rincón%NULL%1,      José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,      Chong%Yu%NULL%0,      Daoyuan%Yue%NULL%1,      Xing%Zeng%NULL%1,      Zhiquan%Hu%NULL%1,      Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,      Wenwu%Sun%NULL%0,      Shengrong%Sun%NULL%0,      Zhiyu%Li%lizhiyu@whu.edu.cn%0,      Zhong%Wang%zhongwangchn@whu.edu.cn%0,      Li%Yu%yuliwhzxyy@163.com%0,      Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,      Jun%Wang%NULL%1,      Nan%Su%NULL%1,      Xiebing%Bao%NULL%1,      Yongsheng%Li%dr_ysli@126.com%1,      Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,      Jiangang%Jiang%NULL%0,      Feng%Wang%NULL%0,      Ning%Zhou%NULL%0,      Giacomo%Veronese%NULL%0,      Javid J.%Moslehi%NULL%0,      Enrico%Ammirati%NULL%0,      Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,      Chang%Shu%NULL%0,      Xiao%Ran%NULL%1,      Cui-Hong%Xie%NULL%1,      Lei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,      Chen%Dong%NULL%1,      Shengzhong%Li%NULL%1,      Xiaoqing%Song%NULL%1,      Wang%Wei%NULL%1,      Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,      Bin%Huang%NULL%1,      Hongzhen%Xia%NULL%1,      Hua%Fan%NULL%1,      Muxin%Zhu%NULL%1,      Liping%Zhu%NULL%1,      Huan%Zhang%NULL%1,      Xiaogen%Tao%NULL%1,      Shaohui%Cheng%NULL%1,      Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,      Deliang%Huang%coreGivesNoEmail%2,      Hong%Yu%coreGivesNoEmail%2,      Jun%Chen%coreGivesNoEmail%0,      Lei%Liu%coreGivesNoEmail%0,      National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,      Pengcheng%Ou%coreGivesNoEmail%2,      Qing%He%coreGivesNoEmail%0,      Qingxian%Cai%coreGivesNoEmail%0,      Rossaint%J%coreGivesNoEmail%2,      Yang%Fu%coreGivesNoEmail%0,      Yiming%Zhang%coreGivesNoEmail%2,      Yinan%Su%coreGivesNoEmail%2,      Zhang%Xia%coreGivesNoEmail%2,      Zhenghua%Ma%coreGivesNoEmail%2,      Zhibin%Zhu%coreGivesNoEmail%2,      Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,       Tuantuan%Li%NULL%0,       Mingfeng%Han%NULL%0,       Xiuyong%Li%NULL%0,       Dong%Wu%NULL%0,       Yuanhong%Xu%NULL%0,       Yulin%Zhu%NULL%0,       Yan%Liu%NULL%0,       Xiaowu%Wang%wangxiaowu19880218@126.com%0,       Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%0,       Qianwen%Li%NULL%0,       Lu%Wen%NULL%0,       Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,       Luoqi%Zhou%NULL%0,       Ziwei%Hu%NULL%0,       Shuoqi%Zhang%NULL%0,       Sheng%Yang%NULL%0,       Yu%Tao%NULL%0,       Cuihong%Xie%NULL%0,       Ke%Ma%NULL%0,       Ke%Shang%NULL%0,       Wei%Wang%NULL%0,       Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,       Min%Pan%NULL%1,       Xiumei%Zhang%NULL%1,       Mingfeng%Han%fyhmf@163.com%0,       Xiaoyun%Fan%13956988552@126.com%1,       Fengde%Zhao%NULL%1,       Manli%Miao%NULL%1,       Jing%Xu%NULL%0,       Minglong%Guan%NULL%1,       Xia%Deng%NULL%1,       Xu%Chen%NULL%1,       Leilei%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,       Ting%Cai%NULL%1,       Lingyan%Fan%NULL%1,       Kehong%Lou%NULL%1,       Xin%Hua%NULL%1,       Zuoan%Huang%NULL%1,       Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,       Binghong%Zhao%NULL%1,       Yueming%Qu%NULL%1,       Yurou%Chen%NULL%1,       Jie%Xiong%NULL%0,       Yong%Feng%NULL%0,       Dong%Men%NULL%1,       Qianchuan%Huang%NULL%1,       Ying%Liu%NULL%0,       Bo%Yang%NULL%0,       Jinya%Ding%NULL%1,       Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,       Qiang%Zhang%NULL%1,       Qing%Li%NULL%1,       Ting%Wu%NULL%1,       Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,       Christian%Prebensen%christian.prebensen@gmail.com%1,       Heidi%Strand%Heidi.Strand@ahus.no%1,       Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,       Christine M.%Jonassen%chrjon@so-hf.no%1,       Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,       Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,       Signe%Søvik%signe.sovik@medisin.uio.no%1,       Helge%Røsjø%helge.rosjo@medisin.uio.no%1,       My%Svensson%m.h.s.svensson@medisin.uio.no%1,       Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,       Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,       Marina%de Castro Deus%NULL%1,       Joao Paulo%Telles%NULL%1,       Rafael%Wind%NULL%1,       Marina%Goes%NULL%1,       Roberta%Garcia Charello Ossoski%NULL%1,       Alessandra Michalski%de Padua%NULL%1,       Lucia%de Noronha%NULL%1,       Andrea%Moreno-Amaral%NULL%1,       Cristina Pellegrino%Baena%NULL%1,       Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,       Alberto%Utrero-Rico%NULL%1,       Paloma%Talayero%NULL%1,       Maria%Lasa-Lazaro%NULL%1,       Angel%Ramirez-Fernandez%NULL%1,       Laura%Naranjo%NULL%1,       Alejandro%Segura-Tudela%NULL%1,       Oscar%Cabrera-Marante%NULL%1,       Edgar%Rodriguez de Frias%NULL%1,       Rocio%Garcia-Garcia%NULL%1,       Mario%Fernández-Ruiz%NULL%0,       Jose Maria%Aguado%NULL%1,       Joaquin%Martinez-Lopez%NULL%1,       Elena Ana%Lopez%NULL%1,       Mercedes%Catalan%NULL%1,       Antonio%Serrano%NULL%1,       Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,       Wenbo%He%NULL%0,       Xiaomei%Yu%NULL%0,       Dalong%Hu%NULL%0,       Mingwei%Bao%NULL%0,       Huafen%Liu%NULL%0,       Jiali%Zhou%NULL%0,       Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,       Ruoqi%Ning%NULL%0,       Yu%Tao%NULL%0,       Chong%Yu%NULL%0,       Xiaoyan%Deng%NULL%0,       Caili%Zhao%NULL%0,       Silu%Meng%NULL%0,       Fangxu%Tang%89650793@qq.com%0,       Dong%Xu%89650793@qq.com%0,       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,       Hui%Wang%NULL%0,       Guangming%Ye%NULL%2,       Xiaoling%Cao%NULL%1,       Xianqun%Xu%NULL%1,       Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,       Gil%Harari%NULL%1,       Michael%Gurevich%NULL%1,       Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,       Carmen M.%Cabrera%NULL%1,       Natalia%Jiménez%NULL%1,       Laura%Rincón%NULL%1,       José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,       Chong%Yu%NULL%0,       Daoyuan%Yue%NULL%1,       Xing%Zeng%NULL%1,       Zhiquan%Hu%NULL%1,       Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,       Wenwu%Sun%NULL%0,       Shengrong%Sun%NULL%0,       Zhiyu%Li%lizhiyu@whu.edu.cn%0,       Zhong%Wang%zhongwangchn@whu.edu.cn%0,       Li%Yu%yuliwhzxyy@163.com%0,       Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,       Jun%Wang%NULL%1,       Nan%Su%NULL%1,       Xiebing%Bao%NULL%1,       Yongsheng%Li%dr_ysli@126.com%1,       Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,       Jiangang%Jiang%NULL%0,       Feng%Wang%NULL%0,       Ning%Zhou%NULL%0,       Giacomo%Veronese%NULL%0,       Javid J.%Moslehi%NULL%0,       Enrico%Ammirati%NULL%0,       Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,       Chang%Shu%NULL%0,       Xiao%Ran%NULL%1,       Cui-Hong%Xie%NULL%1,       Lei%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,       Chen%Dong%NULL%1,       Shengzhong%Li%NULL%1,       Xiaoqing%Song%NULL%1,       Wang%Wei%NULL%1,       Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,       Bin%Huang%NULL%1,       Hongzhen%Xia%NULL%1,       Hua%Fan%NULL%1,       Muxin%Zhu%NULL%1,       Liping%Zhu%NULL%1,       Huan%Zhang%NULL%1,       Xiaogen%Tao%NULL%1,       Shaohui%Cheng%NULL%1,       Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1338,13 +1563,13 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
         <v>43</v>
@@ -1367,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1396,7 +1621,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1425,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1512,7 +1737,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1541,7 +1766,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1570,7 +1795,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1599,7 +1824,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1628,7 +1853,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1657,7 +1882,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1686,7 +1911,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1715,7 +1940,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -1744,7 +1969,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -1773,7 +1998,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -1802,7 +2027,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -1831,7 +2056,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -1860,7 +2085,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -1889,7 +2114,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1918,7 +2143,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -1947,7 +2172,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -1976,7 +2201,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2005,7 +2230,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2063,7 +2288,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2092,7 +2317,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>311</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2121,7 +2346,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="375">
   <si>
     <t>Doi</t>
   </si>
@@ -1199,6 +1199,192 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,       Bin%Huang%NULL%1,       Hongzhen%Xia%NULL%1,       Hua%Fan%NULL%1,       Muxin%Zhu%NULL%1,       Liping%Zhu%NULL%1,       Huan%Zhang%NULL%1,       Xiaogen%Tao%NULL%1,       Shaohui%Cheng%NULL%1,       Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Clinical and immunological features of severe and moderate coronavirus disease 2019"</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0, Di%Wu%xref no email%0, Wei%Guo%xref no email%0, Yong%Cao%xref no email%0, Da%Huang%xref no email%0, Hongwu%Wang%xref no email%0, Tao%Wang%xref no email%0, Xiaoyun%Zhang%xref no email%0, Huilong%Chen%xref no email%0, Haijing%Yu%xref no email%0, Xiaoping%Zhang%xref no email%0, Minxia%Zhang%xref no email%0, Shiji%Wu%xref no email%0, Jianxin%Song%xref no email%0, Tao%Chen%xref no email%0, Meifang%Han%xref no email%0, Shusheng%Li%xref no email%0, Xiaoping%Luo%xref no email%0, Jianping%Zhao%xref no email%0, Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,       Deliang%Huang%coreGivesNoEmail%2,       Hong%Yu%coreGivesNoEmail%2,       Jun%Chen%coreGivesNoEmail%0,       Lei%Liu%coreGivesNoEmail%0,       National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,       Pengcheng%Ou%coreGivesNoEmail%2,       Qing%He%coreGivesNoEmail%2,       Qingxian%Cai%coreGivesNoEmail%2,       Rossaint%J%coreGivesNoEmail%2,       Yang%Fu%coreGivesNoEmail%2,       Yiming%Zhang%coreGivesNoEmail%2,       Yinan%Su%coreGivesNoEmail%2,       Zhang%Xia%coreGivesNoEmail%2,       Zhenghua%Ma%coreGivesNoEmail%2,       Zhibin%Zhu%coreGivesNoEmail%2,       Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,        Tuantuan%Li%NULL%0,        Mingfeng%Han%NULL%0,        Xiuyong%Li%NULL%0,        Dong%Wu%NULL%0,        Yuanhong%Xu%NULL%0,        Yulin%Zhu%NULL%0,        Yan%Liu%NULL%0,        Xiaowu%Wang%wangxiaowu19880218@126.com%0,        Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%1,        Qianwen%Li%NULL%1,        Lu%Wen%NULL%1,        Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,        Luoqi%Zhou%NULL%1,        Ziwei%Hu%NULL%1,        Shuoqi%Zhang%NULL%1,        Sheng%Yang%NULL%1,        Yu%Tao%NULL%0,        Cuihong%Xie%NULL%1,        Ke%Ma%NULL%0,        Ke%Shang%NULL%1,        Wei%Wang%NULL%0,        Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,        Min%Pan%NULL%0,        Xiumei%Zhang%NULL%0,        Mingfeng%Han%fyhmf@163.com%0,        Xiaoyun%Fan%13956988552@126.com%0,        Fengde%Zhao%NULL%0,        Manli%Miao%NULL%0,        Jing%Xu%NULL%0,        Minglong%Guan%NULL%0,        Xia%Deng%NULL%0,        Xu%Chen%NULL%0,        Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,        Ting%Cai%NULL%1,        Lingyan%Fan%NULL%1,        Kehong%Lou%NULL%1,        Xin%Hua%NULL%1,        Zuoan%Huang%NULL%1,        Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,        Binghong%Zhao%NULL%1,        Yueming%Qu%NULL%1,        Yurou%Chen%NULL%1,        Jie%Xiong%NULL%1,        Yong%Feng%NULL%2,        Dong%Men%NULL%1,        Qianchuan%Huang%NULL%1,        Ying%Liu%NULL%0,        Bo%Yang%NULL%0,        Jinya%Ding%NULL%1,        Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,        Qiang%Zhang%NULL%1,        Qing%Li%NULL%1,        Ting%Wu%NULL%1,        Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,        Christian%Prebensen%christian.prebensen@gmail.com%1,        Heidi%Strand%Heidi.Strand@ahus.no%1,        Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,        Christine M.%Jonassen%chrjon@so-hf.no%1,        Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,        Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,        Signe%Søvik%signe.sovik@medisin.uio.no%1,        Helge%Røsjø%helge.rosjo@medisin.uio.no%1,        My%Svensson%m.h.s.svensson@medisin.uio.no%1,        Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,        Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,        Marina%de Castro Deus%NULL%1,        Joao Paulo%Telles%NULL%1,        Rafael%Wind%NULL%1,        Marina%Goes%NULL%1,        Roberta%Garcia Charello Ossoski%NULL%1,        Alessandra Michalski%de Padua%NULL%1,        Lucia%de Noronha%NULL%1,        Andrea%Moreno-Amaral%NULL%1,        Cristina Pellegrino%Baena%NULL%1,        Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,        Alberto%Utrero-Rico%NULL%1,        Paloma%Talayero%NULL%1,        Maria%Lasa-Lazaro%NULL%1,        Angel%Ramirez-Fernandez%NULL%1,        Laura%Naranjo%NULL%1,        Alejandro%Segura-Tudela%NULL%1,        Oscar%Cabrera-Marante%NULL%1,        Edgar%Rodriguez de Frias%NULL%1,        Rocio%Garcia-Garcia%NULL%1,        Mario%Fernández-Ruiz%NULL%1,        Jose Maria%Aguado%NULL%1,        Joaquin%Martinez-Lopez%NULL%1,        Elena Ana%Lopez%NULL%1,        Mercedes%Catalan%NULL%1,        Antonio%Serrano%NULL%1,        Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%0,        Huilong%Chen%NULL%0,        Weiming%Yan%NULL%0,        Danlei%Yang%NULL%0,        Guang%Chen%NULL%0,        Ke%Ma%NULL%0,        Dong%Xu%NULL%0,        Haijing%Yu%NULL%0,        Hongwu%Wang%NULL%0,        Tao%Wang%NULL%0,        Wei%Guo%NULL%0,        Jia%Chen%NULL%0,        Chen%Ding%NULL%0,        Xiaoping%Zhang%NULL%0,        Jiaquan%Huang%NULL%0,        Meifang%Han%NULL%0,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%0,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,        Wenbo%He%NULL%1,        Xiaomei%Yu%NULL%1,        Dalong%Hu%NULL%1,        Mingwei%Bao%NULL%1,        Huafen%Liu%NULL%1,        Jiali%Zhou%NULL%1,        Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,        Ruoqi%Ning%NULL%1,        Yu%Tao%NULL%0,        Chong%Yu%NULL%2,        Xiaoyan%Deng%NULL%1,        Caili%Zhao%NULL%1,        Silu%Meng%NULL%1,        Fangxu%Tang%89650793@qq.com%1,        Dong%Xu%89650793@qq.com%0,        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%2,        Hui%Wang%NULL%0,        Guangming%Ye%NULL%2,        Xiaoling%Cao%NULL%1,        Xianqun%Xu%NULL%1,        Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,        Gil%Harari%NULL%1,        Michael%Gurevich%NULL%1,        Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,        Carmen M.%Cabrera%NULL%1,        Natalia%Jiménez%NULL%1,        Laura%Rincón%NULL%1,        José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,        Chong%Yu%NULL%0,        Daoyuan%Yue%NULL%1,        Xing%Zeng%NULL%1,        Zhiquan%Hu%NULL%1,        Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,        Wenwu%Sun%NULL%1,        Shengrong%Sun%NULL%1,        Zhiyu%Li%lizhiyu@whu.edu.cn%1,        Zhong%Wang%zhongwangchn@whu.edu.cn%1,        Li%Yu%yuliwhzxyy@163.com%2,        Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,        Jun%Wang%NULL%0,        Nan%Su%NULL%1,        Xiebing%Bao%NULL%1,        Yongsheng%Li%dr_ysli@126.com%1,        Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,        Jiangang%Jiang%NULL%0,        Feng%Wang%NULL%0,        Ning%Zhou%NULL%0,        Giacomo%Veronese%NULL%0,        Javid J.%Moslehi%NULL%0,        Enrico%Ammirati%NULL%0,        Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"IL-6 and CD8+ T cell counts combined are an early predictor of in-hospital mortality of patients with COVID-19"</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0, Jing%Liu%xref no email%0, Weiling%Jiang%xref no email%0, Shuang%Yue%xref no email%0, Huiguo%Liu%xref no email%0, Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,        Chang%Shu%NULL%0,        Xiao%Ran%NULL%1,        Cui-Hong%Xie%NULL%1,        Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,        Chen%Dong%NULL%1,        Shengzhong%Li%NULL%1,        Xiaoqing%Song%NULL%1,        Wang%Wei%NULL%0,        Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,        Bin%Huang%NULL%1,        Hongzhen%Xia%NULL%1,        Hua%Fan%NULL%1,        Muxin%Zhu%NULL%1,        Liping%Zhu%NULL%1,        Huan%Zhang%NULL%1,        Xiaogen%Tao%NULL%1,        Shaohui%Cheng%NULL%1,        Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,  Di%Wu%xref no email%0,  Wei%Guo%xref no email%0,  Yong%Cao%xref no email%0,  Da%Huang%xref no email%0,  Hongwu%Wang%xref no email%0,  Tao%Wang%xref no email%0,  Xiaoyun%Zhang%xref no email%0,  Huilong%Chen%xref no email%0,  Haijing%Yu%xref no email%0,  Xiaoping%Zhang%xref no email%0,  Minxia%Zhang%xref no email%0,  Shiji%Wu%xref no email%0,  Jianxin%Song%xref no email%0,  Tao%Chen%xref no email%0,  Meifang%Han%xref no email%0,  Shusheng%Li%xref no email%0,  Xiaoping%Luo%xref no email%0,  Jianping%Zhao%xref no email%0,  Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,        Deliang%Huang%coreGivesNoEmail%2,        Hong%Yu%coreGivesNoEmail%2,        Jun%Chen%coreGivesNoEmail%0,        Lei%Liu%coreGivesNoEmail%0,        National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,        Pengcheng%Ou%coreGivesNoEmail%2,        Qing%He%coreGivesNoEmail%2,        Qingxian%Cai%coreGivesNoEmail%2,        Rossaint%J%coreGivesNoEmail%2,        Yang%Fu%coreGivesNoEmail%2,        Yiming%Zhang%coreGivesNoEmail%2,        Yinan%Su%coreGivesNoEmail%2,        Zhang%Xia%coreGivesNoEmail%2,        Zhenghua%Ma%coreGivesNoEmail%2,        Zhibin%Zhu%coreGivesNoEmail%2,        Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,         Tuantuan%Li%NULL%0,         Mingfeng%Han%NULL%0,         Xiuyong%Li%NULL%0,         Dong%Wu%NULL%0,         Yuanhong%Xu%NULL%0,         Yulin%Zhu%NULL%0,         Yan%Liu%NULL%0,         Xiaowu%Wang%wangxiaowu19880218@126.com%0,         Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,         Bohan%Yang%NULL%1,         Qianwen%Li%NULL%1,         Lu%Wen%NULL%1,         Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,         Luoqi%Zhou%NULL%1,         Ziwei%Hu%NULL%1,         Shuoqi%Zhang%NULL%1,         Sheng%Yang%NULL%1,         Yu%Tao%NULL%0,         Cuihong%Xie%NULL%1,         Ke%Ma%NULL%0,         Ke%Shang%NULL%1,         Wei%Wang%NULL%0,         Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,         Min%Pan%NULL%0,         Xiumei%Zhang%NULL%0,         Mingfeng%Han%fyhmf@163.com%0,         Xiaoyun%Fan%13956988552@126.com%0,         Fengde%Zhao%NULL%0,         Manli%Miao%NULL%0,         Jing%Xu%NULL%0,         Minglong%Guan%NULL%0,         Xia%Deng%NULL%0,         Xu%Chen%NULL%0,         Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,         Ting%Cai%NULL%1,         Lingyan%Fan%NULL%1,         Kehong%Lou%NULL%1,         Xin%Hua%NULL%1,         Zuoan%Huang%NULL%1,         Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,         Binghong%Zhao%NULL%1,         Yueming%Qu%NULL%1,         Yurou%Chen%NULL%1,         Jie%Xiong%NULL%1,         Yong%Feng%NULL%2,         Dong%Men%NULL%1,         Qianchuan%Huang%NULL%1,         Ying%Liu%NULL%0,         Bo%Yang%NULL%0,         Jinya%Ding%NULL%1,         Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,         Qiang%Zhang%NULL%1,         Qing%Li%NULL%1,         Ting%Wu%NULL%1,         Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,         Christian%Prebensen%christian.prebensen@gmail.com%1,         Heidi%Strand%Heidi.Strand@ahus.no%1,         Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,         Christine M.%Jonassen%chrjon@so-hf.no%1,         Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,         Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,         Signe%Søvik%signe.sovik@medisin.uio.no%1,         Helge%Røsjø%helge.rosjo@medisin.uio.no%1,         My%Svensson%m.h.s.svensson@medisin.uio.no%1,         Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,         Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,         Marina%de Castro Deus%NULL%1,         Joao Paulo%Telles%NULL%1,         Rafael%Wind%NULL%1,         Marina%Goes%NULL%1,         Roberta%Garcia Charello Ossoski%NULL%1,         Alessandra Michalski%de Padua%NULL%1,         Lucia%de Noronha%NULL%1,         Andrea%Moreno-Amaral%NULL%1,         Cristina Pellegrino%Baena%NULL%1,         Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,         Alberto%Utrero-Rico%NULL%1,         Paloma%Talayero%NULL%1,         Maria%Lasa-Lazaro%NULL%1,         Angel%Ramirez-Fernandez%NULL%1,         Laura%Naranjo%NULL%1,         Alejandro%Segura-Tudela%NULL%1,         Oscar%Cabrera-Marante%NULL%1,         Edgar%Rodriguez de Frias%NULL%1,         Rocio%Garcia-Garcia%NULL%1,         Mario%Fernández-Ruiz%NULL%1,         Jose Maria%Aguado%NULL%1,         Joaquin%Martinez-Lopez%NULL%1,         Elena Ana%Lopez%NULL%1,         Mercedes%Catalan%NULL%1,         Antonio%Serrano%NULL%1,         Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,         Wenbo%He%NULL%1,         Xiaomei%Yu%NULL%1,         Dalong%Hu%NULL%1,         Mingwei%Bao%NULL%1,         Huafen%Liu%NULL%1,         Jiali%Zhou%NULL%1,         Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,         Ruoqi%Ning%NULL%1,         Yu%Tao%NULL%0,         Chong%Yu%NULL%2,         Xiaoyan%Deng%NULL%1,         Caili%Zhao%NULL%1,         Silu%Meng%NULL%1,         Fangxu%Tang%89650793@qq.com%1,         Dong%Xu%89650793@qq.com%0,         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,         Hui%Wang%NULL%0,         Guangming%Ye%NULL%2,         Xiaoling%Cao%NULL%1,         Xianqun%Xu%NULL%1,         Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,         Gil%Harari%NULL%1,         Michael%Gurevich%NULL%1,         Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,         Carmen M.%Cabrera%NULL%1,         Natalia%Jiménez%NULL%1,         Laura%Rincón%NULL%1,         José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,         Chong%Yu%NULL%0,         Daoyuan%Yue%NULL%1,         Xing%Zeng%NULL%1,         Zhiquan%Hu%NULL%1,         Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,         Wenwu%Sun%NULL%1,         Shengrong%Sun%NULL%1,         Zhiyu%Li%lizhiyu@whu.edu.cn%1,         Zhong%Wang%zhongwangchn@whu.edu.cn%1,         Li%Yu%yuliwhzxyy@163.com%2,         Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,         Jun%Wang%NULL%0,         Nan%Su%NULL%1,         Xiebing%Bao%NULL%1,         Yongsheng%Li%dr_ysli@126.com%1,         Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,         Jiangang%Jiang%NULL%0,         Feng%Wang%NULL%0,         Ning%Zhou%NULL%0,         Giacomo%Veronese%NULL%0,         Javid J.%Moslehi%NULL%0,         Enrico%Ammirati%NULL%0,         Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,  Jing%Liu%xref no email%0,  Weiling%Jiang%xref no email%0,  Shuang%Yue%xref no email%0,  Huiguo%Liu%xref no email%0,  Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,         Chang%Shu%NULL%0,         Xiao%Ran%NULL%1,         Cui-Hong%Xie%NULL%1,         Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,         Chen%Dong%NULL%1,         Shengzhong%Li%NULL%1,         Xiaoqing%Song%NULL%1,         Wang%Wei%NULL%0,         Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,         Bin%Huang%NULL%1,         Hongzhen%Xia%NULL%1,         Hua%Fan%NULL%1,         Muxin%Zhu%NULL%1,         Liping%Zhu%NULL%1,         Huan%Zhang%NULL%1,         Xiaogen%Tao%NULL%1,         Shaohui%Cheng%NULL%1,         Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1528,22 +1714,22 @@
         <v>43952.0</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
         <v>73</v>
@@ -1563,7 +1749,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1592,7 +1778,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1621,7 +1807,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1650,7 +1836,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1673,22 +1859,22 @@
         <v>44013.0</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="I7" t="s">
         <v>73</v>
@@ -1737,7 +1923,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1766,7 +1952,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1795,7 +1981,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -1824,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1853,7 +2039,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -1882,7 +2068,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -1911,7 +2097,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -1940,7 +2126,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -1969,7 +2155,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -1998,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>301</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2027,7 +2213,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2056,7 +2242,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2085,7 +2271,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2114,7 +2300,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2143,7 +2329,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2172,7 +2358,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2201,7 +2387,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>308</v>
+        <v>369</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2230,7 +2416,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>309</v>
+        <v>370</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2253,22 +2439,22 @@
         <v>44021.0</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="D27" t="s">
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>371</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>343</v>
       </c>
       <c r="I27" t="s">
         <v>73</v>
@@ -2288,7 +2474,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2317,7 +2503,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2346,7 +2532,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="431">
   <si>
     <t>Doi</t>
   </si>
@@ -1385,6 +1385,174 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,         Bin%Huang%NULL%1,         Hongzhen%Xia%NULL%1,         Hua%Fan%NULL%1,         Muxin%Zhu%NULL%1,         Liping%Zhu%NULL%1,         Huan%Zhang%NULL%1,         Xiaogen%Tao%NULL%1,         Shaohui%Cheng%NULL%1,         Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,   Di%Wu%xref no email%0,   Wei%Guo%xref no email%0,   Yong%Cao%xref no email%0,   Da%Huang%xref no email%0,   Hongwu%Wang%xref no email%0,   Tao%Wang%xref no email%0,   Xiaoyun%Zhang%xref no email%0,   Huilong%Chen%xref no email%0,   Haijing%Yu%xref no email%0,   Xiaoping%Zhang%xref no email%0,   Minxia%Zhang%xref no email%0,   Shiji%Wu%xref no email%0,   Jianxin%Song%xref no email%0,   Tao%Chen%xref no email%0,   Meifang%Han%xref no email%0,   Shusheng%Li%xref no email%0,   Xiaoping%Luo%xref no email%0,   Jianping%Zhao%xref no email%0,   Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,         Deliang%Huang%coreGivesNoEmail%2,         Hong%Yu%coreGivesNoEmail%2,         Jun%Chen%coreGivesNoEmail%0,         Lei%Liu%coreGivesNoEmail%0,         National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,         Pengcheng%Ou%coreGivesNoEmail%2,         Qing%He%coreGivesNoEmail%2,         Qingxian%Cai%coreGivesNoEmail%2,         Rossaint%J%coreGivesNoEmail%2,         Yang%Fu%coreGivesNoEmail%2,         Yiming%Zhang%coreGivesNoEmail%2,         Yinan%Su%coreGivesNoEmail%2,         Zhang%Xia%coreGivesNoEmail%2,         Zhenghua%Ma%coreGivesNoEmail%2,         Zhibin%Zhu%coreGivesNoEmail%2,         Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,          Tuantuan%Li%NULL%0,          Mingfeng%Han%NULL%0,          Xiuyong%Li%NULL%0,          Dong%Wu%NULL%0,          Yuanhong%Xu%NULL%0,          Yulin%Zhu%NULL%0,          Yan%Liu%NULL%0,          Xiaowu%Wang%wangxiaowu19880218@126.com%0,          Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,          Bohan%Yang%NULL%1,          Qianwen%Li%NULL%1,          Lu%Wen%NULL%1,          Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,          Luoqi%Zhou%NULL%1,          Ziwei%Hu%NULL%1,          Shuoqi%Zhang%NULL%1,          Sheng%Yang%NULL%1,          Yu%Tao%NULL%0,          Cuihong%Xie%NULL%1,          Ke%Ma%NULL%0,          Ke%Shang%NULL%1,          Wei%Wang%NULL%0,          Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,          Min%Pan%NULL%0,          Xiumei%Zhang%NULL%0,          Mingfeng%Han%fyhmf@163.com%0,          Xiaoyun%Fan%13956988552@126.com%0,          Fengde%Zhao%NULL%0,          Manli%Miao%NULL%0,          Jing%Xu%NULL%0,          Minglong%Guan%NULL%0,          Xia%Deng%NULL%0,          Xu%Chen%NULL%0,          Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,          Ting%Cai%NULL%1,          Lingyan%Fan%NULL%1,          Kehong%Lou%NULL%1,          Xin%Hua%NULL%1,          Zuoan%Huang%NULL%1,          Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,          Binghong%Zhao%NULL%1,          Yueming%Qu%NULL%1,          Yurou%Chen%NULL%1,          Jie%Xiong%NULL%1,          Yong%Feng%NULL%2,          Dong%Men%NULL%1,          Qianchuan%Huang%NULL%1,          Ying%Liu%NULL%0,          Bo%Yang%NULL%0,          Jinya%Ding%NULL%1,          Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,          Qiang%Zhang%NULL%1,          Qing%Li%NULL%1,          Ting%Wu%NULL%1,          Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,          Christian%Prebensen%christian.prebensen@gmail.com%1,          Heidi%Strand%Heidi.Strand@ahus.no%1,          Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,          Christine M.%Jonassen%chrjon@so-hf.no%1,          Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,          Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,          Signe%Søvik%signe.sovik@medisin.uio.no%1,          Helge%Røsjø%helge.rosjo@medisin.uio.no%1,          My%Svensson%m.h.s.svensson@medisin.uio.no%1,          Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,          Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,          Marina%de Castro Deus%NULL%1,          Joao Paulo%Telles%NULL%1,          Rafael%Wind%NULL%1,          Marina%Goes%NULL%1,          Roberta%Garcia Charello Ossoski%NULL%1,          Alessandra Michalski%de Padua%NULL%1,          Lucia%de Noronha%NULL%1,          Andrea%Moreno-Amaral%NULL%1,          Cristina Pellegrino%Baena%NULL%1,          Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,          Alberto%Utrero-Rico%NULL%1,          Paloma%Talayero%NULL%1,          Maria%Lasa-Lazaro%NULL%1,          Angel%Ramirez-Fernandez%NULL%1,          Laura%Naranjo%NULL%1,          Alejandro%Segura-Tudela%NULL%1,          Oscar%Cabrera-Marante%NULL%1,          Edgar%Rodriguez de Frias%NULL%1,          Rocio%Garcia-Garcia%NULL%1,          Mario%Fernández-Ruiz%NULL%1,          Jose Maria%Aguado%NULL%1,          Joaquin%Martinez-Lopez%NULL%1,          Elena Ana%Lopez%NULL%1,          Mercedes%Catalan%NULL%1,          Antonio%Serrano%NULL%1,          Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,          Wenbo%He%NULL%1,          Xiaomei%Yu%NULL%1,          Dalong%Hu%NULL%1,          Mingwei%Bao%NULL%1,          Huafen%Liu%NULL%1,          Jiali%Zhou%NULL%1,          Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,          Ruoqi%Ning%NULL%1,          Yu%Tao%NULL%0,          Chong%Yu%NULL%2,          Xiaoyan%Deng%NULL%1,          Caili%Zhao%NULL%1,          Silu%Meng%NULL%1,          Fangxu%Tang%89650793@qq.com%1,          Dong%Xu%89650793@qq.com%0,          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,          Hui%Wang%NULL%0,          Guangming%Ye%NULL%2,          Xiaoling%Cao%NULL%1,          Xianqun%Xu%NULL%1,          Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,          Gil%Harari%NULL%1,          Michael%Gurevich%NULL%1,          Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,          Carmen M.%Cabrera%NULL%1,          Natalia%Jiménez%NULL%1,          Laura%Rincón%NULL%1,          José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,          Chong%Yu%NULL%0,          Daoyuan%Yue%NULL%1,          Xing%Zeng%NULL%1,          Zhiquan%Hu%NULL%1,          Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,          Wenwu%Sun%NULL%1,          Shengrong%Sun%NULL%1,          Zhiyu%Li%lizhiyu@whu.edu.cn%1,          Zhong%Wang%zhongwangchn@whu.edu.cn%1,          Li%Yu%yuliwhzxyy@163.com%2,          Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,          Jun%Wang%NULL%0,          Nan%Su%NULL%1,          Xiebing%Bao%NULL%1,          Yongsheng%Li%dr_ysli@126.com%1,          Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,          Jiangang%Jiang%NULL%0,          Feng%Wang%NULL%0,          Ning%Zhou%NULL%0,          Giacomo%Veronese%NULL%0,          Javid J.%Moslehi%NULL%0,          Enrico%Ammirati%NULL%0,          Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,   Jing%Liu%xref no email%0,   Weiling%Jiang%xref no email%0,   Shuang%Yue%xref no email%0,   Huiguo%Liu%xref no email%0,   Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,          Chang%Shu%NULL%0,          Xiao%Ran%NULL%1,          Cui-Hong%Xie%NULL%1,          Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,          Chen%Dong%NULL%1,          Shengzhong%Li%NULL%1,          Xiaoqing%Song%NULL%1,          Wang%Wei%NULL%0,          Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,          Bin%Huang%NULL%1,          Hongzhen%Xia%NULL%1,          Hua%Fan%NULL%1,          Muxin%Zhu%NULL%1,          Liping%Zhu%NULL%1,          Huan%Zhang%NULL%1,          Xiaogen%Tao%NULL%1,          Shaohui%Cheng%NULL%1,          Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,    Di%Wu%xref no email%0,    Wei%Guo%xref no email%0,    Yong%Cao%xref no email%0,    Da%Huang%xref no email%0,    Hongwu%Wang%xref no email%0,    Tao%Wang%xref no email%0,    Xiaoyun%Zhang%xref no email%0,    Huilong%Chen%xref no email%0,    Haijing%Yu%xref no email%0,    Xiaoping%Zhang%xref no email%0,    Minxia%Zhang%xref no email%0,    Shiji%Wu%xref no email%0,    Jianxin%Song%xref no email%0,    Tao%Chen%xref no email%0,    Meifang%Han%xref no email%0,    Shusheng%Li%xref no email%0,    Xiaoping%Luo%xref no email%0,    Jianping%Zhao%xref no email%0,    Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,          Deliang%Huang%coreGivesNoEmail%2,          Hong%Yu%coreGivesNoEmail%2,          Jun%Chen%coreGivesNoEmail%0,          Lei%Liu%coreGivesNoEmail%0,          National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,          Pengcheng%Ou%coreGivesNoEmail%2,          Qing%He%coreGivesNoEmail%2,          Qingxian%Cai%coreGivesNoEmail%2,          Rossaint%J%coreGivesNoEmail%2,          Yang%Fu%coreGivesNoEmail%2,          Yiming%Zhang%coreGivesNoEmail%2,          Yinan%Su%coreGivesNoEmail%2,          Zhang%Xia%coreGivesNoEmail%2,          Zhenghua%Ma%coreGivesNoEmail%2,          Zhibin%Zhu%coreGivesNoEmail%2,          Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,           Tuantuan%Li%NULL%0,           Mingfeng%Han%NULL%0,           Xiuyong%Li%NULL%0,           Dong%Wu%NULL%0,           Yuanhong%Xu%NULL%0,           Yulin%Zhu%NULL%0,           Yan%Liu%NULL%0,           Xiaowu%Wang%wangxiaowu19880218@126.com%0,           Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,           Bohan%Yang%NULL%0,           Qianwen%Li%NULL%0,           Lu%Wen%NULL%0,           Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,           Luoqi%Zhou%NULL%1,           Ziwei%Hu%NULL%1,           Shuoqi%Zhang%NULL%1,           Sheng%Yang%NULL%1,           Yu%Tao%NULL%0,           Cuihong%Xie%NULL%1,           Ke%Ma%NULL%0,           Ke%Shang%NULL%1,           Wei%Wang%NULL%0,           Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,           Min%Pan%NULL%0,           Xiumei%Zhang%NULL%0,           Mingfeng%Han%fyhmf@163.com%0,           Xiaoyun%Fan%13956988552@126.com%0,           Fengde%Zhao%NULL%0,           Manli%Miao%NULL%0,           Jing%Xu%NULL%0,           Minglong%Guan%NULL%0,           Xia%Deng%NULL%0,           Xu%Chen%NULL%0,           Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,           Ting%Cai%NULL%1,           Lingyan%Fan%NULL%1,           Kehong%Lou%NULL%1,           Xin%Hua%NULL%1,           Zuoan%Huang%NULL%1,           Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,           Binghong%Zhao%NULL%1,           Yueming%Qu%NULL%1,           Yurou%Chen%NULL%1,           Jie%Xiong%NULL%1,           Yong%Feng%NULL%2,           Dong%Men%NULL%1,           Qianchuan%Huang%NULL%1,           Ying%Liu%NULL%0,           Bo%Yang%NULL%0,           Jinya%Ding%NULL%1,           Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,           Qiang%Zhang%NULL%1,           Qing%Li%NULL%1,           Ting%Wu%NULL%1,           Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,           Christian%Prebensen%christian.prebensen@gmail.com%1,           Heidi%Strand%Heidi.Strand@ahus.no%1,           Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,           Christine M.%Jonassen%chrjon@so-hf.no%1,           Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,           Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,           Signe%Søvik%signe.sovik@medisin.uio.no%1,           Helge%Røsjø%helge.rosjo@medisin.uio.no%1,           My%Svensson%m.h.s.svensson@medisin.uio.no%1,           Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,           Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,           Marina%de Castro Deus%NULL%1,           Joao Paulo%Telles%NULL%1,           Rafael%Wind%NULL%1,           Marina%Goes%NULL%1,           Roberta%Garcia Charello Ossoski%NULL%1,           Alessandra Michalski%de Padua%NULL%1,           Lucia%de Noronha%NULL%1,           Andrea%Moreno-Amaral%NULL%1,           Cristina Pellegrino%Baena%NULL%1,           Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,           Alberto%Utrero-Rico%NULL%1,           Paloma%Talayero%NULL%1,           Maria%Lasa-Lazaro%NULL%1,           Angel%Ramirez-Fernandez%NULL%1,           Laura%Naranjo%NULL%1,           Alejandro%Segura-Tudela%NULL%1,           Oscar%Cabrera-Marante%NULL%1,           Edgar%Rodriguez de Frias%NULL%1,           Rocio%Garcia-Garcia%NULL%1,           Mario%Fernández-Ruiz%NULL%0,           Jose Maria%Aguado%NULL%1,           Joaquin%Martinez-Lopez%NULL%1,           Elena Ana%Lopez%NULL%1,           Mercedes%Catalan%NULL%1,           Antonio%Serrano%NULL%1,           Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,           Wenbo%He%NULL%0,           Xiaomei%Yu%NULL%0,           Dalong%Hu%NULL%0,           Mingwei%Bao%NULL%0,           Huafen%Liu%NULL%0,           Jiali%Zhou%NULL%0,           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,           Ruoqi%Ning%NULL%1,           Yu%Tao%NULL%0,           Chong%Yu%NULL%2,           Xiaoyan%Deng%NULL%1,           Caili%Zhao%NULL%1,           Silu%Meng%NULL%1,           Fangxu%Tang%89650793@qq.com%1,           Dong%Xu%89650793@qq.com%0,           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,           Hui%Wang%NULL%0,           Guangming%Ye%NULL%2,           Xiaoling%Cao%NULL%1,           Xianqun%Xu%NULL%1,           Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,           Gil%Harari%NULL%1,           Michael%Gurevich%NULL%1,           Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,           Carmen M.%Cabrera%NULL%1,           Natalia%Jiménez%NULL%1,           Laura%Rincón%NULL%1,           José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,           Chong%Yu%NULL%0,           Daoyuan%Yue%NULL%1,           Xing%Zeng%NULL%1,           Zhiquan%Hu%NULL%1,           Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,           Wenwu%Sun%NULL%1,           Shengrong%Sun%NULL%1,           Zhiyu%Li%lizhiyu@whu.edu.cn%1,           Zhong%Wang%zhongwangchn@whu.edu.cn%1,           Li%Yu%yuliwhzxyy@163.com%2,           Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,           Jun%Wang%NULL%0,           Nan%Su%NULL%1,           Xiebing%Bao%NULL%1,           Yongsheng%Li%dr_ysli@126.com%1,           Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,           Jiangang%Jiang%NULL%0,           Feng%Wang%NULL%0,           Ning%Zhou%NULL%0,           Giacomo%Veronese%NULL%0,           Javid J.%Moslehi%NULL%0,           Enrico%Ammirati%NULL%0,           Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,    Jing%Liu%xref no email%0,    Weiling%Jiang%xref no email%0,    Shuang%Yue%xref no email%0,    Huiguo%Liu%xref no email%0,    Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,           Chang%Shu%NULL%0,           Xiao%Ran%NULL%1,           Cui-Hong%Xie%NULL%1,           Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,           Chen%Dong%NULL%1,           Shengzhong%Li%NULL%1,           Xiaoqing%Song%NULL%1,           Wang%Wei%NULL%1,           Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,           Bin%Huang%NULL%1,           Hongzhen%Xia%NULL%1,           Hua%Fan%NULL%1,           Muxin%Zhu%NULL%1,           Liping%Zhu%NULL%1,           Huan%Zhang%NULL%1,           Xiaogen%Tao%NULL%1,           Shaohui%Cheng%NULL%1,           Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>403</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1749,7 +1917,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>404</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1778,7 +1946,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1807,7 +1975,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -1836,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -1865,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>408</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1923,7 +2091,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1952,7 +2120,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -1981,7 +2149,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2010,7 +2178,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2039,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2068,7 +2236,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2097,7 +2265,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2126,7 +2294,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2155,7 +2323,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2184,7 +2352,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2213,7 +2381,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2242,7 +2410,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2271,7 +2439,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2300,7 +2468,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2329,7 +2497,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2358,7 +2526,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2387,7 +2555,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2416,7 +2584,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2445,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2474,7 +2642,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2503,7 +2671,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2532,7 +2700,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="487">
   <si>
     <t>Doi</t>
   </si>
@@ -1553,6 +1553,174 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,           Bin%Huang%NULL%1,           Hongzhen%Xia%NULL%1,           Hua%Fan%NULL%1,           Muxin%Zhu%NULL%1,           Liping%Zhu%NULL%1,           Huan%Zhang%NULL%1,           Xiaogen%Tao%NULL%1,           Shaohui%Cheng%NULL%1,           Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,     Di%Wu%xref no email%0,     Wei%Guo%xref no email%0,     Yong%Cao%xref no email%0,     Da%Huang%xref no email%0,     Hongwu%Wang%xref no email%0,     Tao%Wang%xref no email%0,     Xiaoyun%Zhang%xref no email%0,     Huilong%Chen%xref no email%0,     Haijing%Yu%xref no email%0,     Xiaoping%Zhang%xref no email%0,     Minxia%Zhang%xref no email%0,     Shiji%Wu%xref no email%0,     Jianxin%Song%xref no email%0,     Tao%Chen%xref no email%0,     Meifang%Han%xref no email%0,     Shusheng%Li%xref no email%0,     Xiaoping%Luo%xref no email%0,     Jianping%Zhao%xref no email%0,     Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,           Deliang%Huang%coreGivesNoEmail%2,           Hong%Yu%coreGivesNoEmail%2,           Jun%Chen%coreGivesNoEmail%0,           Lei%Liu%coreGivesNoEmail%0,           National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,           Pengcheng%Ou%coreGivesNoEmail%2,           Qing%He%coreGivesNoEmail%2,           Qingxian%Cai%coreGivesNoEmail%2,           Rossaint%J%coreGivesNoEmail%2,           Yang%Fu%coreGivesNoEmail%2,           Yiming%Zhang%coreGivesNoEmail%2,           Yinan%Su%coreGivesNoEmail%2,           Zhang%Xia%coreGivesNoEmail%2,           Zhenghua%Ma%coreGivesNoEmail%2,           Zhibin%Zhu%coreGivesNoEmail%2,           Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,            Tuantuan%Li%NULL%0,            Mingfeng%Han%NULL%0,            Xiuyong%Li%NULL%0,            Dong%Wu%NULL%0,            Yuanhong%Xu%NULL%0,            Yulin%Zhu%NULL%0,            Yan%Liu%NULL%0,            Xiaowu%Wang%wangxiaowu19880218@126.com%0,            Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,            Bohan%Yang%NULL%1,            Qianwen%Li%NULL%1,            Lu%Wen%NULL%1,            Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,            Luoqi%Zhou%NULL%1,            Ziwei%Hu%NULL%1,            Shuoqi%Zhang%NULL%1,            Sheng%Yang%NULL%1,            Yu%Tao%NULL%0,            Cuihong%Xie%NULL%1,            Ke%Ma%NULL%0,            Ke%Shang%NULL%1,            Wei%Wang%NULL%0,            Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,            Min%Pan%NULL%0,            Xiumei%Zhang%NULL%0,            Mingfeng%Han%fyhmf@163.com%0,            Xiaoyun%Fan%13956988552@126.com%0,            Fengde%Zhao%NULL%0,            Manli%Miao%NULL%0,            Jing%Xu%NULL%0,            Minglong%Guan%NULL%0,            Xia%Deng%NULL%0,            Xu%Chen%NULL%0,            Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,            Ting%Cai%NULL%1,            Lingyan%Fan%NULL%1,            Kehong%Lou%NULL%1,            Xin%Hua%NULL%1,            Zuoan%Huang%NULL%1,            Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,            Binghong%Zhao%NULL%1,            Yueming%Qu%NULL%1,            Yurou%Chen%NULL%1,            Jie%Xiong%NULL%1,            Yong%Feng%NULL%2,            Dong%Men%NULL%1,            Qianchuan%Huang%NULL%1,            Ying%Liu%NULL%0,            Bo%Yang%NULL%0,            Jinya%Ding%NULL%1,            Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,            Qiang%Zhang%NULL%1,            Qing%Li%NULL%1,            Ting%Wu%NULL%1,            Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,            Christian%Prebensen%christian.prebensen@gmail.com%1,            Heidi%Strand%Heidi.Strand@ahus.no%1,            Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,            Christine M.%Jonassen%chrjon@so-hf.no%1,            Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,            Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,            Signe%Søvik%signe.sovik@medisin.uio.no%1,            Helge%Røsjø%helge.rosjo@medisin.uio.no%1,            My%Svensson%m.h.s.svensson@medisin.uio.no%1,            Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,            Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,            Marina%de Castro Deus%NULL%1,            Joao Paulo%Telles%NULL%1,            Rafael%Wind%NULL%1,            Marina%Goes%NULL%1,            Roberta%Garcia Charello Ossoski%NULL%1,            Alessandra Michalski%de Padua%NULL%1,            Lucia%de Noronha%NULL%1,            Andrea%Moreno-Amaral%NULL%1,            Cristina Pellegrino%Baena%NULL%1,            Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,            Alberto%Utrero-Rico%NULL%1,            Paloma%Talayero%NULL%1,            Maria%Lasa-Lazaro%NULL%1,            Angel%Ramirez-Fernandez%NULL%1,            Laura%Naranjo%NULL%1,            Alejandro%Segura-Tudela%NULL%1,            Oscar%Cabrera-Marante%NULL%1,            Edgar%Rodriguez de Frias%NULL%1,            Rocio%Garcia-Garcia%NULL%1,            Mario%Fernández-Ruiz%NULL%1,            Jose Maria%Aguado%NULL%1,            Joaquin%Martinez-Lopez%NULL%1,            Elena Ana%Lopez%NULL%1,            Mercedes%Catalan%NULL%1,            Antonio%Serrano%NULL%1,            Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,            Wenbo%He%NULL%1,            Xiaomei%Yu%NULL%1,            Dalong%Hu%NULL%1,            Mingwei%Bao%NULL%1,            Huafen%Liu%NULL%1,            Jiali%Zhou%NULL%1,            Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,            Ruoqi%Ning%NULL%1,            Yu%Tao%NULL%0,            Chong%Yu%NULL%2,            Xiaoyan%Deng%NULL%1,            Caili%Zhao%NULL%1,            Silu%Meng%NULL%1,            Fangxu%Tang%89650793@qq.com%1,            Dong%Xu%89650793@qq.com%0,            Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,            Hui%Wang%NULL%0,            Guangming%Ye%NULL%2,            Xiaoling%Cao%NULL%1,            Xianqun%Xu%NULL%1,            Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,            Gil%Harari%NULL%1,            Michael%Gurevich%NULL%1,            Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,            Carmen M.%Cabrera%NULL%1,            Natalia%Jiménez%NULL%1,            Laura%Rincón%NULL%1,            José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,            Chong%Yu%NULL%0,            Daoyuan%Yue%NULL%1,            Xing%Zeng%NULL%1,            Zhiquan%Hu%NULL%1,            Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,            Wenwu%Sun%NULL%1,            Shengrong%Sun%NULL%1,            Zhiyu%Li%lizhiyu@whu.edu.cn%1,            Zhong%Wang%zhongwangchn@whu.edu.cn%1,            Li%Yu%yuliwhzxyy@163.com%2,            Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,            Jun%Wang%NULL%0,            Nan%Su%NULL%1,            Xiebing%Bao%NULL%1,            Yongsheng%Li%dr_ysli@126.com%1,            Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,            Jiangang%Jiang%NULL%0,            Feng%Wang%NULL%0,            Ning%Zhou%NULL%0,            Giacomo%Veronese%NULL%0,            Javid J.%Moslehi%NULL%0,            Enrico%Ammirati%NULL%0,            Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,     Jing%Liu%xref no email%0,     Weiling%Jiang%xref no email%0,     Shuang%Yue%xref no email%0,     Huiguo%Liu%xref no email%0,     Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,            Chang%Shu%NULL%0,            Xiao%Ran%NULL%1,            Cui-Hong%Xie%NULL%1,            Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,            Chen%Dong%NULL%1,            Shengzhong%Li%NULL%1,            Xiaoqing%Song%NULL%1,            Wang%Wei%NULL%1,            Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,            Bin%Huang%NULL%1,            Hongzhen%Xia%NULL%1,            Hua%Fan%NULL%1,            Muxin%Zhu%NULL%1,            Liping%Zhu%NULL%1,            Huan%Zhang%NULL%1,            Xiaogen%Tao%NULL%1,            Shaohui%Cheng%NULL%1,            Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,      Di%Wu%xref no email%0,      Wei%Guo%xref no email%0,      Yong%Cao%xref no email%0,      Da%Huang%xref no email%0,      Hongwu%Wang%xref no email%0,      Tao%Wang%xref no email%0,      Xiaoyun%Zhang%xref no email%0,      Huilong%Chen%xref no email%0,      Haijing%Yu%xref no email%0,      Xiaoping%Zhang%xref no email%0,      Minxia%Zhang%xref no email%0,      Shiji%Wu%xref no email%0,      Jianxin%Song%xref no email%0,      Tao%Chen%xref no email%0,      Meifang%Han%xref no email%0,      Shusheng%Li%xref no email%0,      Xiaoping%Luo%xref no email%0,      Jianping%Zhao%xref no email%0,      Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,            Deliang%Huang%coreGivesNoEmail%2,            Hong%Yu%coreGivesNoEmail%2,            Jun%Chen%coreGivesNoEmail%0,            Lei%Liu%coreGivesNoEmail%0,            National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,            Pengcheng%Ou%coreGivesNoEmail%2,            Qing%He%coreGivesNoEmail%2,            Qingxian%Cai%coreGivesNoEmail%2,            Rossaint%J%coreGivesNoEmail%2,            Yang%Fu%coreGivesNoEmail%2,            Yiming%Zhang%coreGivesNoEmail%2,            Yinan%Su%coreGivesNoEmail%2,            Zhang%Xia%coreGivesNoEmail%2,            Zhenghua%Ma%coreGivesNoEmail%2,            Zhibin%Zhu%coreGivesNoEmail%2,            Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,             Tuantuan%Li%NULL%0,             Mingfeng%Han%NULL%0,             Xiuyong%Li%NULL%0,             Dong%Wu%NULL%0,             Yuanhong%Xu%NULL%0,             Yulin%Zhu%NULL%0,             Yan%Liu%NULL%0,             Xiaowu%Wang%wangxiaowu19880218@126.com%0,             Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,             Bohan%Yang%NULL%1,             Qianwen%Li%NULL%1,             Lu%Wen%NULL%1,             Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,             Luoqi%Zhou%NULL%1,             Ziwei%Hu%NULL%1,             Shuoqi%Zhang%NULL%1,             Sheng%Yang%NULL%1,             Yu%Tao%NULL%0,             Cuihong%Xie%NULL%1,             Ke%Ma%NULL%0,             Ke%Shang%NULL%1,             Wei%Wang%NULL%0,             Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,             Min%Pan%NULL%0,             Xiumei%Zhang%NULL%0,             Mingfeng%Han%fyhmf@163.com%0,             Xiaoyun%Fan%13956988552@126.com%0,             Fengde%Zhao%NULL%0,             Manli%Miao%NULL%0,             Jing%Xu%NULL%0,             Minglong%Guan%NULL%0,             Xia%Deng%NULL%0,             Xu%Chen%NULL%0,             Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,             Ting%Cai%NULL%1,             Lingyan%Fan%NULL%1,             Kehong%Lou%NULL%1,             Xin%Hua%NULL%1,             Zuoan%Huang%NULL%1,             Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,             Binghong%Zhao%NULL%1,             Yueming%Qu%NULL%1,             Yurou%Chen%NULL%1,             Jie%Xiong%NULL%1,             Yong%Feng%NULL%2,             Dong%Men%NULL%1,             Qianchuan%Huang%NULL%1,             Ying%Liu%NULL%0,             Bo%Yang%NULL%0,             Jinya%Ding%NULL%1,             Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,             Qiang%Zhang%NULL%1,             Qing%Li%NULL%1,             Ting%Wu%NULL%1,             Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,             Christian%Prebensen%christian.prebensen@gmail.com%1,             Heidi%Strand%Heidi.Strand@ahus.no%1,             Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,             Christine M.%Jonassen%chrjon@so-hf.no%1,             Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,             Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,             Signe%Søvik%signe.sovik@medisin.uio.no%1,             Helge%Røsjø%helge.rosjo@medisin.uio.no%1,             My%Svensson%m.h.s.svensson@medisin.uio.no%1,             Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,             Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,             Marina%de Castro Deus%NULL%1,             Joao Paulo%Telles%NULL%1,             Rafael%Wind%NULL%1,             Marina%Goes%NULL%1,             Roberta%Garcia Charello Ossoski%NULL%1,             Alessandra Michalski%de Padua%NULL%1,             Lucia%de Noronha%NULL%1,             Andrea%Moreno-Amaral%NULL%1,             Cristina Pellegrino%Baena%NULL%1,             Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,             Alberto%Utrero-Rico%NULL%1,             Paloma%Talayero%NULL%1,             Maria%Lasa-Lazaro%NULL%1,             Angel%Ramirez-Fernandez%NULL%1,             Laura%Naranjo%NULL%1,             Alejandro%Segura-Tudela%NULL%1,             Oscar%Cabrera-Marante%NULL%1,             Edgar%Rodriguez de Frias%NULL%1,             Rocio%Garcia-Garcia%NULL%1,             Mario%Fernández-Ruiz%NULL%1,             Jose Maria%Aguado%NULL%1,             Joaquin%Martinez-Lopez%NULL%1,             Elena Ana%Lopez%NULL%1,             Mercedes%Catalan%NULL%1,             Antonio%Serrano%NULL%1,             Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,             Wenbo%He%NULL%1,             Xiaomei%Yu%NULL%1,             Dalong%Hu%NULL%1,             Mingwei%Bao%NULL%1,             Huafen%Liu%NULL%1,             Jiali%Zhou%NULL%1,             Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,             Ruoqi%Ning%NULL%1,             Yu%Tao%NULL%0,             Chong%Yu%NULL%2,             Xiaoyan%Deng%NULL%1,             Caili%Zhao%NULL%1,             Silu%Meng%NULL%1,             Fangxu%Tang%89650793@qq.com%1,             Dong%Xu%89650793@qq.com%0,             Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,             Hui%Wang%NULL%0,             Guangming%Ye%NULL%2,             Xiaoling%Cao%NULL%1,             Xianqun%Xu%NULL%1,             Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,             Gil%Harari%NULL%1,             Michael%Gurevich%NULL%1,             Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,             Carmen M.%Cabrera%NULL%1,             Natalia%Jiménez%NULL%1,             Laura%Rincón%NULL%1,             José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,             Chong%Yu%NULL%0,             Daoyuan%Yue%NULL%1,             Xing%Zeng%NULL%1,             Zhiquan%Hu%NULL%1,             Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,             Wenwu%Sun%NULL%1,             Shengrong%Sun%NULL%1,             Zhiyu%Li%lizhiyu@whu.edu.cn%1,             Zhong%Wang%zhongwangchn@whu.edu.cn%1,             Li%Yu%yuliwhzxyy@163.com%2,             Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,             Jun%Wang%NULL%0,             Nan%Su%NULL%1,             Xiebing%Bao%NULL%1,             Yongsheng%Li%dr_ysli@126.com%1,             Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,             Jiangang%Jiang%NULL%0,             Feng%Wang%NULL%0,             Ning%Zhou%NULL%0,             Giacomo%Veronese%NULL%0,             Javid J.%Moslehi%NULL%0,             Enrico%Ammirati%NULL%0,             Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,      Jing%Liu%xref no email%0,      Weiling%Jiang%xref no email%0,      Shuang%Yue%xref no email%0,      Huiguo%Liu%xref no email%0,      Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,             Chang%Shu%NULL%0,             Xiao%Ran%NULL%1,             Cui-Hong%Xie%NULL%1,             Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,             Chen%Dong%NULL%1,             Shengzhong%Li%NULL%1,             Xiaoqing%Song%NULL%1,             Wang%Wei%NULL%1,             Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,             Bin%Huang%NULL%1,             Hongzhen%Xia%NULL%1,             Hua%Fan%NULL%1,             Muxin%Zhu%NULL%1,             Liping%Zhu%NULL%1,             Huan%Zhang%NULL%1,             Xiaogen%Tao%NULL%1,             Shaohui%Cheng%NULL%1,             Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +2056,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1917,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1946,7 +2114,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -1975,7 +2143,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2004,7 +2172,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2033,7 +2201,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2091,7 +2259,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2120,7 +2288,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2149,7 +2317,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2178,7 +2346,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2207,7 +2375,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2236,7 +2404,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2265,7 +2433,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2294,7 +2462,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2323,7 +2491,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2352,7 +2520,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2381,7 +2549,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2410,7 +2578,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2439,7 +2607,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2468,7 +2636,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2497,7 +2665,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2526,7 +2694,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2555,7 +2723,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2584,7 +2752,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2613,7 +2781,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2642,7 +2810,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2671,7 +2839,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2700,7 +2868,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="515">
   <si>
     <t>Doi</t>
   </si>
@@ -1721,6 +1721,90 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,             Bin%Huang%NULL%1,             Hongzhen%Xia%NULL%1,             Hua%Fan%NULL%1,             Muxin%Zhu%NULL%1,             Liping%Zhu%NULL%1,             Huan%Zhang%NULL%1,             Xiaogen%Tao%NULL%1,             Shaohui%Cheng%NULL%1,             Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,       Di%Wu%xref no email%0,       Wei%Guo%xref no email%0,       Yong%Cao%xref no email%0,       Da%Huang%xref no email%0,       Hongwu%Wang%xref no email%0,       Tao%Wang%xref no email%0,       Xiaoyun%Zhang%xref no email%0,       Huilong%Chen%xref no email%0,       Haijing%Yu%xref no email%0,       Xiaoping%Zhang%xref no email%0,       Minxia%Zhang%xref no email%0,       Shiji%Wu%xref no email%0,       Jianxin%Song%xref no email%0,       Tao%Chen%xref no email%0,       Meifang%Han%xref no email%0,       Shusheng%Li%xref no email%0,       Xiaoping%Luo%xref no email%0,       Jianping%Zhao%xref no email%0,       Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,             Deliang%Huang%coreGivesNoEmail%2,             Hong%Yu%coreGivesNoEmail%2,             Jun%Chen%coreGivesNoEmail%0,             Lei%Liu%coreGivesNoEmail%0,             National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,             Pengcheng%Ou%coreGivesNoEmail%2,             Qing%He%coreGivesNoEmail%2,             Qingxian%Cai%coreGivesNoEmail%2,             Rossaint%J%coreGivesNoEmail%2,             Yang%Fu%coreGivesNoEmail%2,             Yiming%Zhang%coreGivesNoEmail%2,             Yinan%Su%coreGivesNoEmail%2,             Zhang%Xia%coreGivesNoEmail%2,             Zhenghua%Ma%coreGivesNoEmail%2,             Zhibin%Zhu%coreGivesNoEmail%2,             Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,              Tuantuan%Li%NULL%0,              Mingfeng%Han%NULL%0,              Xiuyong%Li%NULL%0,              Dong%Wu%NULL%0,              Yuanhong%Xu%NULL%0,              Yulin%Zhu%NULL%0,              Yan%Liu%NULL%0,              Xiaowu%Wang%wangxiaowu19880218@126.com%0,              Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,              Bohan%Yang%NULL%1,              Qianwen%Li%NULL%1,              Lu%Wen%NULL%1,              Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,              Luoqi%Zhou%NULL%1,              Ziwei%Hu%NULL%1,              Shuoqi%Zhang%NULL%1,              Sheng%Yang%NULL%1,              Yu%Tao%NULL%0,              Cuihong%Xie%NULL%1,              Ke%Ma%NULL%0,              Ke%Shang%NULL%1,              Wei%Wang%NULL%0,              Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,              Min%Pan%NULL%0,              Xiumei%Zhang%NULL%0,              Mingfeng%Han%fyhmf@163.com%0,              Xiaoyun%Fan%13956988552@126.com%0,              Fengde%Zhao%NULL%0,              Manli%Miao%NULL%0,              Jing%Xu%NULL%0,              Minglong%Guan%NULL%0,              Xia%Deng%NULL%0,              Xu%Chen%NULL%0,              Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,              Ting%Cai%NULL%1,              Lingyan%Fan%NULL%1,              Kehong%Lou%NULL%1,              Xin%Hua%NULL%1,              Zuoan%Huang%NULL%1,              Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,              Binghong%Zhao%NULL%1,              Yueming%Qu%NULL%1,              Yurou%Chen%NULL%1,              Jie%Xiong%NULL%1,              Yong%Feng%NULL%2,              Dong%Men%NULL%1,              Qianchuan%Huang%NULL%1,              Ying%Liu%NULL%0,              Bo%Yang%NULL%0,              Jinya%Ding%NULL%1,              Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,              Qiang%Zhang%NULL%1,              Qing%Li%NULL%1,              Ting%Wu%NULL%1,              Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,              Christian%Prebensen%christian.prebensen@gmail.com%1,              Heidi%Strand%Heidi.Strand@ahus.no%1,              Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,              Christine M.%Jonassen%chrjon@so-hf.no%1,              Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,              Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,              Signe%Søvik%signe.sovik@medisin.uio.no%1,              Helge%Røsjø%helge.rosjo@medisin.uio.no%1,              My%Svensson%m.h.s.svensson@medisin.uio.no%1,              Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,              Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,              Marina%de Castro Deus%NULL%1,              Joao Paulo%Telles%NULL%1,              Rafael%Wind%NULL%1,              Marina%Goes%NULL%1,              Roberta%Garcia Charello Ossoski%NULL%1,              Alessandra Michalski%de Padua%NULL%1,              Lucia%de Noronha%NULL%1,              Andrea%Moreno-Amaral%NULL%1,              Cristina Pellegrino%Baena%NULL%1,              Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,              Alberto%Utrero-Rico%NULL%1,              Paloma%Talayero%NULL%1,              Maria%Lasa-Lazaro%NULL%1,              Angel%Ramirez-Fernandez%NULL%1,              Laura%Naranjo%NULL%1,              Alejandro%Segura-Tudela%NULL%1,              Oscar%Cabrera-Marante%NULL%1,              Edgar%Rodriguez de Frias%NULL%1,              Rocio%Garcia-Garcia%NULL%1,              Mario%Fernández-Ruiz%NULL%1,              Jose Maria%Aguado%NULL%1,              Joaquin%Martinez-Lopez%NULL%1,              Elena Ana%Lopez%NULL%1,              Mercedes%Catalan%NULL%1,              Antonio%Serrano%NULL%1,              Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,              Wenbo%He%NULL%1,              Xiaomei%Yu%NULL%1,              Dalong%Hu%NULL%1,              Mingwei%Bao%NULL%1,              Huafen%Liu%NULL%1,              Jiali%Zhou%NULL%1,              Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,              Ruoqi%Ning%NULL%1,              Yu%Tao%NULL%0,              Chong%Yu%NULL%2,              Xiaoyan%Deng%NULL%1,              Caili%Zhao%NULL%1,              Silu%Meng%NULL%1,              Fangxu%Tang%89650793@qq.com%1,              Dong%Xu%89650793@qq.com%0,              Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,              Hui%Wang%NULL%0,              Guangming%Ye%NULL%2,              Xiaoling%Cao%NULL%1,              Xianqun%Xu%NULL%1,              Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,              Gil%Harari%NULL%1,              Michael%Gurevich%NULL%1,              Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,              Carmen M.%Cabrera%NULL%1,              Natalia%Jiménez%NULL%1,              Laura%Rincón%NULL%1,              José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,              Chong%Yu%NULL%0,              Daoyuan%Yue%NULL%1,              Xing%Zeng%NULL%1,              Zhiquan%Hu%NULL%1,              Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,              Wenwu%Sun%NULL%1,              Shengrong%Sun%NULL%1,              Zhiyu%Li%lizhiyu@whu.edu.cn%1,              Zhong%Wang%zhongwangchn@whu.edu.cn%1,              Li%Yu%yuliwhzxyy@163.com%2,              Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,              Jun%Wang%NULL%0,              Nan%Su%NULL%1,              Xiebing%Bao%NULL%1,              Yongsheng%Li%dr_ysli@126.com%1,              Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,              Jiangang%Jiang%NULL%0,              Feng%Wang%NULL%0,              Ning%Zhou%NULL%0,              Giacomo%Veronese%NULL%0,              Javid J.%Moslehi%NULL%0,              Enrico%Ammirati%NULL%0,              Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,       Jing%Liu%xref no email%0,       Weiling%Jiang%xref no email%0,       Shuang%Yue%xref no email%0,       Huiguo%Liu%xref no email%0,       Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,              Chang%Shu%NULL%0,              Xiao%Ran%NULL%1,              Cui-Hong%Xie%NULL%1,              Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,              Chen%Dong%NULL%1,              Shengzhong%Li%NULL%1,              Xiaoqing%Song%NULL%1,              Wang%Wei%NULL%1,              Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,              Bin%Huang%NULL%1,              Hongzhen%Xia%NULL%1,              Hua%Fan%NULL%1,              Muxin%Zhu%NULL%1,              Liping%Zhu%NULL%1,              Huan%Zhang%NULL%1,              Xiaogen%Tao%NULL%1,              Shaohui%Cheng%NULL%1,              Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2085,7 +2169,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2114,7 +2198,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2143,7 +2227,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2172,7 +2256,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2201,7 +2285,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2259,7 +2343,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2288,7 +2372,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2317,7 +2401,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2346,7 +2430,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2375,7 +2459,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2404,7 +2488,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2433,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2462,7 +2546,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2491,7 +2575,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2520,7 +2604,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2549,7 +2633,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2578,7 +2662,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2607,7 +2691,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2636,7 +2720,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2665,7 +2749,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2694,7 +2778,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2723,7 +2807,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2752,7 +2836,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2781,7 +2865,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2810,7 +2894,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2839,7 +2923,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2868,7 +2952,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="543">
   <si>
     <t>Doi</t>
   </si>
@@ -1805,6 +1805,90 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,              Bin%Huang%NULL%1,              Hongzhen%Xia%NULL%1,              Hua%Fan%NULL%1,              Muxin%Zhu%NULL%1,              Liping%Zhu%NULL%1,              Huan%Zhang%NULL%1,              Xiaogen%Tao%NULL%1,              Shaohui%Cheng%NULL%1,              Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,        Di%Wu%xref no email%0,        Wei%Guo%xref no email%0,        Yong%Cao%xref no email%0,        Da%Huang%xref no email%0,        Hongwu%Wang%xref no email%0,        Tao%Wang%xref no email%0,        Xiaoyun%Zhang%xref no email%0,        Huilong%Chen%xref no email%0,        Haijing%Yu%xref no email%0,        Xiaoping%Zhang%xref no email%0,        Minxia%Zhang%xref no email%0,        Shiji%Wu%xref no email%0,        Jianxin%Song%xref no email%0,        Tao%Chen%xref no email%0,        Meifang%Han%xref no email%0,        Shusheng%Li%xref no email%0,        Xiaoping%Luo%xref no email%0,        Jianping%Zhao%xref no email%0,        Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,              Deliang%Huang%coreGivesNoEmail%2,              Hong%Yu%coreGivesNoEmail%2,              Jun%Chen%coreGivesNoEmail%0,              Lei%Liu%coreGivesNoEmail%0,              National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,              Pengcheng%Ou%coreGivesNoEmail%2,              Qing%He%coreGivesNoEmail%2,              Qingxian%Cai%coreGivesNoEmail%2,              Rossaint%J%coreGivesNoEmail%2,              Yang%Fu%coreGivesNoEmail%2,              Yiming%Zhang%coreGivesNoEmail%2,              Yinan%Su%coreGivesNoEmail%2,              Zhang%Xia%coreGivesNoEmail%2,              Zhenghua%Ma%coreGivesNoEmail%2,              Zhibin%Zhu%coreGivesNoEmail%2,              Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,               Tuantuan%Li%NULL%0,               Mingfeng%Han%NULL%0,               Xiuyong%Li%NULL%0,               Dong%Wu%NULL%0,               Yuanhong%Xu%NULL%0,               Yulin%Zhu%NULL%0,               Yan%Liu%NULL%0,               Xiaowu%Wang%wangxiaowu19880218@126.com%0,               Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,               Bohan%Yang%NULL%1,               Qianwen%Li%NULL%1,               Lu%Wen%NULL%1,               Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,               Luoqi%Zhou%NULL%1,               Ziwei%Hu%NULL%1,               Shuoqi%Zhang%NULL%1,               Sheng%Yang%NULL%1,               Yu%Tao%NULL%0,               Cuihong%Xie%NULL%1,               Ke%Ma%NULL%0,               Ke%Shang%NULL%1,               Wei%Wang%NULL%0,               Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,               Min%Pan%NULL%0,               Xiumei%Zhang%NULL%0,               Mingfeng%Han%fyhmf@163.com%0,               Xiaoyun%Fan%13956988552@126.com%0,               Fengde%Zhao%NULL%0,               Manli%Miao%NULL%0,               Jing%Xu%NULL%0,               Minglong%Guan%NULL%0,               Xia%Deng%NULL%0,               Xu%Chen%NULL%0,               Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,               Ting%Cai%NULL%1,               Lingyan%Fan%NULL%1,               Kehong%Lou%NULL%1,               Xin%Hua%NULL%1,               Zuoan%Huang%NULL%1,               Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,               Binghong%Zhao%NULL%1,               Yueming%Qu%NULL%1,               Yurou%Chen%NULL%1,               Jie%Xiong%NULL%1,               Yong%Feng%NULL%2,               Dong%Men%NULL%1,               Qianchuan%Huang%NULL%1,               Ying%Liu%NULL%0,               Bo%Yang%NULL%0,               Jinya%Ding%NULL%1,               Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,               Qiang%Zhang%NULL%1,               Qing%Li%NULL%1,               Ting%Wu%NULL%1,               Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,               Christian%Prebensen%christian.prebensen@gmail.com%1,               Heidi%Strand%Heidi.Strand@ahus.no%1,               Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,               Christine M.%Jonassen%chrjon@so-hf.no%1,               Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,               Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,               Signe%Søvik%signe.sovik@medisin.uio.no%1,               Helge%Røsjø%helge.rosjo@medisin.uio.no%1,               My%Svensson%m.h.s.svensson@medisin.uio.no%1,               Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,               Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,               Marina%de Castro Deus%NULL%1,               Joao Paulo%Telles%NULL%1,               Rafael%Wind%NULL%1,               Marina%Goes%NULL%1,               Roberta%Garcia Charello Ossoski%NULL%1,               Alessandra Michalski%de Padua%NULL%1,               Lucia%de Noronha%NULL%1,               Andrea%Moreno-Amaral%NULL%1,               Cristina Pellegrino%Baena%NULL%1,               Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,               Alberto%Utrero-Rico%NULL%1,               Paloma%Talayero%NULL%1,               Maria%Lasa-Lazaro%NULL%1,               Angel%Ramirez-Fernandez%NULL%1,               Laura%Naranjo%NULL%1,               Alejandro%Segura-Tudela%NULL%1,               Oscar%Cabrera-Marante%NULL%1,               Edgar%Rodriguez de Frias%NULL%1,               Rocio%Garcia-Garcia%NULL%1,               Mario%Fernández-Ruiz%NULL%1,               Jose Maria%Aguado%NULL%1,               Joaquin%Martinez-Lopez%NULL%1,               Elena Ana%Lopez%NULL%1,               Mercedes%Catalan%NULL%1,               Antonio%Serrano%NULL%1,               Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,               Wenbo%He%NULL%1,               Xiaomei%Yu%NULL%1,               Dalong%Hu%NULL%1,               Mingwei%Bao%NULL%1,               Huafen%Liu%NULL%1,               Jiali%Zhou%NULL%1,               Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,               Ruoqi%Ning%NULL%1,               Yu%Tao%NULL%0,               Chong%Yu%NULL%2,               Xiaoyan%Deng%NULL%1,               Caili%Zhao%NULL%1,               Silu%Meng%NULL%1,               Fangxu%Tang%89650793@qq.com%1,               Dong%Xu%89650793@qq.com%0,               Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,               Hui%Wang%NULL%0,               Guangming%Ye%NULL%2,               Xiaoling%Cao%NULL%1,               Xianqun%Xu%NULL%1,               Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,               Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,               Gil%Harari%NULL%1,               Michael%Gurevich%NULL%1,               Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,               Carmen M.%Cabrera%NULL%1,               Natalia%Jiménez%NULL%1,               Laura%Rincón%NULL%1,               José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,               Chong%Yu%NULL%0,               Daoyuan%Yue%NULL%1,               Xing%Zeng%NULL%1,               Zhiquan%Hu%NULL%1,               Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,               Wenwu%Sun%NULL%1,               Shengrong%Sun%NULL%1,               Zhiyu%Li%lizhiyu@whu.edu.cn%1,               Zhong%Wang%zhongwangchn@whu.edu.cn%1,               Li%Yu%yuliwhzxyy@163.com%2,               Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,               Jun%Wang%NULL%0,               Nan%Su%NULL%1,               Xiebing%Bao%NULL%1,               Yongsheng%Li%dr_ysli@126.com%1,               Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,               Jiangang%Jiang%NULL%0,               Feng%Wang%NULL%0,               Ning%Zhou%NULL%0,               Giacomo%Veronese%NULL%0,               Javid J.%Moslehi%NULL%0,               Enrico%Ammirati%NULL%0,               Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,        Jing%Liu%xref no email%0,        Weiling%Jiang%xref no email%0,        Shuang%Yue%xref no email%0,        Huiguo%Liu%xref no email%0,        Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,               Chang%Shu%NULL%0,               Xiao%Ran%NULL%1,               Cui-Hong%Xie%NULL%1,               Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,               Chen%Dong%NULL%1,               Shengzhong%Li%NULL%1,               Xiaoqing%Song%NULL%1,               Wang%Wei%NULL%1,               Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,               Bin%Huang%NULL%1,               Hongzhen%Xia%NULL%1,               Hua%Fan%NULL%1,               Muxin%Zhu%NULL%1,               Liping%Zhu%NULL%1,               Huan%Zhang%NULL%1,               Xiaogen%Tao%NULL%1,               Shaohui%Cheng%NULL%1,               Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2140,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2169,7 +2253,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2198,7 +2282,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2227,7 +2311,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2256,7 +2340,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2285,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2343,7 +2427,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2372,7 +2456,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2401,7 +2485,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2430,7 +2514,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2459,7 +2543,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2488,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2517,7 +2601,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2546,7 +2630,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2575,7 +2659,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2604,7 +2688,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2633,7 +2717,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2662,7 +2746,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2691,7 +2775,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2720,7 +2804,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2749,7 +2833,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2778,7 +2862,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2807,7 +2891,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2836,7 +2920,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2865,7 +2949,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2894,7 +2978,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2923,7 +3007,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -2952,7 +3036,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="599">
   <si>
     <t>Doi</t>
   </si>
@@ -1889,6 +1889,174 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,               Bin%Huang%NULL%1,               Hongzhen%Xia%NULL%1,               Hua%Fan%NULL%1,               Muxin%Zhu%NULL%1,               Liping%Zhu%NULL%1,               Huan%Zhang%NULL%1,               Xiaogen%Tao%NULL%1,               Shaohui%Cheng%NULL%1,               Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,         Di%Wu%xref no email%0,         Wei%Guo%xref no email%0,         Yong%Cao%xref no email%0,         Da%Huang%xref no email%0,         Hongwu%Wang%xref no email%0,         Tao%Wang%xref no email%0,         Xiaoyun%Zhang%xref no email%0,         Huilong%Chen%xref no email%0,         Haijing%Yu%xref no email%0,         Xiaoping%Zhang%xref no email%0,         Minxia%Zhang%xref no email%0,         Shiji%Wu%xref no email%0,         Jianxin%Song%xref no email%0,         Tao%Chen%xref no email%0,         Meifang%Han%xref no email%0,         Shusheng%Li%xref no email%0,         Xiaoping%Luo%xref no email%0,         Jianping%Zhao%xref no email%0,         Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,               Deliang%Huang%coreGivesNoEmail%2,               Hong%Yu%coreGivesNoEmail%2,               Jun%Chen%coreGivesNoEmail%0,               Lei%Liu%coreGivesNoEmail%0,               National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,               Pengcheng%Ou%coreGivesNoEmail%2,               Qing%He%coreGivesNoEmail%2,               Qingxian%Cai%coreGivesNoEmail%2,               Rossaint%J%coreGivesNoEmail%2,               Yang%Fu%coreGivesNoEmail%2,               Yiming%Zhang%coreGivesNoEmail%2,               Yinan%Su%coreGivesNoEmail%2,               Zhang%Xia%coreGivesNoEmail%2,               Zhenghua%Ma%coreGivesNoEmail%2,               Zhibin%Zhu%coreGivesNoEmail%2,               Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                Tuantuan%Li%NULL%0,                Mingfeng%Han%NULL%0,                Xiuyong%Li%NULL%0,                Dong%Wu%NULL%0,                Yuanhong%Xu%NULL%0,                Yulin%Zhu%NULL%0,                Yan%Liu%NULL%0,                Xiaowu%Wang%wangxiaowu19880218@126.com%0,                Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                Bohan%Yang%NULL%1,                Qianwen%Li%NULL%1,                Lu%Wen%NULL%1,                Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                Luoqi%Zhou%NULL%1,                Ziwei%Hu%NULL%1,                Shuoqi%Zhang%NULL%1,                Sheng%Yang%NULL%1,                Yu%Tao%NULL%0,                Cuihong%Xie%NULL%1,                Ke%Ma%NULL%0,                Ke%Shang%NULL%1,                Wei%Wang%NULL%0,                Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                Min%Pan%NULL%0,                Xiumei%Zhang%NULL%0,                Mingfeng%Han%fyhmf@163.com%0,                Xiaoyun%Fan%13956988552@126.com%0,                Fengde%Zhao%NULL%0,                Manli%Miao%NULL%0,                Jing%Xu%NULL%0,                Minglong%Guan%NULL%0,                Xia%Deng%NULL%0,                Xu%Chen%NULL%0,                Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                Ting%Cai%NULL%1,                Lingyan%Fan%NULL%1,                Kehong%Lou%NULL%1,                Xin%Hua%NULL%1,                Zuoan%Huang%NULL%1,                Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                Binghong%Zhao%NULL%1,                Yueming%Qu%NULL%1,                Yurou%Chen%NULL%1,                Jie%Xiong%NULL%1,                Yong%Feng%NULL%2,                Dong%Men%NULL%1,                Qianchuan%Huang%NULL%1,                Ying%Liu%NULL%0,                Bo%Yang%NULL%0,                Jinya%Ding%NULL%1,                Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                Qiang%Zhang%NULL%1,                Qing%Li%NULL%1,                Ting%Wu%NULL%1,                Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                Christian%Prebensen%christian.prebensen@gmail.com%1,                Heidi%Strand%Heidi.Strand@ahus.no%1,                Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                Christine M.%Jonassen%chrjon@so-hf.no%1,                Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                Signe%Søvik%signe.sovik@medisin.uio.no%1,                Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                My%Svensson%m.h.s.svensson@medisin.uio.no%1,                Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                Marina%de Castro Deus%NULL%1,                Joao Paulo%Telles%NULL%1,                Rafael%Wind%NULL%1,                Marina%Goes%NULL%1,                Roberta%Garcia Charello Ossoski%NULL%1,                Alessandra Michalski%de Padua%NULL%1,                Lucia%de Noronha%NULL%1,                Andrea%Moreno-Amaral%NULL%1,                Cristina Pellegrino%Baena%NULL%1,                Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                Alberto%Utrero-Rico%NULL%1,                Paloma%Talayero%NULL%1,                Maria%Lasa-Lazaro%NULL%1,                Angel%Ramirez-Fernandez%NULL%1,                Laura%Naranjo%NULL%1,                Alejandro%Segura-Tudela%NULL%1,                Oscar%Cabrera-Marante%NULL%1,                Edgar%Rodriguez de Frias%NULL%1,                Rocio%Garcia-Garcia%NULL%1,                Mario%Fernández-Ruiz%NULL%1,                Jose Maria%Aguado%NULL%1,                Joaquin%Martinez-Lopez%NULL%1,                Elena Ana%Lopez%NULL%1,                Mercedes%Catalan%NULL%1,                Antonio%Serrano%NULL%1,                Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                Wenbo%He%NULL%1,                Xiaomei%Yu%NULL%1,                Dalong%Hu%NULL%1,                Mingwei%Bao%NULL%1,                Huafen%Liu%NULL%1,                Jiali%Zhou%NULL%1,                Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                Ruoqi%Ning%NULL%1,                Yu%Tao%NULL%0,                Chong%Yu%NULL%2,                Xiaoyan%Deng%NULL%1,                Caili%Zhao%NULL%1,                Silu%Meng%NULL%1,                Fangxu%Tang%89650793@qq.com%1,                Dong%Xu%89650793@qq.com%0,                Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                Hui%Wang%NULL%0,                Guangming%Ye%NULL%2,                Xiaoling%Cao%NULL%1,                Xianqun%Xu%NULL%1,                Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                Gil%Harari%NULL%1,                Michael%Gurevich%NULL%1,                Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                Carmen M.%Cabrera%NULL%1,                Natalia%Jiménez%NULL%1,                Laura%Rincón%NULL%1,                José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                Chong%Yu%NULL%0,                Daoyuan%Yue%NULL%1,                Xing%Zeng%NULL%1,                Zhiquan%Hu%NULL%1,                Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                Wenwu%Sun%NULL%1,                Shengrong%Sun%NULL%1,                Zhiyu%Li%lizhiyu@whu.edu.cn%1,                Zhong%Wang%zhongwangchn@whu.edu.cn%1,                Li%Yu%yuliwhzxyy@163.com%2,                Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                Jun%Wang%NULL%0,                Nan%Su%NULL%1,                Xiebing%Bao%NULL%1,                Yongsheng%Li%dr_ysli@126.com%1,                Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                Jiangang%Jiang%NULL%0,                Feng%Wang%NULL%0,                Ning%Zhou%NULL%0,                Giacomo%Veronese%NULL%0,                Javid J.%Moslehi%NULL%0,                Enrico%Ammirati%NULL%0,                Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,         Jing%Liu%xref no email%0,         Weiling%Jiang%xref no email%0,         Shuang%Yue%xref no email%0,         Huiguo%Liu%xref no email%0,         Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                Chang%Shu%NULL%0,                Xiao%Ran%NULL%1,                Cui-Hong%Xie%NULL%1,                Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                Chen%Dong%NULL%1,                Shengzhong%Li%NULL%1,                Xiaoqing%Song%NULL%1,                Wang%Wei%NULL%1,                Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                Bin%Huang%NULL%1,                Hongzhen%Xia%NULL%1,                Hua%Fan%NULL%1,                Muxin%Zhu%NULL%1,                Liping%Zhu%NULL%1,                Huan%Zhang%NULL%1,                Xiaogen%Tao%NULL%1,                Shaohui%Cheng%NULL%1,                Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,          Di%Wu%xref no email%0,          Wei%Guo%xref no email%0,          Yong%Cao%xref no email%0,          Da%Huang%xref no email%0,          Hongwu%Wang%xref no email%0,          Tao%Wang%xref no email%0,          Xiaoyun%Zhang%xref no email%0,          Huilong%Chen%xref no email%0,          Haijing%Yu%xref no email%0,          Xiaoping%Zhang%xref no email%0,          Minxia%Zhang%xref no email%0,          Shiji%Wu%xref no email%0,          Jianxin%Song%xref no email%0,          Tao%Chen%xref no email%0,          Meifang%Han%xref no email%0,          Shusheng%Li%xref no email%0,          Xiaoping%Luo%xref no email%0,          Jianping%Zhao%xref no email%0,          Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                Deliang%Huang%coreGivesNoEmail%2,                Hong%Yu%coreGivesNoEmail%2,                Jun%Chen%coreGivesNoEmail%0,                Lei%Liu%coreGivesNoEmail%0,                National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                Pengcheng%Ou%coreGivesNoEmail%2,                Qing%He%coreGivesNoEmail%2,                Qingxian%Cai%coreGivesNoEmail%2,                Rossaint%J%coreGivesNoEmail%2,                Yang%Fu%coreGivesNoEmail%2,                Yiming%Zhang%coreGivesNoEmail%2,                Yinan%Su%coreGivesNoEmail%2,                Zhang%Xia%coreGivesNoEmail%2,                Zhenghua%Ma%coreGivesNoEmail%2,                Zhibin%Zhu%coreGivesNoEmail%2,                Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                 Tuantuan%Li%NULL%0,                 Mingfeng%Han%NULL%0,                 Xiuyong%Li%NULL%0,                 Dong%Wu%NULL%0,                 Yuanhong%Xu%NULL%0,                 Yulin%Zhu%NULL%0,                 Yan%Liu%NULL%0,                 Xiaowu%Wang%wangxiaowu19880218@126.com%0,                 Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                 Bohan%Yang%NULL%1,                 Qianwen%Li%NULL%1,                 Lu%Wen%NULL%1,                 Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                 Luoqi%Zhou%NULL%1,                 Ziwei%Hu%NULL%1,                 Shuoqi%Zhang%NULL%1,                 Sheng%Yang%NULL%1,                 Yu%Tao%NULL%0,                 Cuihong%Xie%NULL%1,                 Ke%Ma%NULL%0,                 Ke%Shang%NULL%1,                 Wei%Wang%NULL%0,                 Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                 Min%Pan%NULL%0,                 Xiumei%Zhang%NULL%0,                 Mingfeng%Han%fyhmf@163.com%0,                 Xiaoyun%Fan%13956988552@126.com%0,                 Fengde%Zhao%NULL%0,                 Manli%Miao%NULL%0,                 Jing%Xu%NULL%0,                 Minglong%Guan%NULL%0,                 Xia%Deng%NULL%0,                 Xu%Chen%NULL%0,                 Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                 Ting%Cai%NULL%1,                 Lingyan%Fan%NULL%1,                 Kehong%Lou%NULL%1,                 Xin%Hua%NULL%1,                 Zuoan%Huang%NULL%1,                 Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                 Binghong%Zhao%NULL%1,                 Yueming%Qu%NULL%1,                 Yurou%Chen%NULL%1,                 Jie%Xiong%NULL%1,                 Yong%Feng%NULL%2,                 Dong%Men%NULL%1,                 Qianchuan%Huang%NULL%1,                 Ying%Liu%NULL%0,                 Bo%Yang%NULL%0,                 Jinya%Ding%NULL%1,                 Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                 Qiang%Zhang%NULL%1,                 Qing%Li%NULL%1,                 Ting%Wu%NULL%1,                 Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                 Christian%Prebensen%christian.prebensen@gmail.com%1,                 Heidi%Strand%Heidi.Strand@ahus.no%1,                 Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                 Christine M.%Jonassen%chrjon@so-hf.no%1,                 Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                 Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                 Signe%Søvik%signe.sovik@medisin.uio.no%1,                 Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                 My%Svensson%m.h.s.svensson@medisin.uio.no%1,                 Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                 Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                 Marina%de Castro Deus%NULL%1,                 Joao Paulo%Telles%NULL%1,                 Rafael%Wind%NULL%1,                 Marina%Goes%NULL%1,                 Roberta%Garcia Charello Ossoski%NULL%1,                 Alessandra Michalski%de Padua%NULL%1,                 Lucia%de Noronha%NULL%1,                 Andrea%Moreno-Amaral%NULL%1,                 Cristina Pellegrino%Baena%NULL%1,                 Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                 Alberto%Utrero-Rico%NULL%1,                 Paloma%Talayero%NULL%1,                 Maria%Lasa-Lazaro%NULL%1,                 Angel%Ramirez-Fernandez%NULL%1,                 Laura%Naranjo%NULL%1,                 Alejandro%Segura-Tudela%NULL%1,                 Oscar%Cabrera-Marante%NULL%1,                 Edgar%Rodriguez de Frias%NULL%1,                 Rocio%Garcia-Garcia%NULL%1,                 Mario%Fernández-Ruiz%NULL%1,                 Jose Maria%Aguado%NULL%1,                 Joaquin%Martinez-Lopez%NULL%1,                 Elena Ana%Lopez%NULL%1,                 Mercedes%Catalan%NULL%1,                 Antonio%Serrano%NULL%1,                 Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                 Wenbo%He%NULL%1,                 Xiaomei%Yu%NULL%1,                 Dalong%Hu%NULL%1,                 Mingwei%Bao%NULL%1,                 Huafen%Liu%NULL%1,                 Jiali%Zhou%NULL%1,                 Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                 Ruoqi%Ning%NULL%1,                 Yu%Tao%NULL%0,                 Chong%Yu%NULL%2,                 Xiaoyan%Deng%NULL%1,                 Caili%Zhao%NULL%1,                 Silu%Meng%NULL%1,                 Fangxu%Tang%89650793@qq.com%1,                 Dong%Xu%89650793@qq.com%0,                 Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                 Hui%Wang%NULL%0,                 Guangming%Ye%NULL%2,                 Xiaoling%Cao%NULL%1,                 Xianqun%Xu%NULL%1,                 Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                 Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                 Gil%Harari%NULL%1,                 Michael%Gurevich%NULL%1,                 Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                 Carmen M.%Cabrera%NULL%1,                 Natalia%Jiménez%NULL%1,                 Laura%Rincón%NULL%1,                 José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                 Chong%Yu%NULL%0,                 Daoyuan%Yue%NULL%1,                 Xing%Zeng%NULL%1,                 Zhiquan%Hu%NULL%1,                 Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                 Wenwu%Sun%NULL%1,                 Shengrong%Sun%NULL%1,                 Zhiyu%Li%lizhiyu@whu.edu.cn%1,                 Zhong%Wang%zhongwangchn@whu.edu.cn%1,                 Li%Yu%yuliwhzxyy@163.com%2,                 Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                 Jun%Wang%NULL%0,                 Nan%Su%NULL%1,                 Xiebing%Bao%NULL%1,                 Yongsheng%Li%dr_ysli@126.com%1,                 Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                 Jiangang%Jiang%NULL%0,                 Feng%Wang%NULL%0,                 Ning%Zhou%NULL%0,                 Giacomo%Veronese%NULL%0,                 Javid J.%Moslehi%NULL%0,                 Enrico%Ammirati%NULL%0,                 Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,          Jing%Liu%xref no email%0,          Weiling%Jiang%xref no email%0,          Shuang%Yue%xref no email%0,          Huiguo%Liu%xref no email%0,          Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                 Chang%Shu%NULL%0,                 Xiao%Ran%NULL%1,                 Cui-Hong%Xie%NULL%1,                 Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                 Chen%Dong%NULL%1,                 Shengzhong%Li%NULL%1,                 Xiaoqing%Song%NULL%1,                 Wang%Wei%NULL%1,                 Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                 Bin%Huang%NULL%1,                 Hongzhen%Xia%NULL%1,                 Hua%Fan%NULL%1,                 Muxin%Zhu%NULL%1,                 Liping%Zhu%NULL%1,                 Huan%Zhang%NULL%1,                 Xiaogen%Tao%NULL%1,                 Shaohui%Cheng%NULL%1,                 Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2253,7 +2421,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2282,7 +2450,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2311,7 +2479,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2340,7 +2508,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2369,7 +2537,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2427,7 +2595,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2456,7 +2624,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2485,7 +2653,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2514,7 +2682,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2543,7 +2711,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2572,7 +2740,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>582</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2601,7 +2769,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>527</v>
+        <v>583</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2630,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>528</v>
+        <v>584</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2659,7 +2827,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>529</v>
+        <v>585</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2688,7 +2856,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>530</v>
+        <v>586</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2717,7 +2885,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>531</v>
+        <v>587</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2746,7 +2914,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2775,7 +2943,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>533</v>
+        <v>589</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2804,7 +2972,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>534</v>
+        <v>590</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2833,7 +3001,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>535</v>
+        <v>591</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -2862,7 +3030,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -2891,7 +3059,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>537</v>
+        <v>593</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2920,7 +3088,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>538</v>
+        <v>594</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2949,7 +3117,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>539</v>
+        <v>595</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -2978,7 +3146,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3007,7 +3175,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3036,7 +3204,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>542</v>
+        <v>598</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="627">
   <si>
     <t>Doi</t>
   </si>
@@ -2057,6 +2057,90 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                 Bin%Huang%NULL%1,                 Hongzhen%Xia%NULL%1,                 Hua%Fan%NULL%1,                 Muxin%Zhu%NULL%1,                 Liping%Zhu%NULL%1,                 Huan%Zhang%NULL%1,                 Xiaogen%Tao%NULL%1,                 Shaohui%Cheng%NULL%1,                 Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,           Di%Wu%xref no email%0,           Wei%Guo%xref no email%0,           Yong%Cao%xref no email%0,           Da%Huang%xref no email%0,           Hongwu%Wang%xref no email%0,           Tao%Wang%xref no email%0,           Xiaoyun%Zhang%xref no email%0,           Huilong%Chen%xref no email%0,           Haijing%Yu%xref no email%0,           Xiaoping%Zhang%xref no email%0,           Minxia%Zhang%xref no email%0,           Shiji%Wu%xref no email%0,           Jianxin%Song%xref no email%0,           Tao%Chen%xref no email%0,           Meifang%Han%xref no email%0,           Shusheng%Li%xref no email%0,           Xiaoping%Luo%xref no email%0,           Jianping%Zhao%xref no email%0,           Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                 Deliang%Huang%coreGivesNoEmail%2,                 Hong%Yu%coreGivesNoEmail%2,                 Jun%Chen%coreGivesNoEmail%0,                 Lei%Liu%coreGivesNoEmail%0,                 National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                 Pengcheng%Ou%coreGivesNoEmail%2,                 Qing%He%coreGivesNoEmail%2,                 Qingxian%Cai%coreGivesNoEmail%2,                 Rossaint%J%coreGivesNoEmail%2,                 Yang%Fu%coreGivesNoEmail%2,                 Yiming%Zhang%coreGivesNoEmail%2,                 Yinan%Su%coreGivesNoEmail%2,                 Zhang%Xia%coreGivesNoEmail%2,                 Zhenghua%Ma%coreGivesNoEmail%2,                 Zhibin%Zhu%coreGivesNoEmail%2,                 Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                  Tuantuan%Li%NULL%0,                  Mingfeng%Han%NULL%0,                  Xiuyong%Li%NULL%0,                  Dong%Wu%NULL%0,                  Yuanhong%Xu%NULL%0,                  Yulin%Zhu%NULL%0,                  Yan%Liu%NULL%0,                  Xiaowu%Wang%wangxiaowu19880218@126.com%0,                  Linding%Wang%wanglinding@ahmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                  Bohan%Yang%NULL%1,                  Qianwen%Li%NULL%1,                  Lu%Wen%NULL%1,                  Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                  Luoqi%Zhou%NULL%1,                  Ziwei%Hu%NULL%1,                  Shuoqi%Zhang%NULL%1,                  Sheng%Yang%NULL%1,                  Yu%Tao%NULL%0,                  Cuihong%Xie%NULL%1,                  Ke%Ma%NULL%0,                  Ke%Shang%NULL%1,                  Wei%Wang%NULL%0,                  Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                  Min%Pan%NULL%0,                  Xiumei%Zhang%NULL%0,                  Mingfeng%Han%fyhmf@163.com%0,                  Xiaoyun%Fan%13956988552@126.com%0,                  Fengde%Zhao%NULL%0,                  Manli%Miao%NULL%0,                  Jing%Xu%NULL%0,                  Minglong%Guan%NULL%0,                  Xia%Deng%NULL%0,                  Xu%Chen%NULL%0,                  Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                  Ting%Cai%NULL%1,                  Lingyan%Fan%NULL%1,                  Kehong%Lou%NULL%1,                  Xin%Hua%NULL%1,                  Zuoan%Huang%NULL%1,                  Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                  Binghong%Zhao%NULL%1,                  Yueming%Qu%NULL%1,                  Yurou%Chen%NULL%1,                  Jie%Xiong%NULL%1,                  Yong%Feng%NULL%2,                  Dong%Men%NULL%1,                  Qianchuan%Huang%NULL%1,                  Ying%Liu%NULL%0,                  Bo%Yang%NULL%0,                  Jinya%Ding%NULL%1,                  Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                  Qiang%Zhang%NULL%1,                  Qing%Li%NULL%1,                  Ting%Wu%NULL%1,                  Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                  Christian%Prebensen%christian.prebensen@gmail.com%1,                  Heidi%Strand%Heidi.Strand@ahus.no%1,                  Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                  Christine M.%Jonassen%chrjon@so-hf.no%1,                  Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                  Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                  Signe%Søvik%signe.sovik@medisin.uio.no%1,                  Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                  My%Svensson%m.h.s.svensson@medisin.uio.no%1,                  Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                  Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                  Marina%de Castro Deus%NULL%1,                  Joao Paulo%Telles%NULL%1,                  Rafael%Wind%NULL%1,                  Marina%Goes%NULL%1,                  Roberta%Garcia Charello Ossoski%NULL%1,                  Alessandra Michalski%de Padua%NULL%1,                  Lucia%de Noronha%NULL%1,                  Andrea%Moreno-Amaral%NULL%1,                  Cristina Pellegrino%Baena%NULL%1,                  Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                  Alberto%Utrero-Rico%NULL%1,                  Paloma%Talayero%NULL%1,                  Maria%Lasa-Lazaro%NULL%1,                  Angel%Ramirez-Fernandez%NULL%1,                  Laura%Naranjo%NULL%1,                  Alejandro%Segura-Tudela%NULL%1,                  Oscar%Cabrera-Marante%NULL%1,                  Edgar%Rodriguez de Frias%NULL%1,                  Rocio%Garcia-Garcia%NULL%1,                  Mario%Fernández-Ruiz%NULL%1,                  Jose Maria%Aguado%NULL%1,                  Joaquin%Martinez-Lopez%NULL%1,                  Elena Ana%Lopez%NULL%1,                  Mercedes%Catalan%NULL%1,                  Antonio%Serrano%NULL%1,                  Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                  Wenbo%He%NULL%1,                  Xiaomei%Yu%NULL%1,                  Dalong%Hu%NULL%1,                  Mingwei%Bao%NULL%1,                  Huafen%Liu%NULL%1,                  Jiali%Zhou%NULL%1,                  Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                  Ruoqi%Ning%NULL%1,                  Yu%Tao%NULL%0,                  Chong%Yu%NULL%2,                  Xiaoyan%Deng%NULL%1,                  Caili%Zhao%NULL%1,                  Silu%Meng%NULL%1,                  Fangxu%Tang%89650793@qq.com%1,                  Dong%Xu%89650793@qq.com%0,                  Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                  Hui%Wang%NULL%0,                  Guangming%Ye%NULL%2,                  Xiaoling%Cao%NULL%1,                  Xianqun%Xu%NULL%1,                  Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                  Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                  Gil%Harari%NULL%1,                  Michael%Gurevich%NULL%1,                  Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                  Carmen M.%Cabrera%NULL%1,                  Natalia%Jiménez%NULL%1,                  Laura%Rincón%NULL%1,                  José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                  Chong%Yu%NULL%0,                  Daoyuan%Yue%NULL%1,                  Xing%Zeng%NULL%1,                  Zhiquan%Hu%NULL%1,                  Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                  Wenwu%Sun%NULL%1,                  Shengrong%Sun%NULL%1,                  Zhiyu%Li%lizhiyu@whu.edu.cn%1,                  Zhong%Wang%zhongwangchn@whu.edu.cn%1,                  Li%Yu%yuliwhzxyy@163.com%2,                  Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%2,                  Jun%Wang%NULL%0,                  Nan%Su%NULL%1,                  Xiebing%Bao%NULL%1,                  Yongsheng%Li%dr_ysli@126.com%1,                  Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                  Jiangang%Jiang%NULL%0,                  Feng%Wang%NULL%0,                  Ning%Zhou%NULL%0,                  Giacomo%Veronese%NULL%0,                  Javid J.%Moslehi%NULL%0,                  Enrico%Ammirati%NULL%0,                  Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,           Jing%Liu%xref no email%0,           Weiling%Jiang%xref no email%0,           Shuang%Yue%xref no email%0,           Huiguo%Liu%xref no email%0,           Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                  Chang%Shu%NULL%0,                  Xiao%Ran%NULL%1,                  Cui-Hong%Xie%NULL%1,                  Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                  Chen%Dong%NULL%1,                  Shengzhong%Li%NULL%1,                  Xiaoqing%Song%NULL%1,                  Wang%Wei%NULL%1,                  Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                  Bin%Huang%NULL%1,                  Hongzhen%Xia%NULL%1,                  Hua%Fan%NULL%1,                  Muxin%Zhu%NULL%1,                  Liping%Zhu%NULL%1,                  Huan%Zhang%NULL%1,                  Xiaogen%Tao%NULL%1,                  Shaohui%Cheng%NULL%1,                  Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2392,7 +2476,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2421,7 +2505,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2450,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2479,7 +2563,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2508,7 +2592,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2537,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2595,7 +2679,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2624,7 +2708,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2653,7 +2737,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2682,7 +2766,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2711,7 +2795,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2740,7 +2824,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2769,7 +2853,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2798,7 +2882,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2827,7 +2911,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2856,7 +2940,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2885,7 +2969,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2914,7 +2998,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -2943,7 +3027,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2972,7 +3056,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3001,7 +3085,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3030,7 +3114,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3059,7 +3143,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3088,7 +3172,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3117,7 +3201,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3146,7 +3230,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3175,7 +3259,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3204,7 +3288,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="659">
   <si>
     <t>Doi</t>
   </si>
@@ -2141,6 +2141,102 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                  Bin%Huang%NULL%1,                  Hongzhen%Xia%NULL%1,                  Hua%Fan%NULL%1,                  Muxin%Zhu%NULL%1,                  Liping%Zhu%NULL%1,                  Huan%Zhang%NULL%1,                  Xiaogen%Tao%NULL%1,                  Shaohui%Cheng%NULL%1,                  Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,            Di%Wu%xref no email%0,            Wei%Guo%xref no email%0,            Yong%Cao%xref no email%0,            Da%Huang%xref no email%0,            Hongwu%Wang%xref no email%0,            Tao%Wang%xref no email%0,            Xiaoyun%Zhang%xref no email%0,            Huilong%Chen%xref no email%0,            Haijing%Yu%xref no email%0,            Xiaoping%Zhang%xref no email%0,            Minxia%Zhang%xref no email%0,            Shiji%Wu%xref no email%0,            Jianxin%Song%xref no email%0,            Tao%Chen%xref no email%0,            Meifang%Han%xref no email%0,            Shusheng%Li%xref no email%0,            Xiaoping%Luo%xref no email%0,            Jianping%Zhao%xref no email%0,            Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                  Deliang%Huang%coreGivesNoEmail%2,                  Hong%Yu%coreGivesNoEmail%2,                  Jun%Chen%coreGivesNoEmail%0,                  Lei%Liu%coreGivesNoEmail%0,                  National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                  Pengcheng%Ou%coreGivesNoEmail%2,                  Qing%He%coreGivesNoEmail%2,                  Qingxian%Cai%coreGivesNoEmail%2,                  Rossaint%J%coreGivesNoEmail%2,                  Yang%Fu%coreGivesNoEmail%2,                  Yiming%Zhang%coreGivesNoEmail%2,                  Yinan%Su%coreGivesNoEmail%2,                  Zhang%Xia%coreGivesNoEmail%2,                  Zhenghua%Ma%coreGivesNoEmail%2,                  Zhibin%Zhu%coreGivesNoEmail%2,                  Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                   Tuantuan%Li%NULL%1,                   Mingfeng%Han%NULL%0,                   Xiuyong%Li%NULL%1,                   Dong%Wu%NULL%1,                   Yuanhong%Xu%NULL%1,                   Yulin%Zhu%NULL%1,                   Yan%Liu%NULL%1,                   Xiaowu%Wang%wangxiaowu19880218@126.com%1,                   Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                   Bohan%Yang%NULL%1,                   Qianwen%Li%NULL%1,                   Lu%Wen%NULL%1,                   Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                   Luoqi%Zhou%NULL%1,                   Ziwei%Hu%NULL%1,                   Shuoqi%Zhang%NULL%1,                   Sheng%Yang%NULL%1,                   Yu%Tao%NULL%0,                   Cuihong%Xie%NULL%1,                   Ke%Ma%NULL%0,                   Ke%Shang%NULL%1,                   Wei%Wang%NULL%0,                   Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                   Min%Pan%NULL%0,                   Xiumei%Zhang%NULL%0,                   Mingfeng%Han%fyhmf@163.com%0,                   Xiaoyun%Fan%13956988552@126.com%0,                   Fengde%Zhao%NULL%0,                   Manli%Miao%NULL%0,                   Jing%Xu%NULL%0,                   Minglong%Guan%NULL%0,                   Xia%Deng%NULL%0,                   Xu%Chen%NULL%0,                   Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                   Ting%Cai%NULL%1,                   Lingyan%Fan%NULL%1,                   Kehong%Lou%NULL%1,                   Xin%Hua%NULL%1,                   Zuoan%Huang%NULL%1,                   Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                   Binghong%Zhao%NULL%1,                   Yueming%Qu%NULL%1,                   Yurou%Chen%NULL%1,                   Jie%Xiong%NULL%1,                   Yong%Feng%NULL%2,                   Dong%Men%NULL%1,                   Qianchuan%Huang%NULL%1,                   Ying%Liu%NULL%0,                   Bo%Yang%NULL%0,                   Jinya%Ding%NULL%1,                   Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                   Qiang%Zhang%NULL%1,                   Qing%Li%NULL%1,                   Ting%Wu%NULL%1,                   Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                   Christian%Prebensen%christian.prebensen@gmail.com%1,                   Heidi%Strand%Heidi.Strand@ahus.no%1,                   Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                   Christine M.%Jonassen%chrjon@so-hf.no%1,                   Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                   Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                   Signe%Søvik%signe.sovik@medisin.uio.no%1,                   Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                   My%Svensson%m.h.s.svensson@medisin.uio.no%1,                   Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                   Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                   Marina%de Castro Deus%NULL%1,                   Joao Paulo%Telles%NULL%1,                   Rafael%Wind%NULL%1,                   Marina%Goes%NULL%1,                   Roberta%Garcia Charello Ossoski%NULL%1,                   Alessandra Michalski%de Padua%NULL%1,                   Lucia%de Noronha%NULL%1,                   Andrea%Moreno-Amaral%NULL%1,                   Cristina Pellegrino%Baena%NULL%1,                   Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                   Alberto%Utrero-Rico%NULL%1,                   Paloma%Talayero%NULL%1,                   Maria%Lasa-Lazaro%NULL%1,                   Angel%Ramirez-Fernandez%NULL%1,                   Laura%Naranjo%NULL%1,                   Alejandro%Segura-Tudela%NULL%1,                   Oscar%Cabrera-Marante%NULL%1,                   Edgar%Rodriguez de Frias%NULL%1,                   Rocio%Garcia-Garcia%NULL%1,                   Mario%Fernández-Ruiz%NULL%1,                   Jose Maria%Aguado%NULL%1,                   Joaquin%Martinez-Lopez%NULL%1,                   Elena Ana%Lopez%NULL%1,                   Mercedes%Catalan%NULL%1,                   Antonio%Serrano%NULL%1,                   Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                   Wenbo%He%NULL%1,                   Xiaomei%Yu%NULL%1,                   Dalong%Hu%NULL%1,                   Mingwei%Bao%NULL%1,                   Huafen%Liu%NULL%1,                   Jiali%Zhou%NULL%1,                   Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                   Ruoqi%Ning%NULL%1,                   Yu%Tao%NULL%0,                   Chong%Yu%NULL%2,                   Xiaoyan%Deng%NULL%1,                   Caili%Zhao%NULL%1,                   Silu%Meng%NULL%1,                   Fangxu%Tang%89650793@qq.com%1,                   Dong%Xu%89650793@qq.com%0,                   Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                   Hui%Wang%NULL%0,                   Guangming%Ye%NULL%2,                   Xiaoling%Cao%NULL%1,                   Xianqun%Xu%NULL%1,                   Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                   Gil%Harari%NULL%1,                   Michael%Gurevich%NULL%1,                   Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                   Carmen M.%Cabrera%NULL%1,                   Natalia%Jiménez%NULL%1,                   Laura%Rincón%NULL%1,                   José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                   Chong%Yu%NULL%0,                   Daoyuan%Yue%NULL%1,                   Xing%Zeng%NULL%1,                   Zhiquan%Hu%NULL%1,                   Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                   Wenwu%Sun%NULL%1,                   Shengrong%Sun%NULL%1,                   Zhiyu%Li%lizhiyu@whu.edu.cn%1,                   Zhong%Wang%zhongwangchn@whu.edu.cn%1,                   Li%Yu%yuliwhzxyy@163.com%2,                   Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                   Jun%Wang%NULL%0,                   Nan%Su%NULL%1,                   Xiebing%Bao%NULL%1,                   Yongsheng%Li%dr_ysli@126.com%1,                   Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                   Jiangang%Jiang%NULL%0,                   Feng%Wang%NULL%0,                   Ning%Zhou%NULL%0,                   Giacomo%Veronese%NULL%0,                   Javid J.%Moslehi%NULL%0,                   Enrico%Ammirati%NULL%0,                   Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,            Jing%Liu%xref no email%0,            Weiling%Jiang%xref no email%0,            Shuang%Yue%xref no email%0,            Huiguo%Liu%xref no email%0,            Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                   Chang%Shu%NULL%0,                   Xiao%Ran%NULL%1,                   Cui-Hong%Xie%NULL%1,                   Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                   Chen%Dong%NULL%1,                   Shengzhong%Li%NULL%1,                   Xiaoqing%Song%NULL%1,                   Wang%Wei%NULL%1,                   Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                   Bin%Huang%NULL%1,                   Hongzhen%Xia%NULL%1,                   Hua%Fan%NULL%1,                   Muxin%Zhu%NULL%1,                   Liping%Zhu%NULL%1,                   Huan%Zhang%NULL%1,                   Xiaogen%Tao%NULL%1,                   Shaohui%Cheng%NULL%1,                   Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2572,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2488,7 +2584,7 @@
         <v>316</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3">
@@ -2505,7 +2601,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2517,7 +2613,7 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4">
@@ -2534,7 +2630,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2546,7 +2642,7 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5">
@@ -2563,7 +2659,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>602</v>
+        <v>632</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2575,7 +2671,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6">
@@ -2592,7 +2688,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2604,7 +2700,7 @@
         <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7">
@@ -2621,7 +2717,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>604</v>
+        <v>634</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2633,7 +2729,7 @@
         <v>316</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8">
@@ -2679,7 +2775,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2691,7 +2787,7 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10">
@@ -2708,7 +2804,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2720,7 +2816,7 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11">
@@ -2737,7 +2833,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2749,7 +2845,7 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12">
@@ -2766,7 +2862,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2778,7 +2874,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13">
@@ -2795,7 +2891,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2807,7 +2903,7 @@
         <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14">
@@ -2824,7 +2920,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2836,7 +2932,7 @@
         <v>86</v>
       </c>
       <c r="I14" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15">
@@ -2853,7 +2949,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2865,7 +2961,7 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16">
@@ -2882,7 +2978,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -2894,7 +2990,7 @@
         <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="17">
@@ -2911,7 +3007,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -2923,7 +3019,7 @@
         <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="18">
@@ -2940,7 +3036,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -2952,7 +3048,7 @@
         <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19">
@@ -2969,7 +3065,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -2981,7 +3077,7 @@
         <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20">
@@ -2998,7 +3094,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3010,7 +3106,7 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21">
@@ -3027,7 +3123,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3039,7 +3135,7 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22">
@@ -3056,7 +3152,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3068,7 +3164,7 @@
         <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="23">
@@ -3085,7 +3181,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3097,7 +3193,7 @@
         <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24">
@@ -3114,7 +3210,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3126,7 +3222,7 @@
         <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25">
@@ -3143,7 +3239,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3155,7 +3251,7 @@
         <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26">
@@ -3172,7 +3268,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3184,7 +3280,7 @@
         <v>141</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
@@ -3201,7 +3297,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3213,7 +3309,7 @@
         <v>343</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28">
@@ -3230,7 +3326,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3242,7 +3338,7 @@
         <v>146</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29">
@@ -3259,7 +3355,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3271,7 +3367,7 @@
         <v>151</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30">
@@ -3288,7 +3384,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -3300,7 +3396,7 @@
         <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="687">
   <si>
     <t>Doi</t>
   </si>
@@ -2237,6 +2237,90 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                   Bin%Huang%NULL%1,                   Hongzhen%Xia%NULL%1,                   Hua%Fan%NULL%1,                   Muxin%Zhu%NULL%1,                   Liping%Zhu%NULL%1,                   Huan%Zhang%NULL%1,                   Xiaogen%Tao%NULL%1,                   Shaohui%Cheng%NULL%1,                   Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Guang%Chen%xref no email%0,             Di%Wu%xref no email%0,             Wei%Guo%xref no email%0,             Yong%Cao%xref no email%0,             Da%Huang%xref no email%0,             Hongwu%Wang%xref no email%0,             Tao%Wang%xref no email%0,             Xiaoyun%Zhang%xref no email%0,             Huilong%Chen%xref no email%0,             Haijing%Yu%xref no email%0,             Xiaoping%Zhang%xref no email%0,             Minxia%Zhang%xref no email%0,             Shiji%Wu%xref no email%0,             Jianxin%Song%xref no email%0,             Tao%Chen%xref no email%0,             Meifang%Han%xref no email%0,             Shusheng%Li%xref no email%0,             Xiaoping%Luo%xref no email%0,             Jianping%Zhao%xref no email%0,             Qin%Ning%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                   Deliang%Huang%coreGivesNoEmail%2,                   Hong%Yu%coreGivesNoEmail%2,                   Jun%Chen%coreGivesNoEmail%0,                   Lei%Liu%coreGivesNoEmail%0,                   National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                   Pengcheng%Ou%coreGivesNoEmail%2,                   Qing%He%coreGivesNoEmail%2,                   Qingxian%Cai%coreGivesNoEmail%2,                   Rossaint%J%coreGivesNoEmail%2,                   Yang%Fu%coreGivesNoEmail%2,                   Yiming%Zhang%coreGivesNoEmail%2,                   Yinan%Su%coreGivesNoEmail%2,                   Zhang%Xia%coreGivesNoEmail%2,                   Zhenghua%Ma%coreGivesNoEmail%2,                   Zhibin%Zhu%coreGivesNoEmail%2,                   Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                    Tuantuan%Li%NULL%1,                    Mingfeng%Han%NULL%0,                    Xiuyong%Li%NULL%1,                    Dong%Wu%NULL%1,                    Yuanhong%Xu%NULL%1,                    Yulin%Zhu%NULL%1,                    Yan%Liu%NULL%1,                    Xiaowu%Wang%wangxiaowu19880218@126.com%1,                    Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                    Bohan%Yang%NULL%1,                    Qianwen%Li%NULL%1,                    Lu%Wen%NULL%1,                    Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                    Luoqi%Zhou%NULL%1,                    Ziwei%Hu%NULL%1,                    Shuoqi%Zhang%NULL%1,                    Sheng%Yang%NULL%1,                    Yu%Tao%NULL%0,                    Cuihong%Xie%NULL%1,                    Ke%Ma%NULL%0,                    Ke%Shang%NULL%1,                    Wei%Wang%NULL%0,                    Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                    Min%Pan%NULL%0,                    Xiumei%Zhang%NULL%0,                    Mingfeng%Han%fyhmf@163.com%0,                    Xiaoyun%Fan%13956988552@126.com%0,                    Fengde%Zhao%NULL%0,                    Manli%Miao%NULL%0,                    Jing%Xu%NULL%0,                    Minglong%Guan%NULL%0,                    Xia%Deng%NULL%0,                    Xu%Chen%NULL%0,                    Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                    Ting%Cai%NULL%1,                    Lingyan%Fan%NULL%1,                    Kehong%Lou%NULL%1,                    Xin%Hua%NULL%1,                    Zuoan%Huang%NULL%1,                    Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                    Binghong%Zhao%NULL%1,                    Yueming%Qu%NULL%1,                    Yurou%Chen%NULL%1,                    Jie%Xiong%NULL%1,                    Yong%Feng%NULL%2,                    Dong%Men%NULL%1,                    Qianchuan%Huang%NULL%1,                    Ying%Liu%NULL%0,                    Bo%Yang%NULL%0,                    Jinya%Ding%NULL%1,                    Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                    Qiang%Zhang%NULL%1,                    Qing%Li%NULL%1,                    Ting%Wu%NULL%1,                    Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                    Christian%Prebensen%christian.prebensen@gmail.com%1,                    Heidi%Strand%Heidi.Strand@ahus.no%1,                    Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                    Christine M.%Jonassen%chrjon@so-hf.no%1,                    Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                    Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                    Signe%Søvik%signe.sovik@medisin.uio.no%1,                    Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                    My%Svensson%m.h.s.svensson@medisin.uio.no%1,                    Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                    Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                    Marina%de Castro Deus%NULL%1,                    Joao Paulo%Telles%NULL%1,                    Rafael%Wind%NULL%1,                    Marina%Goes%NULL%1,                    Roberta%Garcia Charello Ossoski%NULL%1,                    Alessandra Michalski%de Padua%NULL%1,                    Lucia%de Noronha%NULL%1,                    Andrea%Moreno-Amaral%NULL%1,                    Cristina Pellegrino%Baena%NULL%1,                    Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                    Alberto%Utrero-Rico%NULL%1,                    Paloma%Talayero%NULL%1,                    Maria%Lasa-Lazaro%NULL%1,                    Angel%Ramirez-Fernandez%NULL%1,                    Laura%Naranjo%NULL%1,                    Alejandro%Segura-Tudela%NULL%1,                    Oscar%Cabrera-Marante%NULL%1,                    Edgar%Rodriguez de Frias%NULL%1,                    Rocio%Garcia-Garcia%NULL%1,                    Mario%Fernández-Ruiz%NULL%1,                    Jose Maria%Aguado%NULL%1,                    Joaquin%Martinez-Lopez%NULL%1,                    Elena Ana%Lopez%NULL%1,                    Mercedes%Catalan%NULL%1,                    Antonio%Serrano%NULL%1,                    Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                    Wenbo%He%NULL%1,                    Xiaomei%Yu%NULL%1,                    Dalong%Hu%NULL%1,                    Mingwei%Bao%NULL%1,                    Huafen%Liu%NULL%1,                    Jiali%Zhou%NULL%1,                    Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                    Ruoqi%Ning%NULL%1,                    Yu%Tao%NULL%0,                    Chong%Yu%NULL%2,                    Xiaoyan%Deng%NULL%1,                    Caili%Zhao%NULL%1,                    Silu%Meng%NULL%1,                    Fangxu%Tang%89650793@qq.com%1,                    Dong%Xu%89650793@qq.com%0,                    Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                    Hui%Wang%NULL%0,                    Guangming%Ye%NULL%2,                    Xiaoling%Cao%NULL%1,                    Xianqun%Xu%NULL%1,                    Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                    Gil%Harari%NULL%1,                    Michael%Gurevich%NULL%1,                    Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                    Carmen M.%Cabrera%NULL%1,                    Natalia%Jiménez%NULL%1,                    Laura%Rincón%NULL%1,                    José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                    Chong%Yu%NULL%0,                    Daoyuan%Yue%NULL%1,                    Xing%Zeng%NULL%1,                    Zhiquan%Hu%NULL%1,                    Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                    Wenwu%Sun%NULL%1,                    Shengrong%Sun%NULL%1,                    Zhiyu%Li%lizhiyu@whu.edu.cn%1,                    Zhong%Wang%zhongwangchn@whu.edu.cn%1,                    Li%Yu%yuliwhzxyy@163.com%2,                    Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                    Jun%Wang%NULL%0,                    Nan%Su%NULL%1,                    Xiebing%Bao%NULL%1,                    Yongsheng%Li%dr_ysli@126.com%1,                    Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                    Jiangang%Jiang%NULL%0,                    Feng%Wang%NULL%0,                    Ning%Zhou%NULL%0,                    Giacomo%Veronese%NULL%0,                    Javid J.%Moslehi%NULL%0,                    Enrico%Ammirati%NULL%0,                    Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Miao%Luo%xref no email%0,             Jing%Liu%xref no email%0,             Weiling%Jiang%xref no email%0,             Shuang%Yue%xref no email%0,             Huiguo%Liu%xref no email%0,             Shuang%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                    Chang%Shu%NULL%0,                    Xiao%Ran%NULL%1,                    Cui-Hong%Xie%NULL%1,                    Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                    Chen%Dong%NULL%1,                    Shengzhong%Li%NULL%1,                    Xiaoqing%Song%NULL%1,                    Wang%Wei%NULL%1,                    Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                    Bin%Huang%NULL%1,                    Hongzhen%Xia%NULL%1,                    Hua%Fan%NULL%1,                    Muxin%Zhu%NULL%1,                    Liping%Zhu%NULL%1,                    Huan%Zhang%NULL%1,                    Xiaogen%Tao%NULL%1,                    Shaohui%Cheng%NULL%1,                    Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2656,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2601,7 +2685,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2630,7 +2714,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2659,7 +2743,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2688,7 +2772,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>633</v>
+        <v>663</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2717,7 +2801,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2775,7 +2859,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2804,7 +2888,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2833,7 +2917,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>667</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2862,7 +2946,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2891,7 +2975,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2920,7 +3004,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -2949,7 +3033,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -2978,7 +3062,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -3007,7 +3091,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>644</v>
+        <v>673</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -3036,7 +3120,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>645</v>
+        <v>674</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3065,7 +3149,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>646</v>
+        <v>675</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3094,7 +3178,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>647</v>
+        <v>676</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3123,7 +3207,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>648</v>
+        <v>677</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3152,7 +3236,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3181,7 +3265,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>650</v>
+        <v>679</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3210,7 +3294,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>651</v>
+        <v>680</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3239,7 +3323,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>652</v>
+        <v>681</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3268,7 +3352,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3297,7 +3381,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3326,7 +3410,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3355,7 +3439,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3384,7 +3468,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="816">
   <si>
     <t>Doi</t>
   </si>
@@ -2321,6 +2321,393 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                    Bin%Huang%NULL%1,                    Hongzhen%Xia%NULL%1,                    Hua%Fan%NULL%1,                    Muxin%Zhu%NULL%1,                    Liping%Zhu%NULL%1,                    Huan%Zhang%NULL%1,                    Xiaogen%Tao%NULL%1,                    Shaohui%Cheng%NULL%1,                    Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Society for Clinical Investigation</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                    Deliang%Huang%coreGivesNoEmail%2,                    Hong%Yu%coreGivesNoEmail%2,                    Jun%Chen%coreGivesNoEmail%0,                    Lei%Liu%coreGivesNoEmail%0,                    National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                    Pengcheng%Ou%coreGivesNoEmail%2,                    Qing%He%coreGivesNoEmail%2,                    Qingxian%Cai%coreGivesNoEmail%2,                    Rossaint%J%coreGivesNoEmail%2,                    Yang%Fu%coreGivesNoEmail%2,                    Yiming%Zhang%coreGivesNoEmail%2,                    Yinan%Su%coreGivesNoEmail%2,                    Zhang%Xia%coreGivesNoEmail%2,                    Zhenghua%Ma%coreGivesNoEmail%2,                    Zhibin%Zhu%coreGivesNoEmail%2,                    Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                     Tuantuan%Li%NULL%1,                     Mingfeng%Han%NULL%0,                     Xiuyong%Li%NULL%1,                     Dong%Wu%NULL%1,                     Yuanhong%Xu%NULL%1,                     Yulin%Zhu%NULL%1,                     Yan%Liu%NULL%1,                     Xiaowu%Wang%wangxiaowu19880218@126.com%1,                     Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                     Bohan%Yang%NULL%1,                     Qianwen%Li%NULL%1,                     Lu%Wen%NULL%1,                     Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                     Luoqi%Zhou%NULL%1,                     Ziwei%Hu%NULL%1,                     Shuoqi%Zhang%NULL%1,                     Sheng%Yang%NULL%1,                     Yu%Tao%NULL%0,                     Cuihong%Xie%NULL%1,                     Ke%Ma%NULL%0,                     Ke%Shang%NULL%1,                     Wei%Wang%NULL%0,                     Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                     Min%Pan%NULL%0,                     Xiumei%Zhang%NULL%0,                     Mingfeng%Han%fyhmf@163.com%0,                     Xiaoyun%Fan%13956988552@126.com%0,                     Fengde%Zhao%NULL%0,                     Manli%Miao%NULL%0,                     Jing%Xu%NULL%0,                     Minglong%Guan%NULL%0,                     Xia%Deng%NULL%0,                     Xu%Chen%NULL%0,                     Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                     Ting%Cai%NULL%1,                     Lingyan%Fan%NULL%1,                     Kehong%Lou%NULL%1,                     Xin%Hua%NULL%1,                     Zuoan%Huang%NULL%1,                     Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                     Binghong%Zhao%NULL%1,                     Yueming%Qu%NULL%1,                     Yurou%Chen%NULL%1,                     Jie%Xiong%NULL%1,                     Yong%Feng%NULL%2,                     Dong%Men%NULL%1,                     Qianchuan%Huang%NULL%1,                     Ying%Liu%NULL%0,                     Bo%Yang%NULL%0,                     Jinya%Ding%NULL%1,                     Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                     Qiang%Zhang%NULL%1,                     Qing%Li%NULL%1,                     Ting%Wu%NULL%1,                     Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                     Christian%Prebensen%christian.prebensen@gmail.com%1,                     Heidi%Strand%Heidi.Strand@ahus.no%1,                     Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                     Christine M.%Jonassen%chrjon@so-hf.no%1,                     Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                     Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                     Signe%Søvik%signe.sovik@medisin.uio.no%1,                     Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                     My%Svensson%m.h.s.svensson@medisin.uio.no%1,                     Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                     Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                     Marina%de Castro Deus%NULL%1,                     Joao Paulo%Telles%NULL%1,                     Rafael%Wind%NULL%1,                     Marina%Goes%NULL%1,                     Roberta%Garcia Charello Ossoski%NULL%1,                     Alessandra Michalski%de Padua%NULL%1,                     Lucia%de Noronha%NULL%1,                     Andrea%Moreno-Amaral%NULL%1,                     Cristina Pellegrino%Baena%NULL%1,                     Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                     Alberto%Utrero-Rico%NULL%1,                     Paloma%Talayero%NULL%1,                     Maria%Lasa-Lazaro%NULL%1,                     Angel%Ramirez-Fernandez%NULL%1,                     Laura%Naranjo%NULL%1,                     Alejandro%Segura-Tudela%NULL%1,                     Oscar%Cabrera-Marante%NULL%1,                     Edgar%Rodriguez de Frias%NULL%1,                     Rocio%Garcia-Garcia%NULL%1,                     Mario%Fernández-Ruiz%NULL%1,                     Jose Maria%Aguado%NULL%1,                     Joaquin%Martinez-Lopez%NULL%1,                     Elena Ana%Lopez%NULL%1,                     Mercedes%Catalan%NULL%1,                     Antonio%Serrano%NULL%1,                     Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                     Wenbo%He%NULL%1,                     Xiaomei%Yu%NULL%1,                     Dalong%Hu%NULL%1,                     Mingwei%Bao%NULL%1,                     Huafen%Liu%NULL%1,                     Jiali%Zhou%NULL%1,                     Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                     Ruoqi%Ning%NULL%1,                     Yu%Tao%NULL%0,                     Chong%Yu%NULL%2,                     Xiaoyan%Deng%NULL%1,                     Caili%Zhao%NULL%1,                     Silu%Meng%NULL%1,                     Fangxu%Tang%89650793@qq.com%1,                     Dong%Xu%89650793@qq.com%0,                     Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%2,                     Hui%Wang%NULL%0,                     Guangming%Ye%NULL%2,                     Xiaoling%Cao%NULL%1,                     Xianqun%Xu%NULL%1,                     Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                     Gil%Harari%NULL%1,                     Michael%Gurevich%NULL%1,                     Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                     Carmen M.%Cabrera%NULL%1,                     Natalia%Jiménez%NULL%1,                     Laura%Rincón%NULL%1,                     José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                     Chong%Yu%NULL%0,                     Daoyuan%Yue%NULL%1,                     Xing%Zeng%NULL%1,                     Zhiquan%Hu%NULL%1,                     Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                     Wenwu%Sun%NULL%1,                     Shengrong%Sun%NULL%1,                     Zhiyu%Li%lizhiyu@whu.edu.cn%1,                     Zhong%Wang%zhongwangchn@whu.edu.cn%1,                     Li%Yu%yuliwhzxyy@163.com%2,                     Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                     Jun%Wang%NULL%0,                     Nan%Su%NULL%1,                     Xiebing%Bao%NULL%1,                     Yongsheng%Li%dr_ysli@126.com%1,                     Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                     Jiangang%Jiang%NULL%0,                     Feng%Wang%NULL%0,                     Ning%Zhou%NULL%0,                     Giacomo%Veronese%NULL%0,                     Javid J.%Moslehi%NULL%0,                     Enrico%Ammirati%NULL%0,                     Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                     Chang%Shu%NULL%0,                     Xiao%Ran%NULL%1,                     Cui-Hong%Xie%NULL%1,                     Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                     Chen%Dong%NULL%1,                     Shengzhong%Li%NULL%1,                     Xiaoqing%Song%NULL%1,                     Wang%Wei%NULL%1,                     Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                     Bin%Huang%NULL%1,                     Hongzhen%Xia%NULL%1,                     Hua%Fan%NULL%1,                     Muxin%Zhu%NULL%1,                     Liping%Zhu%NULL%1,                     Huan%Zhang%NULL%1,                     Xiaogen%Tao%NULL%1,                     Shaohui%Cheng%NULL%1,                     Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                     Deliang%Huang%coreGivesNoEmail%2,                     Hong%Yu%coreGivesNoEmail%2,                     Jun%Chen%coreGivesNoEmail%0,                     Lei%Liu%coreGivesNoEmail%0,                     National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                     Pengcheng%Ou%coreGivesNoEmail%2,                     Qing%He%coreGivesNoEmail%2,                     Qingxian%Cai%coreGivesNoEmail%2,                     Rossaint%J%coreGivesNoEmail%2,                     Yang%Fu%coreGivesNoEmail%2,                     Yiming%Zhang%coreGivesNoEmail%2,                     Yinan%Su%coreGivesNoEmail%2,                     Zhang%Xia%coreGivesNoEmail%2,                     Zhenghua%Ma%coreGivesNoEmail%2,                     Zhibin%Zhu%coreGivesNoEmail%2,                     Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                      Tuantuan%Li%NULL%1,                      Mingfeng%Han%NULL%0,                      Xiuyong%Li%NULL%1,                      Dong%Wu%NULL%1,                      Yuanhong%Xu%NULL%1,                      Yulin%Zhu%NULL%1,                      Yan%Liu%NULL%1,                      Xiaowu%Wang%wangxiaowu19880218@126.com%1,                      Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                      Bohan%Yang%NULL%1,                      Qianwen%Li%NULL%1,                      Lu%Wen%NULL%1,                      Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                      Luoqi%Zhou%NULL%1,                      Ziwei%Hu%NULL%1,                      Shuoqi%Zhang%NULL%1,                      Sheng%Yang%NULL%1,                      Yu%Tao%NULL%0,                      Cuihong%Xie%NULL%1,                      Ke%Ma%NULL%0,                      Ke%Shang%NULL%1,                      Wei%Wang%NULL%0,                      Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                      Min%Pan%NULL%0,                      Xiumei%Zhang%NULL%0,                      Mingfeng%Han%fyhmf@163.com%0,                      Xiaoyun%Fan%13956988552@126.com%0,                      Fengde%Zhao%NULL%0,                      Manli%Miao%NULL%0,                      Jing%Xu%NULL%0,                      Minglong%Guan%NULL%0,                      Xia%Deng%NULL%0,                      Xu%Chen%NULL%0,                      Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                      Ting%Cai%NULL%1,                      Lingyan%Fan%NULL%1,                      Kehong%Lou%NULL%1,                      Xin%Hua%NULL%1,                      Zuoan%Huang%NULL%1,                      Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                      Binghong%Zhao%NULL%1,                      Yueming%Qu%NULL%1,                      Yurou%Chen%NULL%1,                      Jie%Xiong%NULL%1,                      Yong%Feng%NULL%2,                      Dong%Men%NULL%1,                      Qianchuan%Huang%NULL%1,                      Ying%Liu%NULL%0,                      Bo%Yang%NULL%0,                      Jinya%Ding%NULL%1,                      Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                      Qiang%Zhang%NULL%1,                      Qing%Li%NULL%1,                      Ting%Wu%NULL%1,                      Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                      Christian%Prebensen%christian.prebensen@gmail.com%1,                      Heidi%Strand%Heidi.Strand@ahus.no%1,                      Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                      Christine M.%Jonassen%chrjon@so-hf.no%1,                      Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                      Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                      Signe%Søvik%signe.sovik@medisin.uio.no%1,                      Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                      My%Svensson%m.h.s.svensson@medisin.uio.no%1,                      Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                      Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                      Marina%de Castro Deus%NULL%1,                      Joao Paulo%Telles%NULL%1,                      Rafael%Wind%NULL%1,                      Marina%Goes%NULL%1,                      Roberta%Garcia Charello Ossoski%NULL%1,                      Alessandra Michalski%de Padua%NULL%1,                      Lucia%de Noronha%NULL%1,                      Andrea%Moreno-Amaral%NULL%1,                      Cristina Pellegrino%Baena%NULL%1,                      Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                      Alberto%Utrero-Rico%NULL%1,                      Paloma%Talayero%NULL%1,                      Maria%Lasa-Lazaro%NULL%1,                      Angel%Ramirez-Fernandez%NULL%1,                      Laura%Naranjo%NULL%1,                      Alejandro%Segura-Tudela%NULL%1,                      Oscar%Cabrera-Marante%NULL%1,                      Edgar%Rodriguez de Frias%NULL%1,                      Rocio%Garcia-Garcia%NULL%1,                      Mario%Fernández-Ruiz%NULL%1,                      Jose Maria%Aguado%NULL%1,                      Joaquin%Martinez-Lopez%NULL%1,                      Elena Ana%Lopez%NULL%1,                      Mercedes%Catalan%NULL%1,                      Antonio%Serrano%NULL%1,                      Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                      Wenbo%He%NULL%1,                      Xiaomei%Yu%NULL%1,                      Dalong%Hu%NULL%1,                      Mingwei%Bao%NULL%1,                      Huafen%Liu%NULL%1,                      Jiali%Zhou%NULL%1,                      Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                      Ruoqi%Ning%NULL%1,                      Yu%Tao%NULL%0,                      Chong%Yu%NULL%2,                      Xiaoyan%Deng%NULL%1,                      Caili%Zhao%NULL%1,                      Silu%Meng%NULL%1,                      Fangxu%Tang%89650793@qq.com%1,                      Dong%Xu%89650793@qq.com%0,                      Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                      Hui%Wang%NULL%0,                      Guangming%Ye%NULL%2,                      Xiaoling%Cao%NULL%1,                      Xianqun%Xu%NULL%1,                      Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                      Gil%Harari%NULL%1,                      Michael%Gurevich%NULL%1,                      Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                      Carmen M.%Cabrera%NULL%1,                      Natalia%Jiménez%NULL%1,                      Laura%Rincón%NULL%1,                      José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                      Chong%Yu%NULL%0,                      Daoyuan%Yue%NULL%1,                      Xing%Zeng%NULL%1,                      Zhiquan%Hu%NULL%1,                      Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                      Wenwu%Sun%NULL%1,                      Shengrong%Sun%NULL%1,                      Zhiyu%Li%lizhiyu@whu.edu.cn%1,                      Zhong%Wang%zhongwangchn@whu.edu.cn%1,                      Li%Yu%yuliwhzxyy@163.com%2,                      Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                      Jun%Wang%NULL%0,                      Nan%Su%NULL%1,                      Xiebing%Bao%NULL%1,                      Yongsheng%Li%dr_ysli@126.com%1,                      Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                      Jiangang%Jiang%NULL%0,                      Feng%Wang%NULL%0,                      Ning%Zhou%NULL%0,                      Giacomo%Veronese%NULL%0,                      Javid J.%Moslehi%NULL%0,                      Enrico%Ammirati%NULL%0,                      Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                      Chang%Shu%NULL%0,                      Xiao%Ran%NULL%1,                      Cui-Hong%Xie%NULL%1,                      Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                      Chen%Dong%NULL%1,                      Shengzhong%Li%NULL%1,                      Xiaoqing%Song%NULL%1,                      Wang%Wei%NULL%1,                      Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                      Bin%Huang%NULL%1,                      Hongzhen%Xia%NULL%1,                      Hua%Fan%NULL%1,                      Muxin%Zhu%NULL%1,                      Liping%Zhu%NULL%1,                      Huan%Zhang%NULL%1,                      Xiaogen%Tao%NULL%1,                      Shaohui%Cheng%NULL%1,                      Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                      Deliang%Huang%coreGivesNoEmail%2,                      Hong%Yu%coreGivesNoEmail%2,                      Jun%Chen%coreGivesNoEmail%0,                      Lei%Liu%coreGivesNoEmail%0,                      National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                      Pengcheng%Ou%coreGivesNoEmail%2,                      Qing%He%coreGivesNoEmail%2,                      Qingxian%Cai%coreGivesNoEmail%2,                      Rossaint%J%coreGivesNoEmail%2,                      Yang%Fu%coreGivesNoEmail%2,                      Yiming%Zhang%coreGivesNoEmail%2,                      Yinan%Su%coreGivesNoEmail%2,                      Zhang%Xia%coreGivesNoEmail%2,                      Zhenghua%Ma%coreGivesNoEmail%2,                      Zhibin%Zhu%coreGivesNoEmail%2,                      Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                       Tuantuan%Li%NULL%1,                       Mingfeng%Han%NULL%0,                       Xiuyong%Li%NULL%1,                       Dong%Wu%NULL%1,                       Yuanhong%Xu%NULL%1,                       Yulin%Zhu%NULL%1,                       Yan%Liu%NULL%1,                       Xiaowu%Wang%wangxiaowu19880218@126.com%1,                       Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                       Bohan%Yang%NULL%1,                       Qianwen%Li%NULL%1,                       Lu%Wen%NULL%1,                       Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                       Luoqi%Zhou%NULL%1,                       Ziwei%Hu%NULL%1,                       Shuoqi%Zhang%NULL%1,                       Sheng%Yang%NULL%1,                       Yu%Tao%NULL%0,                       Cuihong%Xie%NULL%1,                       Ke%Ma%NULL%0,                       Ke%Shang%NULL%1,                       Wei%Wang%NULL%0,                       Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                       Min%Pan%NULL%0,                       Xiumei%Zhang%NULL%0,                       Mingfeng%Han%fyhmf@163.com%0,                       Xiaoyun%Fan%13956988552@126.com%0,                       Fengde%Zhao%NULL%0,                       Manli%Miao%NULL%0,                       Jing%Xu%NULL%0,                       Minglong%Guan%NULL%0,                       Xia%Deng%NULL%0,                       Xu%Chen%NULL%0,                       Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                       Ting%Cai%NULL%1,                       Lingyan%Fan%NULL%1,                       Kehong%Lou%NULL%1,                       Xin%Hua%NULL%1,                       Zuoan%Huang%NULL%1,                       Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                       Binghong%Zhao%NULL%1,                       Yueming%Qu%NULL%1,                       Yurou%Chen%NULL%1,                       Jie%Xiong%NULL%1,                       Yong%Feng%NULL%2,                       Dong%Men%NULL%1,                       Qianchuan%Huang%NULL%1,                       Ying%Liu%NULL%0,                       Bo%Yang%NULL%0,                       Jinya%Ding%NULL%1,                       Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                       Qiang%Zhang%NULL%1,                       Qing%Li%NULL%1,                       Ting%Wu%NULL%1,                       Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                       Christian%Prebensen%christian.prebensen@gmail.com%1,                       Heidi%Strand%Heidi.Strand@ahus.no%1,                       Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                       Christine M.%Jonassen%chrjon@so-hf.no%1,                       Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                       Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                       Signe%Søvik%signe.sovik@medisin.uio.no%1,                       Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                       My%Svensson%m.h.s.svensson@medisin.uio.no%1,                       Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                       Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                       Marina%de Castro Deus%NULL%1,                       Joao Paulo%Telles%NULL%1,                       Rafael%Wind%NULL%1,                       Marina%Goes%NULL%1,                       Roberta%Garcia Charello Ossoski%NULL%1,                       Alessandra Michalski%de Padua%NULL%1,                       Lucia%de Noronha%NULL%1,                       Andrea%Moreno-Amaral%NULL%1,                       Cristina Pellegrino%Baena%NULL%1,                       Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                       Alberto%Utrero-Rico%NULL%1,                       Paloma%Talayero%NULL%1,                       Maria%Lasa-Lazaro%NULL%1,                       Angel%Ramirez-Fernandez%NULL%1,                       Laura%Naranjo%NULL%1,                       Alejandro%Segura-Tudela%NULL%1,                       Oscar%Cabrera-Marante%NULL%1,                       Edgar%Rodriguez de Frias%NULL%1,                       Rocio%Garcia-Garcia%NULL%1,                       Mario%Fernández-Ruiz%NULL%1,                       Jose Maria%Aguado%NULL%1,                       Joaquin%Martinez-Lopez%NULL%1,                       Elena Ana%Lopez%NULL%1,                       Mercedes%Catalan%NULL%1,                       Antonio%Serrano%NULL%1,                       Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                       Wenbo%He%NULL%1,                       Xiaomei%Yu%NULL%1,                       Dalong%Hu%NULL%1,                       Mingwei%Bao%NULL%1,                       Huafen%Liu%NULL%1,                       Jiali%Zhou%NULL%1,                       Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                       Ruoqi%Ning%NULL%1,                       Yu%Tao%NULL%0,                       Chong%Yu%NULL%2,                       Xiaoyan%Deng%NULL%1,                       Caili%Zhao%NULL%1,                       Silu%Meng%NULL%1,                       Fangxu%Tang%89650793@qq.com%1,                       Dong%Xu%89650793@qq.com%0,                       Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                       Hui%Wang%NULL%0,                       Guangming%Ye%NULL%2,                       Xiaoling%Cao%NULL%1,                       Xianqun%Xu%NULL%1,                       Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                       Gil%Harari%NULL%1,                       Michael%Gurevich%NULL%1,                       Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                       Carmen M.%Cabrera%NULL%1,                       Natalia%Jiménez%NULL%1,                       Laura%Rincón%NULL%1,                       José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                       Chong%Yu%NULL%0,                       Daoyuan%Yue%NULL%1,                       Xing%Zeng%NULL%1,                       Zhiquan%Hu%NULL%1,                       Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                       Wenwu%Sun%NULL%1,                       Shengrong%Sun%NULL%1,                       Zhiyu%Li%lizhiyu@whu.edu.cn%1,                       Zhong%Wang%zhongwangchn@whu.edu.cn%1,                       Li%Yu%yuliwhzxyy@163.com%2,                       Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                       Jun%Wang%NULL%0,                       Nan%Su%NULL%1,                       Xiebing%Bao%NULL%1,                       Yongsheng%Li%dr_ysli@126.com%1,                       Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                       Jiangang%Jiang%NULL%0,                       Feng%Wang%NULL%0,                       Ning%Zhou%NULL%0,                       Giacomo%Veronese%NULL%0,                       Javid J.%Moslehi%NULL%0,                       Enrico%Ammirati%NULL%0,                       Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                       Chang%Shu%NULL%0,                       Xiao%Ran%NULL%1,                       Cui-Hong%Xie%NULL%1,                       Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                       Chen%Dong%NULL%1,                       Shengzhong%Li%NULL%1,                       Xiaoqing%Song%NULL%1,                       Wang%Wei%NULL%1,                       Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                       Bin%Huang%NULL%1,                       Hongzhen%Xia%NULL%1,                       Hua%Fan%NULL%1,                       Muxin%Zhu%NULL%1,                       Liping%Zhu%NULL%1,                       Huan%Zhang%NULL%1,                       Xiaogen%Tao%NULL%1,                       Shaohui%Cheng%NULL%1,                       Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                       Deliang%Huang%coreGivesNoEmail%2,                       Hong%Yu%coreGivesNoEmail%2,                       Jun%Chen%coreGivesNoEmail%0,                       Lei%Liu%coreGivesNoEmail%0,                       National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                       Pengcheng%Ou%coreGivesNoEmail%2,                       Qing%He%coreGivesNoEmail%2,                       Qingxian%Cai%coreGivesNoEmail%2,                       Rossaint%J%coreGivesNoEmail%2,                       Yang%Fu%coreGivesNoEmail%2,                       Yiming%Zhang%coreGivesNoEmail%2,                       Yinan%Su%coreGivesNoEmail%2,                       Zhang%Xia%coreGivesNoEmail%2,                       Zhenghua%Ma%coreGivesNoEmail%2,                       Zhibin%Zhu%coreGivesNoEmail%2,                       Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                        Tuantuan%Li%NULL%1,                        Mingfeng%Han%NULL%0,                        Xiuyong%Li%NULL%1,                        Dong%Wu%NULL%1,                        Yuanhong%Xu%NULL%1,                        Yulin%Zhu%NULL%1,                        Yan%Liu%NULL%1,                        Xiaowu%Wang%wangxiaowu19880218@126.com%1,                        Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                        Bohan%Yang%NULL%1,                        Qianwen%Li%NULL%1,                        Lu%Wen%NULL%1,                        Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                        Luoqi%Zhou%NULL%1,                        Ziwei%Hu%NULL%1,                        Shuoqi%Zhang%NULL%1,                        Sheng%Yang%NULL%1,                        Yu%Tao%NULL%0,                        Cuihong%Xie%NULL%1,                        Ke%Ma%NULL%0,                        Ke%Shang%NULL%1,                        Wei%Wang%NULL%0,                        Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                        Min%Pan%NULL%0,                        Xiumei%Zhang%NULL%0,                        Mingfeng%Han%fyhmf@163.com%0,                        Xiaoyun%Fan%13956988552@126.com%0,                        Fengde%Zhao%NULL%0,                        Manli%Miao%NULL%0,                        Jing%Xu%NULL%0,                        Minglong%Guan%NULL%0,                        Xia%Deng%NULL%0,                        Xu%Chen%NULL%0,                        Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                        Ting%Cai%NULL%1,                        Lingyan%Fan%NULL%1,                        Kehong%Lou%NULL%1,                        Xin%Hua%NULL%1,                        Zuoan%Huang%NULL%1,                        Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                        Binghong%Zhao%NULL%1,                        Yueming%Qu%NULL%1,                        Yurou%Chen%NULL%1,                        Jie%Xiong%NULL%1,                        Yong%Feng%NULL%2,                        Dong%Men%NULL%1,                        Qianchuan%Huang%NULL%1,                        Ying%Liu%NULL%0,                        Bo%Yang%NULL%0,                        Jinya%Ding%NULL%1,                        Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                        Qiang%Zhang%NULL%1,                        Qing%Li%NULL%1,                        Ting%Wu%NULL%1,                        Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                        Christian%Prebensen%christian.prebensen@gmail.com%1,                        Heidi%Strand%Heidi.Strand@ahus.no%1,                        Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                        Christine M.%Jonassen%chrjon@so-hf.no%1,                        Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                        Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                        Signe%Søvik%signe.sovik@medisin.uio.no%1,                        Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                        My%Svensson%m.h.s.svensson@medisin.uio.no%1,                        Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                        Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                        Marina%de Castro Deus%NULL%1,                        Joao Paulo%Telles%NULL%1,                        Rafael%Wind%NULL%1,                        Marina%Goes%NULL%1,                        Roberta%Garcia Charello Ossoski%NULL%1,                        Alessandra Michalski%de Padua%NULL%1,                        Lucia%de Noronha%NULL%1,                        Andrea%Moreno-Amaral%NULL%1,                        Cristina Pellegrino%Baena%NULL%1,                        Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                        Alberto%Utrero-Rico%NULL%1,                        Paloma%Talayero%NULL%1,                        Maria%Lasa-Lazaro%NULL%1,                        Angel%Ramirez-Fernandez%NULL%1,                        Laura%Naranjo%NULL%1,                        Alejandro%Segura-Tudela%NULL%1,                        Oscar%Cabrera-Marante%NULL%1,                        Edgar%Rodriguez de Frias%NULL%1,                        Rocio%Garcia-Garcia%NULL%1,                        Mario%Fernández-Ruiz%NULL%1,                        Jose Maria%Aguado%NULL%1,                        Joaquin%Martinez-Lopez%NULL%1,                        Elena Ana%Lopez%NULL%1,                        Mercedes%Catalan%NULL%1,                        Antonio%Serrano%NULL%1,                        Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                        Wenbo%He%NULL%1,                        Xiaomei%Yu%NULL%1,                        Dalong%Hu%NULL%1,                        Mingwei%Bao%NULL%1,                        Huafen%Liu%NULL%1,                        Jiali%Zhou%NULL%1,                        Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                        Ruoqi%Ning%NULL%1,                        Yu%Tao%NULL%0,                        Chong%Yu%NULL%2,                        Xiaoyan%Deng%NULL%1,                        Caili%Zhao%NULL%1,                        Silu%Meng%NULL%1,                        Fangxu%Tang%89650793@qq.com%1,                        Dong%Xu%89650793@qq.com%0,                        Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                        Hui%Wang%NULL%0,                        Guangming%Ye%NULL%2,                        Xiaoling%Cao%NULL%1,                        Xianqun%Xu%NULL%1,                        Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                        Gil%Harari%NULL%1,                        Michael%Gurevich%NULL%1,                        Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                        Carmen M.%Cabrera%NULL%1,                        Natalia%Jiménez%NULL%1,                        Laura%Rincón%NULL%1,                        José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                        Chong%Yu%NULL%0,                        Daoyuan%Yue%NULL%1,                        Xing%Zeng%NULL%1,                        Zhiquan%Hu%NULL%1,                        Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                        Wenwu%Sun%NULL%1,                        Shengrong%Sun%NULL%1,                        Zhiyu%Li%lizhiyu@whu.edu.cn%1,                        Zhong%Wang%zhongwangchn@whu.edu.cn%1,                        Li%Yu%yuliwhzxyy@163.com%2,                        Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                        Jun%Wang%NULL%0,                        Nan%Su%NULL%1,                        Xiebing%Bao%NULL%1,                        Yongsheng%Li%dr_ysli@126.com%1,                        Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                        Jiangang%Jiang%NULL%0,                        Feng%Wang%NULL%0,                        Ning%Zhou%NULL%0,                        Giacomo%Veronese%NULL%0,                        Javid J.%Moslehi%NULL%0,                        Enrico%Ammirati%NULL%0,                        Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                        Chang%Shu%NULL%0,                        Xiao%Ran%NULL%1,                        Cui-Hong%Xie%NULL%1,                        Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                        Chen%Dong%NULL%1,                        Shengzhong%Li%NULL%1,                        Xiaoqing%Song%NULL%1,                        Wang%Wei%NULL%1,                        Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                        Bin%Huang%NULL%1,                        Hongzhen%Xia%NULL%1,                        Hua%Fan%NULL%1,                        Muxin%Zhu%NULL%1,                        Liping%Zhu%NULL%1,                        Huan%Zhang%NULL%1,                        Xiaogen%Tao%NULL%1,                        Shaohui%Cheng%NULL%1,                        Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                        Deliang%Huang%coreGivesNoEmail%2,                        Hong%Yu%coreGivesNoEmail%2,                        Jun%Chen%coreGivesNoEmail%0,                        Lei%Liu%coreGivesNoEmail%0,                        National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                        Pengcheng%Ou%coreGivesNoEmail%2,                        Qing%He%coreGivesNoEmail%2,                        Qingxian%Cai%coreGivesNoEmail%2,                        Rossaint%J%coreGivesNoEmail%2,                        Yang%Fu%coreGivesNoEmail%2,                        Yiming%Zhang%coreGivesNoEmail%2,                        Yinan%Su%coreGivesNoEmail%2,                        Zhang%Xia%coreGivesNoEmail%2,                        Zhenghua%Ma%coreGivesNoEmail%2,                        Zhibin%Zhu%coreGivesNoEmail%2,                        Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                         Tuantuan%Li%NULL%1,                         Mingfeng%Han%NULL%0,                         Xiuyong%Li%NULL%1,                         Dong%Wu%NULL%1,                         Yuanhong%Xu%NULL%1,                         Yulin%Zhu%NULL%1,                         Yan%Liu%NULL%1,                         Xiaowu%Wang%wangxiaowu19880218@126.com%1,                         Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                         Bohan%Yang%NULL%1,                         Qianwen%Li%NULL%1,                         Lu%Wen%NULL%1,                         Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                         Luoqi%Zhou%NULL%1,                         Ziwei%Hu%NULL%1,                         Shuoqi%Zhang%NULL%1,                         Sheng%Yang%NULL%1,                         Yu%Tao%NULL%0,                         Cuihong%Xie%NULL%1,                         Ke%Ma%NULL%0,                         Ke%Shang%NULL%1,                         Wei%Wang%NULL%0,                         Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                         Min%Pan%NULL%0,                         Xiumei%Zhang%NULL%0,                         Mingfeng%Han%fyhmf@163.com%0,                         Xiaoyun%Fan%13956988552@126.com%0,                         Fengde%Zhao%NULL%0,                         Manli%Miao%NULL%0,                         Jing%Xu%NULL%0,                         Minglong%Guan%NULL%0,                         Xia%Deng%NULL%0,                         Xu%Chen%NULL%0,                         Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                         Ting%Cai%NULL%1,                         Lingyan%Fan%NULL%1,                         Kehong%Lou%NULL%1,                         Xin%Hua%NULL%1,                         Zuoan%Huang%NULL%1,                         Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                         Binghong%Zhao%NULL%1,                         Yueming%Qu%NULL%1,                         Yurou%Chen%NULL%1,                         Jie%Xiong%NULL%1,                         Yong%Feng%NULL%2,                         Dong%Men%NULL%1,                         Qianchuan%Huang%NULL%1,                         Ying%Liu%NULL%0,                         Bo%Yang%NULL%0,                         Jinya%Ding%NULL%1,                         Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                         Qiang%Zhang%NULL%1,                         Qing%Li%NULL%1,                         Ting%Wu%NULL%1,                         Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                         Christian%Prebensen%christian.prebensen@gmail.com%1,                         Heidi%Strand%Heidi.Strand@ahus.no%1,                         Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                         Christine M.%Jonassen%chrjon@so-hf.no%1,                         Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                         Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                         Signe%Søvik%signe.sovik@medisin.uio.no%1,                         Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                         My%Svensson%m.h.s.svensson@medisin.uio.no%1,                         Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                         Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                         Marina%de Castro Deus%NULL%1,                         Joao Paulo%Telles%NULL%1,                         Rafael%Wind%NULL%1,                         Marina%Goes%NULL%1,                         Roberta%Garcia Charello Ossoski%NULL%1,                         Alessandra Michalski%de Padua%NULL%1,                         Lucia%de Noronha%NULL%1,                         Andrea%Moreno-Amaral%NULL%1,                         Cristina Pellegrino%Baena%NULL%1,                         Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                         Alberto%Utrero-Rico%NULL%1,                         Paloma%Talayero%NULL%1,                         Maria%Lasa-Lazaro%NULL%1,                         Angel%Ramirez-Fernandez%NULL%1,                         Laura%Naranjo%NULL%1,                         Alejandro%Segura-Tudela%NULL%1,                         Oscar%Cabrera-Marante%NULL%1,                         Edgar%Rodriguez de Frias%NULL%1,                         Rocio%Garcia-Garcia%NULL%1,                         Mario%Fernández-Ruiz%NULL%1,                         Jose Maria%Aguado%NULL%1,                         Joaquin%Martinez-Lopez%NULL%1,                         Elena Ana%Lopez%NULL%1,                         Mercedes%Catalan%NULL%1,                         Antonio%Serrano%NULL%1,                         Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                         Wenbo%He%NULL%1,                         Xiaomei%Yu%NULL%1,                         Dalong%Hu%NULL%1,                         Mingwei%Bao%NULL%1,                         Huafen%Liu%NULL%1,                         Jiali%Zhou%NULL%1,                         Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                         Ruoqi%Ning%NULL%1,                         Yu%Tao%NULL%0,                         Chong%Yu%NULL%2,                         Xiaoyan%Deng%NULL%1,                         Caili%Zhao%NULL%1,                         Silu%Meng%NULL%1,                         Fangxu%Tang%89650793@qq.com%1,                         Dong%Xu%89650793@qq.com%0,                         Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                         Hui%Wang%NULL%0,                         Guangming%Ye%NULL%2,                         Xiaoling%Cao%NULL%1,                         Xianqun%Xu%NULL%1,                         Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                         Gil%Harari%NULL%1,                         Michael%Gurevich%NULL%1,                         Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                         Carmen M.%Cabrera%NULL%1,                         Natalia%Jiménez%NULL%1,                         Laura%Rincón%NULL%1,                         José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                         Chong%Yu%NULL%0,                         Daoyuan%Yue%NULL%1,                         Xing%Zeng%NULL%1,                         Zhiquan%Hu%NULL%1,                         Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                         Wenwu%Sun%NULL%1,                         Shengrong%Sun%NULL%1,                         Zhiyu%Li%lizhiyu@whu.edu.cn%1,                         Zhong%Wang%zhongwangchn@whu.edu.cn%1,                         Li%Yu%yuliwhzxyy@163.com%2,                         Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                         Jun%Wang%NULL%0,                         Nan%Su%NULL%1,                         Xiebing%Bao%NULL%1,                         Yongsheng%Li%dr_ysli@126.com%1,                         Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                         Jiangang%Jiang%NULL%0,                         Feng%Wang%NULL%0,                         Ning%Zhou%NULL%0,                         Giacomo%Veronese%NULL%0,                         Javid J.%Moslehi%NULL%0,                         Enrico%Ammirati%NULL%0,                         Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                         Chang%Shu%NULL%0,                         Xiao%Ran%NULL%1,                         Cui-Hong%Xie%NULL%1,                         Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                         Chen%Dong%NULL%1,                         Shengzhong%Li%NULL%1,                         Xiaoqing%Song%NULL%1,                         Wang%Wei%NULL%1,                         Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                         Bin%Huang%NULL%1,                         Hongzhen%Xia%NULL%1,                         Hua%Fan%NULL%1,                         Muxin%Zhu%NULL%1,                         Liping%Zhu%NULL%1,                         Huan%Zhang%NULL%1,                         Xiaogen%Tao%NULL%1,                         Shaohui%Cheng%NULL%1,                         Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2641,6 +3028,9 @@
       <c r="I1" t="s">
         <v>209</v>
       </c>
+      <c r="J1" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2656,7 +3046,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>659</v>
+        <v>431</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2665,10 +3055,13 @@
         <v>315</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>688</v>
       </c>
       <c r="I2" t="s">
-        <v>628</v>
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="3">
@@ -2685,7 +3078,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>660</v>
+        <v>791</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2698,6 +3091,9 @@
       </c>
       <c r="I3" t="s">
         <v>628</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -2714,7 +3110,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>661</v>
+        <v>792</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -2727,6 +3123,9 @@
       </c>
       <c r="I4" t="s">
         <v>631</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2743,7 +3142,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>662</v>
+        <v>793</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -2756,6 +3155,9 @@
       </c>
       <c r="I5" t="s">
         <v>631</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -2772,7 +3174,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>663</v>
+        <v>794</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -2785,6 +3187,9 @@
       </c>
       <c r="I6" t="s">
         <v>631</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -2801,7 +3206,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>664</v>
+        <v>436</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2810,10 +3215,13 @@
         <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>688</v>
       </c>
       <c r="I7" t="s">
-        <v>628</v>
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="8">
@@ -2844,6 +3252,9 @@
       <c r="I8" t="s">
         <v>73</v>
       </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2859,7 +3270,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>665</v>
+        <v>795</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2872,6 +3283,9 @@
       </c>
       <c r="I9" t="s">
         <v>636</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -2888,7 +3302,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>666</v>
+        <v>796</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -2901,6 +3315,9 @@
       </c>
       <c r="I10" t="s">
         <v>636</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -2917,7 +3334,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>667</v>
+        <v>797</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -2930,6 +3347,9 @@
       </c>
       <c r="I11" t="s">
         <v>631</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -2946,7 +3366,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>668</v>
+        <v>798</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2959,6 +3379,9 @@
       </c>
       <c r="I12" t="s">
         <v>636</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
@@ -2975,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>669</v>
+        <v>799</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -2988,6 +3411,9 @@
       </c>
       <c r="I13" t="s">
         <v>631</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -3004,7 +3430,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>670</v>
+        <v>800</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -3017,6 +3443,9 @@
       </c>
       <c r="I14" t="s">
         <v>636</v>
+      </c>
+      <c r="J14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -3033,7 +3462,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>671</v>
+        <v>801</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3046,6 +3475,9 @@
       </c>
       <c r="I15" t="s">
         <v>636</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -3062,7 +3494,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>672</v>
+        <v>802</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -3075,6 +3507,9 @@
       </c>
       <c r="I16" t="s">
         <v>631</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -3091,7 +3526,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>673</v>
+        <v>803</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -3104,6 +3539,9 @@
       </c>
       <c r="I17" t="s">
         <v>636</v>
+      </c>
+      <c r="J17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -3120,7 +3558,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>674</v>
+        <v>804</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3133,6 +3571,9 @@
       </c>
       <c r="I18" t="s">
         <v>636</v>
+      </c>
+      <c r="J18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
@@ -3149,7 +3590,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>675</v>
+        <v>805</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3162,6 +3603,9 @@
       </c>
       <c r="I19" t="s">
         <v>631</v>
+      </c>
+      <c r="J19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -3178,7 +3622,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>676</v>
+        <v>806</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3191,6 +3635,9 @@
       </c>
       <c r="I20" t="s">
         <v>636</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -3207,7 +3654,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>677</v>
+        <v>807</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3220,6 +3667,9 @@
       </c>
       <c r="I21" t="s">
         <v>636</v>
+      </c>
+      <c r="J21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3686,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>678</v>
+        <v>808</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3249,6 +3699,9 @@
       </c>
       <c r="I22" t="s">
         <v>636</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
@@ -3265,7 +3718,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>679</v>
+        <v>809</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3278,6 +3731,9 @@
       </c>
       <c r="I23" t="s">
         <v>636</v>
+      </c>
+      <c r="J23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -3294,7 +3750,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>680</v>
+        <v>810</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3307,6 +3763,9 @@
       </c>
       <c r="I24" t="s">
         <v>631</v>
+      </c>
+      <c r="J24" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -3323,7 +3782,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>681</v>
+        <v>811</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3336,6 +3795,9 @@
       </c>
       <c r="I25" t="s">
         <v>653</v>
+      </c>
+      <c r="J25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -3352,7 +3814,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>682</v>
+        <v>812</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3365,6 +3827,9 @@
       </c>
       <c r="I26" t="s">
         <v>636</v>
+      </c>
+      <c r="J26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -3381,7 +3846,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>683</v>
+        <v>455</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3390,10 +3855,13 @@
         <v>315</v>
       </c>
       <c r="H27" t="s">
-        <v>343</v>
+        <v>688</v>
       </c>
       <c r="I27" t="s">
-        <v>628</v>
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="28">
@@ -3410,7 +3878,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>684</v>
+        <v>813</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3423,6 +3891,9 @@
       </c>
       <c r="I28" t="s">
         <v>631</v>
+      </c>
+      <c r="J28" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -3439,7 +3910,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>685</v>
+        <v>814</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3452,6 +3923,9 @@
       </c>
       <c r="I29" t="s">
         <v>631</v>
+      </c>
+      <c r="J29" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -3468,7 +3942,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>686</v>
+        <v>815</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -3481,6 +3955,9 @@
       </c>
       <c r="I30" t="s">
         <v>631</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/81.xlsx
+++ b/Covid_19_Dataset_and_References/References/81.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6062" uniqueCount="873">
   <si>
     <t>Doi</t>
   </si>
@@ -2708,6 +2708,193 @@
   </si>
   <si>
     <t>[Lin%Zhang%NULL%1,                         Bin%Huang%NULL%1,                         Hongzhen%Xia%NULL%1,                         Hua%Fan%NULL%1,                         Muxin%Zhu%NULL%1,                         Liping%Zhu%NULL%1,                         Huan%Zhang%NULL%1,                         Xiaogen%Tao%NULL%1,                         Shaohui%Cheng%NULL%1,                         Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                         Deliang%Huang%coreGivesNoEmail%2,                         Hong%Yu%coreGivesNoEmail%2,                         Jun%Chen%coreGivesNoEmail%0,                         Lei%Liu%coreGivesNoEmail%0,                         National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                         Pengcheng%Ou%coreGivesNoEmail%2,                         Qing%He%coreGivesNoEmail%2,                         Qingxian%Cai%coreGivesNoEmail%2,                         Rossaint%J%coreGivesNoEmail%2,                         Yang%Fu%coreGivesNoEmail%2,                         Yiming%Zhang%coreGivesNoEmail%2,                         Yinan%Su%coreGivesNoEmail%2,                         Zhang%Xia%coreGivesNoEmail%2,                         Zhenghua%Ma%coreGivesNoEmail%2,                         Zhibin%Zhu%coreGivesNoEmail%2,                         Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                          Tuantuan%Li%NULL%1,                          Mingfeng%Han%NULL%0,                          Xiuyong%Li%NULL%1,                          Dong%Wu%NULL%1,                          Yuanhong%Xu%NULL%1,                          Yulin%Zhu%NULL%1,                          Yan%Liu%NULL%1,                          Xiaowu%Wang%wangxiaowu19880218@126.com%1,                          Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                          Bohan%Yang%NULL%1,                          Qianwen%Li%NULL%1,                          Lu%Wen%NULL%1,                          Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                          Luoqi%Zhou%NULL%1,                          Ziwei%Hu%NULL%1,                          Shuoqi%Zhang%NULL%1,                          Sheng%Yang%NULL%1,                          Yu%Tao%NULL%0,                          Cuihong%Xie%NULL%1,                          Ke%Ma%NULL%0,                          Ke%Shang%NULL%1,                          Wei%Wang%NULL%0,                          Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Analysis of clinical features of 29 patients with 2019 novel coronavirus pneumonia].</t>
+  </si>
+  <si>
+    <t>Objective: To analyze the clinical characteristics of 2019 novel coronavirus (2019-nCoV) pneumonia and to investigate the correlation between serum inflammatory cytokines and severity of the disease. Methods: 29 patients with 2019-ncov admitted to the isolation ward of Tongji hospital affiliated to Tongji medical college of Huazhong University of Science and Technology in January 2020 were selected as the study subjects. Clinical data were collected and the general information, clinical symptoms, blood test and CT imaging characteristics were analyzed. According to the relevant diagnostic criteria, the patients were divided into three groups: mild (15 cases), severe (9 cases) and critical (5 cases). The expression levels of inflammatory cytokines and other markers in the serum of each group were detected, and the changes of these indicators of the three groups were compared and analyzed, as well as their relationship with the clinical classification of the disease. Results: (1) The main symptoms of 2019-nCoV pneumonia was fever (28/29) with or without respiratory and other systemic symptoms. Two patients died with underlying disease and co-bacterial infection, respectively. (2) The blood test of the patients showed normal or decreased white blood cell count (23/29), decreased lymphocyte count (20/29), increased hypersensitive C reactive protein (hs-CRP) (27/29), and normal procalcitonin. In most patients,serum lactate dehydrogenase (LDH) was significantly increased (20/29), while albumin was decreased(15/29). Alanine aminotransferase (ALT), aspartate aminotransferase (AST), total bilirubin (Tbil), serum creatinine (Scr) and other items showed no significant changes. (3) CT findings of typical cases were single or multiple patchy ground glass shadows accompanied by septal thickening. When the disease progresses, the lesion increases and the scope expands, and the ground glass shadow coexists with the solid shadow or the stripe shadow. (4) There were statistically significant differences in the expression levels of interleukin-2 receptor (IL-2R) and IL-6 in the serum of the three groups (P&lt;0.05), among which the critical group was higher than the severe group and the severe group was higher than the mildgroup. However, there were no statistically significant differences in serum levels of tumor necrosis factor-alpha (TNF-α), IL-1, IL-8, IL-10, hs-CRP, lymphocyte count and LDH among the three groups (P&gt;0.05). Conclusion: The clinical characteristics of 2019-nCoV pneumonia are similar to those of common viral pneumonia. High resolution CT is of great value in the differential diagnosis of this disease. The increased expression of IL-2R and IL-6 in serum is expected to predict the severity of the 2019-nCoV pneumonia and the prognosis of patients.</t>
+  </si>
+  <si>
+    <t>[ L%Chen%elasticNoEmail%0,  H G% Liu%elasticNoEmail%0,  W% Liu%elasticNoEmail%0,  J% Liu%elasticNoEmail%0,  K% Liu%elasticNoEmail%0,  J% Shang%elasticNoEmail%0,  Y% Deng%elasticNoEmail%0,  S% Wei%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-02-06</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                          Min%Pan%NULL%0,                          Xiumei%Zhang%NULL%0,                          Mingfeng%Han%fyhmf@163.com%0,                          Xiaoyun%Fan%13956988552@126.com%0,                          Fengde%Zhao%NULL%0,                          Manli%Miao%NULL%0,                          Jing%Xu%NULL%0,                          Minglong%Guan%NULL%0,                          Xia%Deng%NULL%0,                          Xu%Chen%NULL%0,                          Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                          Ting%Cai%NULL%1,                          Lingyan%Fan%NULL%1,                          Kehong%Lou%NULL%1,                          Xin%Hua%NULL%1,                          Zuoan%Huang%NULL%1,                          Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                          Binghong%Zhao%NULL%1,                          Yueming%Qu%NULL%1,                          Yurou%Chen%NULL%1,                          Jie%Xiong%NULL%1,                          Yong%Feng%NULL%2,                          Dong%Men%NULL%1,                          Qianchuan%Huang%NULL%1,                          Ying%Liu%NULL%0,                          Bo%Yang%NULL%0,                          Jinya%Ding%NULL%1,                          Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                          Qiang%Zhang%NULL%1,                          Qing%Li%NULL%1,                          Ting%Wu%NULL%1,                          Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                          Christian%Prebensen%christian.prebensen@gmail.com%1,                          Heidi%Strand%Heidi.Strand@ahus.no%1,                          Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                          Christine M.%Jonassen%chrjon@so-hf.no%1,                          Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                          Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                          Signe%Søvik%signe.sovik@medisin.uio.no%1,                          Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                          My%Svensson%m.h.s.svensson@medisin.uio.no%1,                          Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                          Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                          Marina%de Castro Deus%NULL%1,                          Joao Paulo%Telles%NULL%1,                          Rafael%Wind%NULL%1,                          Marina%Goes%NULL%1,                          Roberta%Garcia Charello Ossoski%NULL%1,                          Alessandra Michalski%de Padua%NULL%1,                          Lucia%de Noronha%NULL%1,                          Andrea%Moreno-Amaral%NULL%1,                          Cristina Pellegrino%Baena%NULL%1,                          Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                          Alberto%Utrero-Rico%NULL%1,                          Paloma%Talayero%NULL%1,                          Maria%Lasa-Lazaro%NULL%1,                          Angel%Ramirez-Fernandez%NULL%1,                          Laura%Naranjo%NULL%1,                          Alejandro%Segura-Tudela%NULL%1,                          Oscar%Cabrera-Marante%NULL%1,                          Edgar%Rodriguez de Frias%NULL%1,                          Rocio%Garcia-Garcia%NULL%1,                          Mario%Fernández-Ruiz%NULL%1,                          Jose Maria%Aguado%NULL%1,                          Joaquin%Martinez-Lopez%NULL%1,                          Elena Ana%Lopez%NULL%1,                          Mercedes%Catalan%NULL%1,                          Antonio%Serrano%NULL%1,                          Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                          Wenbo%He%NULL%1,                          Xiaomei%Yu%NULL%1,                          Dalong%Hu%NULL%1,                          Mingwei%Bao%NULL%1,                          Huafen%Liu%NULL%1,                          Jiali%Zhou%NULL%1,                          Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                          Ruoqi%Ning%NULL%1,                          Yu%Tao%NULL%0,                          Chong%Yu%NULL%2,                          Xiaoyan%Deng%NULL%1,                          Caili%Zhao%NULL%1,                          Silu%Meng%NULL%1,                          Fangxu%Tang%89650793@qq.com%1,                          Dong%Xu%89650793@qq.com%0,                          Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                          Hui%Wang%NULL%0,                          Guangming%Ye%NULL%2,                          Xiaoling%Cao%NULL%1,                          Xianqun%Xu%NULL%1,                          Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                          Gil%Harari%NULL%1,                          Michael%Gurevich%NULL%1,                          Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                          Carmen M.%Cabrera%NULL%1,                          Natalia%Jiménez%NULL%1,                          Laura%Rincón%NULL%1,                          José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                          Chong%Yu%NULL%0,                          Daoyuan%Yue%NULL%1,                          Xing%Zeng%NULL%1,                          Zhiquan%Hu%NULL%1,                          Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                          Wenwu%Sun%NULL%1,                          Shengrong%Sun%NULL%1,                          Zhiyu%Li%lizhiyu@whu.edu.cn%1,                          Zhong%Wang%zhongwangchn@whu.edu.cn%1,                          Li%Yu%yuliwhzxyy@163.com%2,                          Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                          Jun%Wang%NULL%0,                          Nan%Su%NULL%1,                          Xiebing%Bao%NULL%1,                          Yongsheng%Li%dr_ysli@126.com%1,                          Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                          Jiangang%Jiang%NULL%0,                          Feng%Wang%NULL%0,                          Ning%Zhou%NULL%0,                          Giacomo%Veronese%NULL%0,                          Javid J.%Moslehi%NULL%0,                          Enrico%Ammirati%NULL%0,                          Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                          Chang%Shu%NULL%0,                          Xiao%Ran%NULL%1,                          Cui-Hong%Xie%NULL%1,                          Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                          Chen%Dong%NULL%1,                          Shengzhong%Li%NULL%1,                          Xiaoqing%Song%NULL%1,                          Wang%Wei%NULL%1,                          Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                          Bin%Huang%NULL%1,                          Hongzhen%Xia%NULL%1,                          Hua%Fan%NULL%1,                          Muxin%Zhu%NULL%1,                          Liping%Zhu%NULL%1,                          Huan%Zhang%NULL%1,                          Xiaogen%Tao%NULL%1,                          Shaohui%Cheng%NULL%1,                          Jian%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chai%X%coreGivesNoEmail%2,                          Deliang%Huang%coreGivesNoEmail%2,                          Hong%Yu%coreGivesNoEmail%2,                          Jun%Chen%coreGivesNoEmail%0,                          Lei%Liu%coreGivesNoEmail%0,                          National%Health Commission of the People\u2019s Republic of China%coreGivesNoEmail%2,                          Pengcheng%Ou%coreGivesNoEmail%2,                          Qing%He%coreGivesNoEmail%2,                          Qingxian%Cai%coreGivesNoEmail%2,                          Rossaint%J%coreGivesNoEmail%2,                          Yang%Fu%coreGivesNoEmail%2,                          Yiming%Zhang%coreGivesNoEmail%2,                          Yinan%Su%coreGivesNoEmail%2,                          Zhang%Xia%coreGivesNoEmail%2,                          Zhenghua%Ma%coreGivesNoEmail%2,                          Zhibin%Zhu%coreGivesNoEmail%2,                          Zhiwei%Li%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Yong%Gao%NULL%0,                           Tuantuan%Li%NULL%1,                           Mingfeng%Han%NULL%0,                           Xiuyong%Li%NULL%1,                           Dong%Wu%NULL%1,                           Yuanhong%Xu%NULL%1,                           Yulin%Zhu%NULL%1,                           Yan%Liu%NULL%1,                           Xiaowu%Wang%wangxiaowu19880218@126.com%1,                           Linding%Wang%wanglinding@ahmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                           Bohan%Yang%NULL%1,                           Qianwen%Li%NULL%1,                           Lu%Wen%NULL%1,                           Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chuan%Qin%NULL%0,                           Luoqi%Zhou%NULL%1,                           Ziwei%Hu%NULL%1,                           Shuoqi%Zhang%NULL%1,                           Sheng%Yang%NULL%1,                           Yu%Tao%NULL%0,                           Cuihong%Xie%NULL%1,                           Ke%Ma%NULL%0,                           Ke%Shang%NULL%1,                           Wei%Wang%NULL%0,                           Dai-Shi%Tian%tiands@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To analyze the clinical characteristics of 2019 novel coronavirus (2019-nCoV) pneumonia and to investigate the correlation between serum inflammatory cytokines and severity of the disease.
+ Methods: 29 patients with 2019-ncov admitted to the isolation ward of Tongji hospital affiliated to Tongji medical college of Huazhong University of Science and Technology in January 2020 were selected as the study subjects.
+ Clinical data were collected and the general information, clinical symptoms, blood test and CT imaging characteristics were analyzed.
+ According to the relevant diagnostic criteria, the patients were divided into three groups: mild (15 cases), severe (9 cases) and critical (5 cases).
+ The expression levels of inflammatory cytokines and other markers in the serum of each group were detected, and the changes of these indicators of the three groups were compared and analyzed, as well as their relationship with the clinical classification of the disease.
+ Results: (1) The main symptoms of 2019-nCoV pneumonia was fever (28/29) with or without respiratory and other systemic symptoms.
+ Two patients died with underlying disease and co-bacterial infection, respectively.
+ (2) The blood test of the patients showed normal or decreased white blood cell count (23/29), decreased lymphocyte count (20/29), increased hypersensitive C reactive protein (hs-CRP) (27/29), and normal procalcitonin.
+ In most patients,serum lactate dehydrogenase (LDH) was significantly increased (20/29), while albumin was decreased(15/29).
+ Alanine aminotransferase (ALT), aspartate aminotransferase (AST), total bilirubin (Tbil), serum creatinine (Scr) and other items showed no significant changes.
+ (3) CT findings of typical cases were single or multiple patchy ground glass shadows accompanied by septal thickening.
+ When the disease progresses, the lesion increases and the scope expands, and the ground glass shadow coexists with the solid shadow or the stripe shadow.
+ (4) There were statistically significant differences in the expression levels of interleukin-2 receptor (IL-2R) and IL-6 in the serum of the three groups (P0.05).
+ Conclusion: The clinical characteristics of 2019-nCoV pneumonia are similar to those of common viral pneumonia.
+ High resolution CT is of great value in the differential diagnosis of this disease.
+ The increased expression of IL-2R and IL-6 in serum is expected to predict the severity of the 2019-nCoV pneumonia and the prognosis of patients.
+</t>
+  </si>
+  <si>
+    <t>[ L%Chen%elasticNoEmail%0,   H G% Liu%elasticNoEmail%0,   W% Liu%elasticNoEmail%0,   J% Liu%elasticNoEmail%0,   K% Liu%elasticNoEmail%0,   J% Shang%elasticNoEmail%0,   Y% Deng%elasticNoEmail%0,   S% Wei%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Ruirui%Wang%NULL%0,                           Min%Pan%NULL%0,                           Xiumei%Zhang%NULL%0,                           Mingfeng%Han%fyhmf@163.com%0,                           Xiaoyun%Fan%13956988552@126.com%0,                           Fengde%Zhao%NULL%0,                           Manli%Miao%NULL%0,                           Jing%Xu%NULL%0,                           Minglong%Guan%NULL%0,                           Xia%Deng%NULL%0,                           Xu%Chen%NULL%0,                           Leilei%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhe%Zhu%NULL%1,                           Ting%Cai%NULL%1,                           Lingyan%Fan%NULL%1,                           Kehong%Lou%NULL%1,                           Xin%Hua%NULL%1,                           Zuoan%Huang%NULL%1,                           Guosheng%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaohua%Chen%NULL%1,                           Binghong%Zhao%NULL%1,                           Yueming%Qu%NULL%1,                           Yurou%Chen%NULL%1,                           Jie%Xiong%NULL%1,                           Yong%Feng%NULL%2,                           Dong%Men%NULL%1,                           Qianchuan%Huang%NULL%1,                           Ying%Liu%NULL%0,                           Bo%Yang%NULL%0,                           Jinya%Ding%NULL%1,                           Feng%Li%fli222@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Ming%Ding%NULL%1,                           Qiang%Zhang%NULL%1,                           Qing%Li%NULL%1,                           Ting%Wu%NULL%1,                           Ying-zi%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peder L.%Myhre%p.l.myhre@medisin.uio.no%1,                           Christian%Prebensen%christian.prebensen@gmail.com%1,                           Heidi%Strand%Heidi.Strand@ahus.no%1,                           Ragnhild%Røysland%ragnhiro@medisin.uio.no%1,                           Christine M.%Jonassen%chrjon@so-hf.no%1,                           Anbjørg%Rangberg%Anbjorg.Rangberg@so-hf.no%1,                           Vibecke%Sørensen%Vibecke.Sorensen@ahus.no%1,                           Signe%Søvik%signe.sovik@medisin.uio.no%1,                           Helge%Røsjø%helge.rosjo@medisin.uio.no%1,                           My%Svensson%m.h.s.svensson@medisin.uio.no%1,                           Jan%Erik Berdal%jan-erik.berdal@hotmail.com%1,                           Torbjørn%Omland%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ana Carolina%Gadotti%NULL%1,                           Marina%de Castro Deus%NULL%1,                           Joao Paulo%Telles%NULL%1,                           Rafael%Wind%NULL%1,                           Marina%Goes%NULL%1,                           Roberta%Garcia Charello Ossoski%NULL%1,                           Alessandra Michalski%de Padua%NULL%1,                           Lucia%de Noronha%NULL%1,                           Andrea%Moreno-Amaral%NULL%1,                           Cristina Pellegrino%Baena%NULL%1,                           Felipe Francisco%Tuon%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rocio%Laguna-Goya%NULL%1,                           Alberto%Utrero-Rico%NULL%1,                           Paloma%Talayero%NULL%1,                           Maria%Lasa-Lazaro%NULL%1,                           Angel%Ramirez-Fernandez%NULL%1,                           Laura%Naranjo%NULL%1,                           Alejandro%Segura-Tudela%NULL%1,                           Oscar%Cabrera-Marante%NULL%1,                           Edgar%Rodriguez de Frias%NULL%1,                           Rocio%Garcia-Garcia%NULL%1,                           Mario%Fernández-Ruiz%NULL%1,                           Jose Maria%Aguado%NULL%1,                           Joaquin%Martinez-Lopez%NULL%1,                           Elena Ana%Lopez%NULL%1,                           Mercedes%Catalan%NULL%1,                           Antonio%Serrano%NULL%1,                           Estela%Paz-Artal%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                           Wenbo%He%NULL%1,                           Xiaomei%Yu%NULL%1,                           Dalong%Hu%NULL%1,                           Mingwei%Bao%NULL%1,                           Huafen%Liu%NULL%1,                           Jiali%Zhou%NULL%1,                           Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Haiying%Sun%NULL%0,                           Ruoqi%Ning%NULL%1,                           Yu%Tao%NULL%0,                           Chong%Yu%NULL%2,                           Xiaoyan%Deng%NULL%1,                           Caili%Zhao%NULL%1,                           Silu%Meng%NULL%1,                           Fangxu%Tang%89650793@qq.com%1,                           Dong%Xu%89650793@qq.com%0,                           Dong%Xu%89650793@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Junli%Fan%NULL%1,                           Hui%Wang%NULL%0,                           Guangming%Ye%NULL%2,                           Xiaoling%Cao%NULL%1,                           Xianqun%Xu%NULL%1,                           Wenbin%Tan%wenbin.tan@uscmed.sc.edu%1,                           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Mathilda%Mandel%Mati.Mandel@sheba.health.gov.il%1,                           Gil%Harari%NULL%1,                           Michael%Gurevich%NULL%1,                           Anat%Achiron%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose J.%Guirao%NULL%1,                           Carmen M.%Cabrera%NULL%1,                           Natalia%Jiménez%NULL%1,                           Laura%Rincón%NULL%1,                           José M.%Urra%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunjin%Ke%NULL%1,                           Chong%Yu%NULL%0,                           Daoyuan%Yue%NULL%1,                           Xing%Zeng%NULL%1,                           Zhiquan%Hu%NULL%1,                           Chunguang%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Fuyang%Chen%NULL%0,                           Wenwu%Sun%NULL%1,                           Shengrong%Sun%NULL%1,                           Zhiyu%Li%lizhiyu@whu.edu.cn%1,                           Zhong%Wang%zhongwangchn@whu.edu.cn%1,                           Li%Yu%yuliwhzxyy@163.com%2,                           Li%Yu%yuliwhzxyy@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%Chen%NULL%1,                           Jun%Wang%NULL%0,                           Nan%Su%NULL%1,                           Xiebing%Bao%NULL%1,                           Yongsheng%Li%dr_ysli@126.com%1,                           Jun%Jin%jinjun0514@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Chenze%Li%NULL%0,                           Jiangang%Jiang%NULL%0,                           Feng%Wang%NULL%0,                           Ning%Zhou%NULL%0,                           Giacomo%Veronese%NULL%0,                           Javid J.%Moslehi%NULL%0,                           Enrico%Ammirati%NULL%0,                           Dao Wen%Wang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhao-Hua%Wang%NULL%1,                           Chang%Shu%NULL%0,                           Xiao%Ran%NULL%1,                           Cui-Hong%Xie%NULL%1,                           Lei%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Benping%Zhang%NULL%1,                           Chen%Dong%NULL%1,                           Shengzhong%Li%NULL%1,                           Xiaoqing%Song%NULL%1,                           Wang%Wei%NULL%1,                           Li%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lin%Zhang%NULL%1,                           Bin%Huang%NULL%1,                           Hongzhen%Xia%NULL%1,                           Hua%Fan%NULL%1,                           Muxin%Zhu%NULL%1,                           Liping%Zhu%NULL%1,                           Huan%Zhang%NULL%1,                           Xiaogen%Tao%NULL%1,                           Shaohui%Cheng%NULL%1,                           Jian%Chen%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3078,7 +3265,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3110,7 +3297,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>792</v>
+        <v>847</v>
       </c>
       <c r="F4" t="s">
         <v>47</v>
@@ -3142,7 +3329,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>793</v>
+        <v>848</v>
       </c>
       <c r="F5" t="s">
         <v>53</v>
@@ -3174,7 +3361,7 @@
         <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>794</v>
+        <v>849</v>
       </c>
       <c r="F6" t="s">
         <v>57</v>
@@ -3206,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3232,22 +3419,22 @@
         <v>43867.0</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>820</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>850</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>851</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>823</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>824</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
@@ -3270,7 +3457,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -3302,7 +3489,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>796</v>
+        <v>853</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -3334,7 +3521,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>797</v>
+        <v>854</v>
       </c>
       <c r="F11" t="s">
         <v>71</v>
@@ -3366,7 +3553,7 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>798</v>
+        <v>855</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -3398,7 +3585,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>799</v>
+        <v>856</v>
       </c>
       <c r="F13" t="s">
         <v>80</v>
@@ -3430,7 +3617,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>800</v>
+        <v>857</v>
       </c>
       <c r="F14" t="s">
         <v>85</v>
@@ -3462,7 +3649,7 @@
         <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>801</v>
+        <v>858</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3494,7 +3681,7 @@
         <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>802</v>
+        <v>859</v>
       </c>
       <c r="F16" t="s">
         <v>95</v>
@@ -3526,7 +3713,7 @@
         <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>803</v>
+        <v>860</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -3558,7 +3745,7 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>804</v>
+        <v>861</v>
       </c>
       <c r="F18" t="s">
         <v>105</v>
@@ -3590,7 +3777,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>805</v>
+        <v>862</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -3622,7 +3809,7 @@
         <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>806</v>
+        <v>863</v>
       </c>
       <c r="F20" t="s">
         <v>114</v>
@@ -3654,7 +3841,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>807</v>
+        <v>864</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3686,7 +3873,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>808</v>
+        <v>865</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3718,7 +3905,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>809</v>
+        <v>866</v>
       </c>
       <c r="F23" t="s">
         <v>127</v>
@@ -3750,7 +3937,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>810</v>
+        <v>867</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
@@ -3782,7 +3969,7 @@
         <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3814,7 +4001,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3846,7 +4033,7 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
@@ -3878,7 +4065,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>813</v>
+        <v>870</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3910,7 +4097,7 @@
         <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>814</v>
+        <v>871</v>
       </c>
       <c r="F29" t="s">
         <v>150</v>
@@ -3942,7 +4129,7 @@
         <v>153</v>
       </c>
       <c r="E30" t="s">
-        <v>815</v>
+        <v>872</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
